--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47428E3A-1E92-4A28-8F41-C5735D7F7886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30720" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hasee</author>
+    <author>XINDONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -38,7 +33,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -204,12 +199,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="N1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>默认解锁</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t>BuildingID</t>
   </si>
@@ -250,6 +258,9 @@
     <t>ProduceAmount</t>
   </si>
   <si>
+    <t>Unlock</t>
+  </si>
+  <si>
     <t>building_101</t>
   </si>
   <si>
@@ -292,6 +303,9 @@
     <t>8,6,4,</t>
   </si>
   <si>
+    <t>10,20,30,</t>
+  </si>
+  <si>
     <t>building_401</t>
   </si>
   <si>
@@ -319,6 +333,9 @@
     <t>民居02</t>
   </si>
   <si>
+    <t>20,</t>
+  </si>
+  <si>
     <t>20,40,60,</t>
   </si>
   <si>
@@ -346,27 +363,20 @@
     <t>民居05</t>
   </si>
   <si>
-    <t>100,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>40,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,20,30,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,36 +385,351 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -412,9 +737,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -422,46 +989,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:M11" totalsRowShown="0">
-  <autoFilter ref="A1:M11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="BuildingID"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ResourcePath"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="BuildingType"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CurrencyType"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CurrencyCount"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="RowCount"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ColCount"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Cd"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="ProduceType"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="ProduceID"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="ProduceAmount"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:N11" totalsRowShown="0">
+  <autoFilter ref="A1:N11"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="BuildingID"/>
+    <tableColumn id="7" name="ResourcePath"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="BuildingType"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="CurrencyType"/>
+    <tableColumn id="6" name="CurrencyCount"/>
+    <tableColumn id="8" name="RowCount"/>
+    <tableColumn id="9" name="ColCount"/>
+    <tableColumn id="15" name="Cd"/>
+    <tableColumn id="16" name="ProduceType"/>
+    <tableColumn id="17" name="ProduceID"/>
+    <tableColumn id="18" name="ProduceAmount"/>
+    <tableColumn id="10" name="Unlock"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -748,34 +1363,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" customWidth="1"/>
+    <col min="1" max="2" width="13.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="10.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="15.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="14.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="15.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="16.8888888888889" customWidth="1"/>
+    <col min="8" max="9" width="12.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="11.5555555555556" customWidth="1"/>
+    <col min="11" max="11" width="14.8888888888889" customWidth="1"/>
+    <col min="12" max="12" width="13.1111111111111" customWidth="1"/>
+    <col min="13" max="13" width="17.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -815,28 +1430,31 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -844,8 +1462,8 @@
       <c r="I2">
         <v>2</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -854,30 +1472,33 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -886,7 +1507,7 @@
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -895,30 +1516,33 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -927,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -935,31 +1559,34 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>48</v>
+      <c r="M4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -967,8 +1594,8 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>17</v>
+      <c r="J5" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -977,30 +1604,33 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1008,8 +1638,8 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>17</v>
+      <c r="J6" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1018,30 +1648,33 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>45</v>
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -1049,8 +1682,8 @@
       <c r="I7">
         <v>8</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>17</v>
+      <c r="J7" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1059,30 +1692,33 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>46</v>
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1091,7 +1727,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1100,30 +1736,33 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1132,7 +1771,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1141,30 +1780,33 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="N9" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>46</v>
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -1173,7 +1815,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1182,30 +1824,33 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="N10" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>47</v>
+        <v>16</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1214,7 +1859,7 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1223,16 +1868,19 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="N11" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
   <si>
     <t>BuildingID</t>
   </si>
@@ -267,73 +267,82 @@
     <t>宝塔</t>
   </si>
   <si>
+    <t>当前版本最贵建筑</t>
+  </si>
+  <si>
     <t>0,</t>
   </si>
   <si>
+    <t>5000,</t>
+  </si>
+  <si>
+    <t>-1,</t>
+  </si>
+  <si>
+    <t>building_201</t>
+  </si>
+  <si>
+    <t>院子</t>
+  </si>
+  <si>
+    <t>700,</t>
+  </si>
+  <si>
+    <t>16,13,10,8,</t>
+  </si>
+  <si>
+    <t>100,200,300,400,</t>
+  </si>
+  <si>
+    <t>building_301</t>
+  </si>
+  <si>
+    <t>农田</t>
+  </si>
+  <si>
+    <t>暂时可以生成建筑材料</t>
+  </si>
+  <si>
+    <t>5,</t>
+  </si>
+  <si>
+    <t>8,6,4,</t>
+  </si>
+  <si>
+    <t>6,12,15,</t>
+  </si>
+  <si>
+    <t>building_401</t>
+  </si>
+  <si>
+    <t>马车</t>
+  </si>
+  <si>
+    <t>装饰品</t>
+  </si>
+  <si>
+    <t>300,</t>
+  </si>
+  <si>
+    <t>building_402</t>
+  </si>
+  <si>
+    <t>道路</t>
+  </si>
+  <si>
+    <t>building_403</t>
+  </si>
+  <si>
+    <t>桥</t>
+  </si>
+  <si>
     <t>1000,</t>
   </si>
   <si>
-    <t>-1,</t>
-  </si>
-  <si>
-    <t>building_201</t>
-  </si>
-  <si>
-    <t>院子</t>
-  </si>
-  <si>
-    <t>700,</t>
-  </si>
-  <si>
-    <t>16,13,10,8,</t>
-  </si>
-  <si>
-    <t>100,200,300,400,</t>
-  </si>
-  <si>
-    <t>building_301</t>
-  </si>
-  <si>
-    <t>农田</t>
-  </si>
-  <si>
-    <t>5,</t>
-  </si>
-  <si>
-    <t>8,6,4,</t>
-  </si>
-  <si>
-    <t>10,20,30,</t>
-  </si>
-  <si>
-    <t>building_401</t>
-  </si>
-  <si>
-    <t>马车</t>
-  </si>
-  <si>
-    <t>100,</t>
-  </si>
-  <si>
-    <t>building_402</t>
-  </si>
-  <si>
-    <t>道路</t>
-  </si>
-  <si>
-    <t>building_403</t>
-  </si>
-  <si>
-    <t>桥</t>
-  </si>
-  <si>
     <t>building_202</t>
   </si>
   <si>
-    <t>民居02</t>
-  </si>
-  <si>
-    <t>20,</t>
+    <t>中型房屋1</t>
   </si>
   <si>
     <t>20,40,60,</t>
@@ -342,7 +351,13 @@
     <t>building_203</t>
   </si>
   <si>
-    <t>民居03</t>
+    <t>小型房屋</t>
+  </si>
+  <si>
+    <t>基础房屋</t>
+  </si>
+  <si>
+    <t>150,</t>
   </si>
   <si>
     <t>9,7,5,</t>
@@ -354,16 +369,16 @@
     <t>building_204</t>
   </si>
   <si>
-    <t>民居04</t>
+    <t>中型房屋2</t>
+  </si>
+  <si>
+    <t>400,</t>
   </si>
   <si>
     <t>building_205</t>
   </si>
   <si>
-    <t>民居05</t>
-  </si>
-  <si>
-    <t>40,</t>
+    <t>大型房屋</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1387,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1380,7 +1395,7 @@
     <col min="1" max="2" width="13.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="10.8888888888889" customWidth="1"/>
     <col min="4" max="4" width="15.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="14.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="22.4444444444444" customWidth="1"/>
     <col min="6" max="6" width="15.6666666666667" customWidth="1"/>
     <col min="7" max="7" width="16.8888888888889" customWidth="1"/>
     <col min="8" max="9" width="12.6666666666667" customWidth="1"/>
@@ -1448,13 +1463,13 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1463,7 +1478,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -1472,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
@@ -1483,22 +1498,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -1507,7 +1522,7 @@
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1516,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -1527,22 +1542,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1551,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1560,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N4" t="b">
         <v>1</v>
@@ -1571,22 +1586,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1595,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -1604,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -1615,22 +1630,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1639,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1648,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N6" t="b">
         <v>1</v>
@@ -1659,22 +1674,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -1683,7 +1698,7 @@
         <v>8</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1692,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
@@ -1703,22 +1718,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1727,7 +1742,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1736,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -1747,22 +1762,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1771,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1780,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -1791,22 +1806,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -1815,7 +1830,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1824,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -1835,22 +1850,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1859,7 +1874,7 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1868,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>

--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
   <si>
     <t>BuildingID</t>
   </si>
@@ -261,6 +261,9 @@
     <t>Unlock</t>
   </si>
   <si>
+    <t>People</t>
+  </si>
+  <si>
     <t>building_101</t>
   </si>
   <si>
@@ -345,6 +348,9 @@
     <t>中型房屋1</t>
   </si>
   <si>
+    <t>200,</t>
+  </si>
+  <si>
     <t>20,40,60,</t>
   </si>
   <si>
@@ -357,7 +363,7 @@
     <t>基础房屋</t>
   </si>
   <si>
-    <t>150,</t>
+    <t>80,</t>
   </si>
   <si>
     <t>9,7,5,</t>
@@ -372,13 +378,13 @@
     <t>中型房屋2</t>
   </si>
   <si>
-    <t>400,</t>
-  </si>
-  <si>
     <t>building_205</t>
   </si>
   <si>
     <t>大型房屋</t>
+  </si>
+  <si>
+    <t>800,</t>
   </si>
 </sst>
 </file>
@@ -1075,9 +1081,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:N11" totalsRowShown="0">
-  <autoFilter ref="A1:N11"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:O11" totalsRowShown="0">
+  <autoFilter ref="A1:O11"/>
+  <tableColumns count="15">
     <tableColumn id="1" name="BuildingID"/>
     <tableColumn id="7" name="ResourcePath"/>
     <tableColumn id="2" name="Name"/>
@@ -1092,6 +1098,7 @@
     <tableColumn id="17" name="ProduceID"/>
     <tableColumn id="18" name="ProduceAmount"/>
     <tableColumn id="10" name="Unlock"/>
+    <tableColumn id="11" name="People"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1384,10 +1391,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1405,7 +1412,7 @@
     <col min="13" max="13" width="17.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1448,28 +1455,31 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1478,7 +1488,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -1487,33 +1497,36 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
       </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -1522,7 +1535,7 @@
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1531,33 +1544,36 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
       </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1566,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1575,33 +1591,36 @@
         <v>0</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N4" t="b">
         <v>1</v>
       </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1610,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -1619,33 +1638,36 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
       </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1654,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1663,33 +1685,36 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N6" t="b">
         <v>1</v>
       </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -1698,7 +1723,7 @@
         <v>8</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1707,33 +1732,36 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
       </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1742,7 +1770,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1751,33 +1779,36 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
       </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1786,7 +1817,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1795,33 +1826,36 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
       </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -1830,7 +1864,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1839,33 +1873,36 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
       </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1874,7 +1911,7 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1883,10 +1920,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
+      </c>
+      <c r="O11">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -1,26 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E09502-A5AA-4E56-A44A-334E8D33DD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hasee</author>
     <author>XINDONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -33,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -68,15 +87,26 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>建筑类型：
+          <t xml:space="preserve">建筑类型：
 0房子
 1生产建筑
 2装饰建筑
-3地标</t>
+3地标
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>4其他</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -89,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -105,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -118,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -131,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -144,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -157,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -173,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -199,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="1">
+    <comment ref="N1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -217,7 +247,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="89">
   <si>
     <t>BuildingID</t>
   </si>
@@ -276,9 +306,6 @@
     <t>0,</t>
   </si>
   <si>
-    <t>5000,</t>
-  </si>
-  <si>
     <t>-1,</t>
   </si>
   <si>
@@ -288,24 +315,12 @@
     <t>院子</t>
   </si>
   <si>
-    <t>700,</t>
-  </si>
-  <si>
-    <t>16,13,10,8,</t>
-  </si>
-  <si>
-    <t>100,200,300,400,</t>
-  </si>
-  <si>
     <t>building_301</t>
   </si>
   <si>
     <t>农田</t>
   </si>
   <si>
-    <t>暂时可以生成建筑材料</t>
-  </si>
-  <si>
     <t>5,</t>
   </si>
   <si>
@@ -351,53 +366,185 @@
     <t>200,</t>
   </si>
   <si>
+    <t>building_203</t>
+  </si>
+  <si>
+    <t>小型房屋</t>
+  </si>
+  <si>
+    <t>基础房屋</t>
+  </si>
+  <si>
+    <t>9,7,5,</t>
+  </si>
+  <si>
+    <t>40,60,80,</t>
+  </si>
+  <si>
+    <t>building_204</t>
+  </si>
+  <si>
+    <t>building_205</t>
+  </si>
+  <si>
+    <t>building_302</t>
+  </si>
+  <si>
+    <t>采石场</t>
+  </si>
+  <si>
+    <t>building_303</t>
+  </si>
+  <si>
+    <t>林场</t>
+  </si>
+  <si>
+    <t>building_304</t>
+  </si>
+  <si>
+    <t>砖厂</t>
+  </si>
+  <si>
+    <t>400,</t>
+  </si>
+  <si>
+    <t>building_305</t>
+  </si>
+  <si>
+    <t>商铺</t>
+  </si>
+  <si>
+    <t>2,</t>
+  </si>
+  <si>
+    <t>building_404</t>
+  </si>
+  <si>
+    <t>篱笆</t>
+  </si>
+  <si>
+    <t>building_405</t>
+  </si>
+  <si>
+    <t>井1</t>
+  </si>
+  <si>
+    <t>building_406</t>
+  </si>
+  <si>
+    <t>井2</t>
+  </si>
+  <si>
+    <t>building_407</t>
+  </si>
+  <si>
+    <t>井3</t>
+  </si>
+  <si>
+    <t>500,</t>
+  </si>
+  <si>
+    <t>可以生产木头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以生产粮食</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,8,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10,13,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,6,8,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中型房屋2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大型房屋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>20,40,60,</t>
-  </si>
-  <si>
-    <t>building_203</t>
-  </si>
-  <si>
-    <t>小型房屋</t>
-  </si>
-  <si>
-    <t>基础房屋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,60,80,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,45,57,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,7,5,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,6,5,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>125,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>240,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>80,</t>
-  </si>
-  <si>
-    <t>9,7,5,</t>
-  </si>
-  <si>
-    <t>40,60,80,</t>
-  </si>
-  <si>
-    <t>building_204</t>
-  </si>
-  <si>
-    <t>中型房屋2</t>
-  </si>
-  <si>
-    <t>building_205</t>
-  </si>
-  <si>
-    <t>大型房屋</t>
-  </si>
-  <si>
-    <t>800,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,351 +553,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -758,347 +597,61 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:O11" totalsRowShown="0">
-  <autoFilter ref="A1:O11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:O19" totalsRowShown="0">
+  <autoFilter ref="A1:O19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="BuildingID"/>
-    <tableColumn id="7" name="ResourcePath"/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="BuildingType"/>
-    <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="CurrencyType"/>
-    <tableColumn id="6" name="CurrencyCount"/>
-    <tableColumn id="8" name="RowCount"/>
-    <tableColumn id="9" name="ColCount"/>
-    <tableColumn id="15" name="Cd"/>
-    <tableColumn id="16" name="ProduceType"/>
-    <tableColumn id="17" name="ProduceID"/>
-    <tableColumn id="18" name="ProduceAmount"/>
-    <tableColumn id="10" name="Unlock"/>
-    <tableColumn id="11" name="People"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="BuildingID"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ResourcePath"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="BuildingType"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CurrencyType"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CurrencyCount"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="RowCount"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ColCount"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Cd"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="ProduceType"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="ProduceID"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="ProduceAmount"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Unlock"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="People"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1385,34 +938,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:O11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="10.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="15.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="22.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="15.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="16.8888888888889" customWidth="1"/>
-    <col min="8" max="9" width="12.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="11.5555555555556" customWidth="1"/>
-    <col min="11" max="11" width="14.8888888888889" customWidth="1"/>
-    <col min="12" max="12" width="13.1111111111111" customWidth="1"/>
-    <col min="13" max="13" width="17.5555555555556" customWidth="1"/>
+    <col min="1" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1459,7 +1013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1478,17 +1032,17 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
-        <v>19</v>
+      <c r="G2" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -1506,27 +1060,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
-        <v>23</v>
+      <c r="G3" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -1534,17 +1088,17 @@
       <c r="I3">
         <v>4</v>
       </c>
-      <c r="J3" t="s">
-        <v>24</v>
+      <c r="J3" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -1553,27 +1107,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>28</v>
+      <c r="E4" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1582,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1590,37 +1144,37 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>31</v>
+      <c r="M4" t="s">
+        <v>26</v>
       </c>
       <c r="N4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="s">
-        <v>35</v>
+      <c r="G5" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1628,8 +1182,8 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>20</v>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -1647,27 +1201,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1675,8 +1229,8 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>20</v>
+      <c r="J6" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1688,33 +1242,33 @@
         <v>18</v>
       </c>
       <c r="N6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>40</v>
+      <c r="G7" t="s">
+        <v>35</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -1722,8 +1276,8 @@
       <c r="I7">
         <v>8</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>20</v>
+      <c r="J7" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1741,27 +1295,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>43</v>
+      <c r="G8" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1769,8 +1323,8 @@
       <c r="I8">
         <v>2</v>
       </c>
-      <c r="J8" t="s">
-        <v>30</v>
+      <c r="J8" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1778,8 +1332,8 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
-        <v>44</v>
+      <c r="M8" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -1788,27 +1342,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>48</v>
+      <c r="G9" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1817,7 +1371,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1826,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -1835,36 +1389,36 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
-        <v>52</v>
+      <c r="E10" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>35</v>
+      <c r="G10" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="H10">
         <v>4</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1872,8 +1426,8 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" t="s">
-        <v>44</v>
+      <c r="M10" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -1882,36 +1436,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
+        <v>45</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
-        <v>54</v>
+      <c r="E11" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>55</v>
+      <c r="G11" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="H11">
         <v>4</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1919,8 +1473,8 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" t="s">
-        <v>50</v>
+      <c r="M11" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
@@ -1929,13 +1483,389 @@
         <v>7</v>
       </c>
     </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>11</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N14" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -1,45 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E09502-A5AA-4E56-A44A-334E8D33DD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="15360" windowHeight="13595"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hasee</author>
     <author>XINDONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +33,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,26 +68,16 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">建筑类型：
+          <t>建筑类型：
 0房子
 1生产建筑
 2装饰建筑
 3地标
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>4其他</t>
+4其他</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -148,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -174,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -187,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -203,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -216,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -229,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="N1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -247,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="84">
   <si>
     <t>BuildingID</t>
   </si>
@@ -306,6 +277,9 @@
     <t>0,</t>
   </si>
   <si>
+    <t>1000,</t>
+  </si>
+  <si>
     <t>-1,</t>
   </si>
   <si>
@@ -321,13 +295,16 @@
     <t>农田</t>
   </si>
   <si>
+    <t>可以生产粮食</t>
+  </si>
+  <si>
     <t>5,</t>
   </si>
   <si>
     <t>8,6,4,</t>
   </si>
   <si>
-    <t>6,12,15,</t>
+    <t>4,8,10,</t>
   </si>
   <si>
     <t>building_401</t>
@@ -339,73 +316,118 @@
     <t>装饰品</t>
   </si>
   <si>
+    <t>80,</t>
+  </si>
+  <si>
+    <t>building_402</t>
+  </si>
+  <si>
+    <t>道路</t>
+  </si>
+  <si>
+    <t>building_403</t>
+  </si>
+  <si>
+    <t>桥</t>
+  </si>
+  <si>
+    <t>building_202</t>
+  </si>
+  <si>
+    <t>中型房屋1</t>
+  </si>
+  <si>
+    <t>100,</t>
+  </si>
+  <si>
+    <t>8,7,5,</t>
+  </si>
+  <si>
+    <t>25,45,57,</t>
+  </si>
+  <si>
+    <t>building_203</t>
+  </si>
+  <si>
+    <t>小型房屋</t>
+  </si>
+  <si>
+    <t>基础房屋</t>
+  </si>
+  <si>
+    <t>30,</t>
+  </si>
+  <si>
+    <t>9,7,5,</t>
+  </si>
+  <si>
+    <t>20,40,50,</t>
+  </si>
+  <si>
+    <t>building_204</t>
+  </si>
+  <si>
+    <t>大型房屋</t>
+  </si>
+  <si>
+    <t>240,</t>
+  </si>
+  <si>
+    <t>40,60,80,</t>
+  </si>
+  <si>
+    <t>building_205</t>
+  </si>
+  <si>
+    <t>中型房屋2</t>
+  </si>
+  <si>
+    <t>125,</t>
+  </si>
+  <si>
+    <t>20,40,60,</t>
+  </si>
+  <si>
+    <t>building_302</t>
+  </si>
+  <si>
+    <t>采石场</t>
+  </si>
+  <si>
+    <t>200,</t>
+  </si>
+  <si>
+    <t>6,12,15</t>
+  </si>
+  <si>
+    <t>building_303</t>
+  </si>
+  <si>
+    <t>林场</t>
+  </si>
+  <si>
+    <t>可以生产木头</t>
+  </si>
+  <si>
+    <t>50,</t>
+  </si>
+  <si>
+    <t>8,6,5,</t>
+  </si>
+  <si>
+    <t>5,10,13,</t>
+  </si>
+  <si>
+    <t>building_304</t>
+  </si>
+  <si>
+    <t>砖厂</t>
+  </si>
+  <si>
     <t>300,</t>
   </si>
   <si>
-    <t>building_402</t>
-  </si>
-  <si>
-    <t>道路</t>
-  </si>
-  <si>
-    <t>building_403</t>
-  </si>
-  <si>
-    <t>桥</t>
-  </si>
-  <si>
-    <t>1000,</t>
-  </si>
-  <si>
-    <t>building_202</t>
-  </si>
-  <si>
-    <t>中型房屋1</t>
-  </si>
-  <si>
-    <t>200,</t>
-  </si>
-  <si>
-    <t>building_203</t>
-  </si>
-  <si>
-    <t>小型房屋</t>
-  </si>
-  <si>
-    <t>基础房屋</t>
-  </si>
-  <si>
-    <t>9,7,5,</t>
-  </si>
-  <si>
-    <t>40,60,80,</t>
-  </si>
-  <si>
-    <t>building_204</t>
-  </si>
-  <si>
-    <t>building_205</t>
-  </si>
-  <si>
-    <t>building_302</t>
-  </si>
-  <si>
-    <t>采石场</t>
-  </si>
-  <si>
-    <t>building_303</t>
-  </si>
-  <si>
-    <t>林场</t>
-  </si>
-  <si>
-    <t>building_304</t>
-  </si>
-  <si>
-    <t>砖厂</t>
-  </si>
-  <si>
-    <t>400,</t>
+    <t>3,6,8,</t>
   </si>
   <si>
     <t>building_305</t>
@@ -414,7 +436,7 @@
     <t>商铺</t>
   </si>
   <si>
-    <t>2,</t>
+    <t>11,</t>
   </si>
   <si>
     <t>building_404</t>
@@ -423,6 +445,9 @@
     <t>篱笆</t>
   </si>
   <si>
+    <t>10,</t>
+  </si>
+  <si>
     <t>building_405</t>
   </si>
   <si>
@@ -435,116 +460,29 @@
     <t>井2</t>
   </si>
   <si>
+    <t>1500,</t>
+  </si>
+  <si>
     <t>building_407</t>
   </si>
   <si>
     <t>井3</t>
   </si>
   <si>
-    <t>500,</t>
-  </si>
-  <si>
-    <t>可以生产木头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以生产粮食</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,8,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,10,13,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,6,8,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中型房屋2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大型房屋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,40,60,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,60,80,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,45,57,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,7,5,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,6,5,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>125,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>240,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>1800,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,43 +491,351 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -597,9 +843,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -607,51 +1095,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:O19" totalsRowShown="0">
-  <autoFilter ref="A1:O19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:O19" totalsRowShown="0">
+  <autoFilter ref="A1:O19"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="BuildingID"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ResourcePath"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="BuildingType"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CurrencyType"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CurrencyCount"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="RowCount"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ColCount"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Cd"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="ProduceType"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="ProduceID"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="ProduceAmount"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Unlock"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="People"/>
+    <tableColumn id="1" name="BuildingID"/>
+    <tableColumn id="7" name="ResourcePath"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="BuildingType"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="CurrencyType"/>
+    <tableColumn id="6" name="CurrencyCount"/>
+    <tableColumn id="8" name="RowCount"/>
+    <tableColumn id="9" name="ColCount"/>
+    <tableColumn id="15" name="Cd"/>
+    <tableColumn id="16" name="ProduceType"/>
+    <tableColumn id="17" name="ProduceID"/>
+    <tableColumn id="18" name="ProduceAmount"/>
+    <tableColumn id="10" name="Unlock"/>
+    <tableColumn id="11" name="People"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -938,35 +1476,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="1" max="2" width="13.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="10.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="15.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="18.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="15.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="15.3333333333333" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.77777777777778" customWidth="1"/>
+    <col min="10" max="10" width="11.5555555555556" customWidth="1"/>
+    <col min="11" max="11" width="14.8888888888889" customWidth="1"/>
+    <col min="12" max="12" width="13.1111111111111" customWidth="1"/>
+    <col min="13" max="13" width="16.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +1551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1032,8 +1570,8 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>86</v>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -1041,8 +1579,8 @@
       <c r="I2">
         <v>4</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>77</v>
+      <c r="J2" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -1060,27 +1598,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>85</v>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -1088,8 +1626,8 @@
       <c r="I3">
         <v>4</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>77</v>
+      <c r="J3" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -1107,45 +1645,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>66</v>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -1154,27 +1692,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>84</v>
+      <c r="G5" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1182,8 +1720,8 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
+      <c r="J5" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -1201,27 +1739,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1229,8 +1767,8 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>19</v>
+      <c r="J6" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1248,27 +1786,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -1276,8 +1814,8 @@
       <c r="I7">
         <v>8</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>19</v>
+      <c r="J7" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1295,27 +1833,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>71</v>
+      <c r="G8" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1323,8 +1861,8 @@
       <c r="I8">
         <v>2</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>79</v>
+      <c r="J8" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1332,8 +1870,8 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>78</v>
+      <c r="M8" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -1342,27 +1880,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>70</v>
+      <c r="G9" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1371,7 +1909,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1380,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -1389,27 +1927,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>48</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>74</v>
+      <c r="E10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>82</v>
+      <c r="G10" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -1418,7 +1956,7 @@
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1426,8 +1964,8 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>76</v>
+      <c r="M10" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -1436,27 +1974,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>52</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>73</v>
+      <c r="E11" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>81</v>
+      <c r="G11" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1465,7 +2003,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1473,8 +2011,8 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>75</v>
+      <c r="M11" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
@@ -1483,27 +2021,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H12">
         <v>6</v>
@@ -1512,7 +2050,7 @@
         <v>5</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1520,8 +2058,8 @@
       <c r="L12">
         <v>11</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>68</v>
+      <c r="M12" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
@@ -1530,36 +2068,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>65</v>
+      <c r="E13" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>83</v>
+      <c r="G13" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>6</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>80</v>
+        <v>3</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1567,8 +2105,8 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>69</v>
+      <c r="M13" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="N13" t="b">
         <v>1</v>
@@ -1577,36 +2115,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>88</v>
+      <c r="G14" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1614,8 +2152,8 @@
       <c r="L14">
         <v>1</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>72</v>
+      <c r="M14" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
@@ -1624,36 +2162,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>6</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1671,27 +2209,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>67</v>
+      <c r="G16" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1699,8 +2237,8 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>19</v>
+      <c r="J16" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1718,27 +2256,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1746,8 +2284,8 @@
       <c r="I17">
         <v>2</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>19</v>
+      <c r="J17" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1765,27 +2303,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -1793,8 +2331,8 @@
       <c r="I18">
         <v>2</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>19</v>
+      <c r="J18" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1812,27 +2350,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -1840,8 +2378,8 @@
       <c r="I19">
         <v>2</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>19</v>
+      <c r="J19" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1860,12 +2398,12 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15360" windowHeight="13595"/>
+    <workbookView windowWidth="30720" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
+    <sheet name="BuildingProduce" sheetId="2" r:id="rId2"/>
+    <sheet name="HouseConsume" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -158,7 +160,69 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>默认解锁</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>最大等级</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Hasee</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>唯一id，从0开始</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>建筑名称</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -174,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -187,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -200,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="1">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -209,7 +273,82 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>默认解锁</t>
+          <t>消耗物品id</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>消耗物品量</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Hasee</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>唯一id，从0开始</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>建筑名称</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>产出物品id</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>产出物品量</t>
         </r>
       </text>
     </comment>
@@ -218,7 +357,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="97">
   <si>
     <t>BuildingID</t>
   </si>
@@ -250,6 +389,207 @@
     <t>Cd</t>
   </si>
   <si>
+    <t>Unlock</t>
+  </si>
+  <si>
+    <t>People</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>BaseScore</t>
+  </si>
+  <si>
+    <t>EnvScore</t>
+  </si>
+  <si>
+    <t>building_101</t>
+  </si>
+  <si>
+    <t>宝塔</t>
+  </si>
+  <si>
+    <t>当前版本最贵建筑</t>
+  </si>
+  <si>
+    <t>0,</t>
+  </si>
+  <si>
+    <t>1000,</t>
+  </si>
+  <si>
+    <t>-1,</t>
+  </si>
+  <si>
+    <t>building_201</t>
+  </si>
+  <si>
+    <t>院子</t>
+  </si>
+  <si>
+    <t>building_301</t>
+  </si>
+  <si>
+    <t>农田</t>
+  </si>
+  <si>
+    <t>可以生产粮食</t>
+  </si>
+  <si>
+    <t>5,</t>
+  </si>
+  <si>
+    <t>8,6,4,</t>
+  </si>
+  <si>
+    <t>building_401</t>
+  </si>
+  <si>
+    <t>马车</t>
+  </si>
+  <si>
+    <t>装饰品</t>
+  </si>
+  <si>
+    <t>80,</t>
+  </si>
+  <si>
+    <t>building_402</t>
+  </si>
+  <si>
+    <t>道路</t>
+  </si>
+  <si>
+    <t>building_403</t>
+  </si>
+  <si>
+    <t>桥</t>
+  </si>
+  <si>
+    <t>building_202</t>
+  </si>
+  <si>
+    <t>中型房屋1</t>
+  </si>
+  <si>
+    <t>100,</t>
+  </si>
+  <si>
+    <t>8,7,5,</t>
+  </si>
+  <si>
+    <t>building_203</t>
+  </si>
+  <si>
+    <t>小型房屋</t>
+  </si>
+  <si>
+    <t>基础房屋</t>
+  </si>
+  <si>
+    <t>30,</t>
+  </si>
+  <si>
+    <t>9,7,5,</t>
+  </si>
+  <si>
+    <t>building_204</t>
+  </si>
+  <si>
+    <t>大型房屋</t>
+  </si>
+  <si>
+    <t>240,</t>
+  </si>
+  <si>
+    <t>building_205</t>
+  </si>
+  <si>
+    <t>中型房屋2</t>
+  </si>
+  <si>
+    <t>125,</t>
+  </si>
+  <si>
+    <t>building_302</t>
+  </si>
+  <si>
+    <t>采石场</t>
+  </si>
+  <si>
+    <t>200,</t>
+  </si>
+  <si>
+    <t>building_303</t>
+  </si>
+  <si>
+    <t>林场</t>
+  </si>
+  <si>
+    <t>可以生产木头</t>
+  </si>
+  <si>
+    <t>50,</t>
+  </si>
+  <si>
+    <t>8,6,5,</t>
+  </si>
+  <si>
+    <t>building_304</t>
+  </si>
+  <si>
+    <t>砖厂</t>
+  </si>
+  <si>
+    <t>300,</t>
+  </si>
+  <si>
+    <t>building_305</t>
+  </si>
+  <si>
+    <t>商铺</t>
+  </si>
+  <si>
+    <t>11,</t>
+  </si>
+  <si>
+    <t>building_404</t>
+  </si>
+  <si>
+    <t>篱笆</t>
+  </si>
+  <si>
+    <t>10,</t>
+  </si>
+  <si>
+    <t>building_405</t>
+  </si>
+  <si>
+    <t>井1</t>
+  </si>
+  <si>
+    <t>building_406</t>
+  </si>
+  <si>
+    <t>井2</t>
+  </si>
+  <si>
+    <t>1500,</t>
+  </si>
+  <si>
+    <t>building_407</t>
+  </si>
+  <si>
+    <t>井3</t>
+  </si>
+  <si>
+    <t>1800,</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>ProduceType</t>
   </si>
   <si>
@@ -259,217 +599,55 @@
     <t>ProduceAmount</t>
   </si>
   <si>
-    <t>Unlock</t>
-  </si>
-  <si>
-    <t>People</t>
-  </si>
-  <si>
-    <t>building_101</t>
-  </si>
-  <si>
-    <t>宝塔</t>
-  </si>
-  <si>
-    <t>当前版本最贵建筑</t>
-  </si>
-  <si>
-    <t>0,</t>
-  </si>
-  <si>
-    <t>1000,</t>
-  </si>
-  <si>
-    <t>-1,</t>
-  </si>
-  <si>
-    <t>building_201</t>
-  </si>
-  <si>
-    <t>院子</t>
-  </si>
-  <si>
-    <t>building_301</t>
-  </si>
-  <si>
-    <t>农田</t>
-  </si>
-  <si>
-    <t>可以生产粮食</t>
-  </si>
-  <si>
-    <t>5,</t>
-  </si>
-  <si>
-    <t>8,6,4,</t>
+    <t>ConsumeID</t>
+  </si>
+  <si>
+    <t>ConsumeAmount</t>
   </si>
   <si>
     <t>4,8,10,</t>
   </si>
   <si>
-    <t>building_401</t>
-  </si>
-  <si>
-    <t>马车</t>
-  </si>
-  <si>
-    <t>装饰品</t>
-  </si>
-  <si>
-    <t>80,</t>
-  </si>
-  <si>
-    <t>building_402</t>
-  </si>
-  <si>
-    <t>道路</t>
-  </si>
-  <si>
-    <t>building_403</t>
-  </si>
-  <si>
-    <t>桥</t>
-  </si>
-  <si>
-    <t>building_202</t>
-  </si>
-  <si>
-    <t>中型房屋1</t>
-  </si>
-  <si>
-    <t>100,</t>
-  </si>
-  <si>
-    <t>8,7,5,</t>
-  </si>
-  <si>
     <t>25,45,57,</t>
   </si>
   <si>
-    <t>building_203</t>
-  </si>
-  <si>
-    <t>小型房屋</t>
-  </si>
-  <si>
-    <t>基础房屋</t>
-  </si>
-  <si>
-    <t>30,</t>
-  </si>
-  <si>
-    <t>9,7,5,</t>
-  </si>
-  <si>
     <t>20,40,50,</t>
   </si>
   <si>
-    <t>building_204</t>
-  </si>
-  <si>
-    <t>大型房屋</t>
-  </si>
-  <si>
-    <t>240,</t>
-  </si>
-  <si>
     <t>40,60,80,</t>
   </si>
   <si>
-    <t>building_205</t>
-  </si>
-  <si>
-    <t>中型房屋2</t>
-  </si>
-  <si>
-    <t>125,</t>
-  </si>
-  <si>
     <t>20,40,60,</t>
   </si>
   <si>
-    <t>building_302</t>
-  </si>
-  <si>
-    <t>采石场</t>
-  </si>
-  <si>
-    <t>200,</t>
-  </si>
-  <si>
-    <t>6,12,15</t>
-  </si>
-  <si>
-    <t>building_303</t>
-  </si>
-  <si>
-    <t>林场</t>
-  </si>
-  <si>
-    <t>可以生产木头</t>
-  </si>
-  <si>
-    <t>50,</t>
-  </si>
-  <si>
-    <t>8,6,5,</t>
+    <t>6,12,15,</t>
   </si>
   <si>
     <t>5,10,13,</t>
   </si>
   <si>
-    <t>building_304</t>
-  </si>
-  <si>
-    <t>砖厂</t>
-  </si>
-  <si>
-    <t>300,</t>
-  </si>
-  <si>
     <t>3,6,8,</t>
   </si>
   <si>
-    <t>building_305</t>
-  </si>
-  <si>
-    <t>商铺</t>
-  </si>
-  <si>
-    <t>11,</t>
-  </si>
-  <si>
-    <t>building_404</t>
-  </si>
-  <si>
-    <t>篱笆</t>
-  </si>
-  <si>
-    <t>10,</t>
-  </si>
-  <si>
-    <t>building_405</t>
-  </si>
-  <si>
-    <t>井1</t>
-  </si>
-  <si>
-    <t>building_406</t>
-  </si>
-  <si>
-    <t>井2</t>
-  </si>
-  <si>
-    <t>1500,</t>
-  </si>
-  <si>
-    <t>building_407</t>
-  </si>
-  <si>
-    <t>井3</t>
-  </si>
-  <si>
-    <t>1800,</t>
+    <t>9,</t>
+  </si>
+  <si>
+    <t>12,</t>
+  </si>
+  <si>
+    <t>3,</t>
+  </si>
+  <si>
+    <t>8,</t>
+  </si>
+  <si>
+    <t>16,</t>
+  </si>
+  <si>
+    <t>6,</t>
+  </si>
+  <si>
+    <t>15,</t>
   </si>
 </sst>
 </file>
@@ -482,10 +660,18 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -641,12 +827,24 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -835,12 +1033,36 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -949,10 +1171,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -961,36 +1183,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1000,102 +1219,123 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1185,11 +1425,44 @@
     <tableColumn id="8" name="RowCount"/>
     <tableColumn id="9" name="ColCount"/>
     <tableColumn id="15" name="Cd"/>
-    <tableColumn id="16" name="ProduceType"/>
-    <tableColumn id="17" name="ProduceID"/>
-    <tableColumn id="18" name="ProduceAmount"/>
     <tableColumn id="10" name="Unlock"/>
     <tableColumn id="11" name="People"/>
+    <tableColumn id="12" name="Level"/>
+    <tableColumn id="13" name="BaseScore"/>
+    <tableColumn id="14" name="EnvScore"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:G19" totalsRowShown="0">
+  <autoFilter ref="A1:G19"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="ProduceType"/>
+    <tableColumn id="4" name="ProduceID"/>
+    <tableColumn id="5" name="ProduceAmount"/>
+    <tableColumn id="7" name="ConsumeID"/>
+    <tableColumn id="8" name="ConsumeAmount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_4" displayName="表1_4" ref="A1:E13" totalsRowShown="0">
+  <autoFilter ref="A1:E13"/>
+  <sortState ref="A1:E13">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" name="BuildingID"/>
+    <tableColumn id="3" name="Name"/>
+    <tableColumn id="2" name="Level"/>
+    <tableColumn id="12" name="ConsumeID"/>
+    <tableColumn id="13" name="ProduceAmount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1485,7 +1758,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1499,9 +1772,7 @@
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="9.77777777777778" customWidth="1"/>
     <col min="10" max="10" width="11.5555555555556" customWidth="1"/>
-    <col min="11" max="11" width="14.8888888888889" customWidth="1"/>
-    <col min="12" max="12" width="13.1111111111111" customWidth="1"/>
-    <col min="13" max="13" width="16.1111111111111" customWidth="1"/>
+    <col min="13" max="13" width="9.77777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1579,23 +1850,23 @@
       <c r="I2">
         <v>4</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K2">
-        <v>2</v>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" t="b">
-        <v>0</v>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>50</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1626,19 +1897,19 @@
       <c r="I3">
         <v>4</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K3">
-        <v>2</v>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" t="b">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
@@ -1676,20 +1947,20 @@
       <c r="J4" t="s">
         <v>27</v>
       </c>
-      <c r="K4">
-        <v>1</v>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>10</v>
-      </c>
-      <c r="M4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>8</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1697,22 +1968,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1720,23 +1991,23 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K5">
-        <v>2</v>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" t="b">
-        <v>0</v>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>6</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1744,16 +2015,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -1767,19 +2038,19 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K6">
-        <v>2</v>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" t="b">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
@@ -1791,16 +2062,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -1814,23 +2085,23 @@
       <c r="I7">
         <v>8</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K7">
-        <v>2</v>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" t="b">
-        <v>0</v>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>35</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1838,22 +2109,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1862,22 +2133,22 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8">
+        <v>39</v>
+      </c>
+      <c r="K8" t="b">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" t="b">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>22</v>
       </c>
       <c r="O8">
-        <v>5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1885,46 +2156,46 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
         <v>44</v>
       </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9">
+      <c r="K9" t="b">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N9" t="b">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>10</v>
       </c>
       <c r="O9">
-        <v>3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1932,22 +2203,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -1956,22 +2227,22 @@
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10">
+        <v>44</v>
+      </c>
+      <c r="K10" t="b">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N10" t="b">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>30</v>
       </c>
       <c r="O10">
-        <v>5</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1979,22 +2250,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -2005,20 +2276,20 @@
       <c r="J11" t="s">
         <v>27</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="b">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N11" t="b">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>25</v>
       </c>
       <c r="O11">
-        <v>7</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2026,22 +2297,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H12">
         <v>6</v>
@@ -2052,20 +2323,20 @@
       <c r="J12" t="s">
         <v>27</v>
       </c>
-      <c r="K12">
-        <v>1</v>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>11</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N12" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>9</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2073,22 +2344,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -2097,22 +2368,22 @@
         <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13">
+        <v>58</v>
+      </c>
+      <c r="K13" t="b">
         <v>1</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N13" t="b">
-        <v>1</v>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>7</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -2120,22 +2391,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -2146,20 +2417,20 @@
       <c r="J14" t="s">
         <v>27</v>
       </c>
-      <c r="K14">
-        <v>1</v>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N14" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>10</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2167,22 +2438,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H15">
         <v>4</v>
@@ -2190,19 +2461,19 @@
       <c r="I15">
         <v>4</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K15">
-        <v>2</v>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15" t="s">
-        <v>18</v>
-      </c>
-      <c r="N15" t="b">
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
@@ -2214,22 +2485,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2237,20 +2508,20 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K16">
-        <v>2</v>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16" t="s">
-        <v>18</v>
-      </c>
-      <c r="N16" t="b">
-        <v>0</v>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -2261,16 +2532,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -2284,19 +2555,19 @@
       <c r="I17">
         <v>2</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K17">
-        <v>2</v>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N17" t="b">
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
@@ -2308,22 +2579,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2331,19 +2602,19 @@
       <c r="I18">
         <v>2</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K18">
-        <v>2</v>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18" t="s">
-        <v>18</v>
-      </c>
-      <c r="N18" t="b">
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
@@ -2355,22 +2626,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2378,19 +2649,19 @@
       <c r="I19">
         <v>2</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K19">
-        <v>2</v>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19" t="s">
-        <v>18</v>
-      </c>
-      <c r="N19" t="b">
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
@@ -2406,4 +2677,737 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="3.88888888888889" customWidth="1"/>
+    <col min="2" max="2" width="10.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="14.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="16.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="11.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="18.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A2,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
+        <v>宝塔</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="str">
+        <f>_xlfn.XLOOKUP(A3,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
+        <v>院子</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A4,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
+        <v>农田</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="str">
+        <f>_xlfn.XLOOKUP(A5,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
+        <v>马车</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A6,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
+        <v>道路</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="str">
+        <f>_xlfn.XLOOKUP(A7,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
+        <v>桥</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A8,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
+        <v>中型房屋1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="str">
+        <f>_xlfn.XLOOKUP(A9,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
+        <v>小型房屋</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A10,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
+        <v>大型房屋</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="str">
+        <f>_xlfn.XLOOKUP(A11,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
+        <v>中型房屋2</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A12,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
+        <v>采石场</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="str">
+        <f>_xlfn.XLOOKUP(A13,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
+        <v>林场</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A14,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
+        <v>砖厂</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="5">
+        <v>11</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="str">
+        <f>_xlfn.XLOOKUP(A15,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
+        <v>商铺</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A16,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
+        <v>篱笆</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="str">
+        <f>_xlfn.XLOOKUP(A17,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
+        <v>井1</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A18,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
+        <v>井2</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="str">
+        <f>_xlfn.XLOOKUP(A19,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
+        <v>井3</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="13.1111111111111" customWidth="1"/>
+    <col min="2" max="3" width="10.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="13.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="16.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -357,7 +357,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>BuildingID</t>
   </si>
@@ -419,9 +419,6 @@
     <t>1000,</t>
   </si>
   <si>
-    <t>-1,</t>
-  </si>
-  <si>
     <t>building_201</t>
   </si>
   <si>
@@ -440,9 +437,6 @@
     <t>5,</t>
   </si>
   <si>
-    <t>8,6,4,</t>
-  </si>
-  <si>
     <t>building_401</t>
   </si>
   <si>
@@ -476,9 +470,6 @@
     <t>100,</t>
   </si>
   <si>
-    <t>8,7,5,</t>
-  </si>
-  <si>
     <t>building_203</t>
   </si>
   <si>
@@ -491,9 +482,6 @@
     <t>30,</t>
   </si>
   <si>
-    <t>9,7,5,</t>
-  </si>
-  <si>
     <t>building_204</t>
   </si>
   <si>
@@ -531,9 +519,6 @@
   </si>
   <si>
     <t>50,</t>
-  </si>
-  <si>
-    <t>8,6,5,</t>
   </si>
   <si>
     <t>building_304</t>
@@ -1338,16 +1323,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1758,7 +1737,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1850,8 +1829,8 @@
       <c r="I2">
         <v>4</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>20</v>
+      <c r="J2" s="8">
+        <v>-1</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -1874,16 +1853,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -1897,8 +1876,8 @@
       <c r="I3">
         <v>4</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>20</v>
+      <c r="J3" s="8">
+        <v>-1</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
@@ -1921,31 +1900,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
-      <c r="J4" t="s">
-        <v>27</v>
+      <c r="J4">
+        <v>5</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -1968,22 +1947,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1991,8 +1970,8 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>20</v>
+      <c r="J5" s="9">
+        <v>-1</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -2015,22 +1994,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -2038,8 +2017,8 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" s="11" t="s">
-        <v>20</v>
+      <c r="J6" s="9">
+        <v>-1</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -2062,16 +2041,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -2085,8 +2064,8 @@
       <c r="I7">
         <v>8</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>20</v>
+      <c r="J7" s="9">
+        <v>-1</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -2109,22 +2088,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -2132,8 +2111,8 @@
       <c r="I8">
         <v>2</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>39</v>
+      <c r="J8" s="1">
+        <v>8</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -2148,7 +2127,7 @@
         <v>22</v>
       </c>
       <c r="O8">
-        <v>-4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -2156,31 +2135,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
-      <c r="J9" t="s">
-        <v>44</v>
+      <c r="J9">
+        <v>9</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -2195,7 +2174,7 @@
         <v>10</v>
       </c>
       <c r="O9">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -2203,22 +2182,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -2226,8 +2205,8 @@
       <c r="I10">
         <v>3</v>
       </c>
-      <c r="J10" t="s">
-        <v>44</v>
+      <c r="J10">
+        <v>9</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -2242,7 +2221,7 @@
         <v>30</v>
       </c>
       <c r="O10">
-        <v>-5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -2250,22 +2229,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -2273,8 +2252,8 @@
       <c r="I11">
         <v>2</v>
       </c>
-      <c r="J11" t="s">
-        <v>27</v>
+      <c r="J11">
+        <v>8</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -2289,7 +2268,7 @@
         <v>25</v>
       </c>
       <c r="O11">
-        <v>-4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2297,22 +2276,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H12">
         <v>6</v>
@@ -2320,8 +2299,8 @@
       <c r="I12">
         <v>5</v>
       </c>
-      <c r="J12" t="s">
-        <v>27</v>
+      <c r="J12">
+        <v>6.5</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -2344,22 +2323,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -2367,8 +2346,8 @@
       <c r="I13">
         <v>3</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>58</v>
+      <c r="J13" s="1">
+        <v>6</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
@@ -2391,22 +2370,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -2414,8 +2393,8 @@
       <c r="I14">
         <v>5</v>
       </c>
-      <c r="J14" t="s">
-        <v>27</v>
+      <c r="J14">
+        <v>8</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -2438,22 +2417,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H15">
         <v>4</v>
@@ -2461,8 +2440,8 @@
       <c r="I15">
         <v>4</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>20</v>
+      <c r="J15" s="9">
+        <v>-1</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -2485,22 +2464,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2508,8 +2487,8 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16" s="11" t="s">
-        <v>20</v>
+      <c r="J16" s="9">
+        <v>-1</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -2532,16 +2511,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -2555,8 +2534,8 @@
       <c r="I17">
         <v>2</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>20</v>
+      <c r="J17" s="9">
+        <v>-1</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -2579,22 +2558,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2602,8 +2581,8 @@
       <c r="I18">
         <v>2</v>
       </c>
-      <c r="J18" s="11" t="s">
-        <v>20</v>
+      <c r="J18" s="9">
+        <v>-1</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -2626,22 +2605,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2649,8 +2628,8 @@
       <c r="I19">
         <v>2</v>
       </c>
-      <c r="J19" s="11" t="s">
-        <v>20</v>
+      <c r="J19" s="9">
+        <v>-1</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -2701,25 +2680,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2785,7 +2764,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F4" s="6">
         <v>-1</v>
@@ -2881,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F8" s="5">
         <v>-1</v>
@@ -2905,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F9" s="6">
         <v>-1</v>
@@ -2929,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F10" s="5">
         <v>-1</v>
@@ -2953,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F11" s="6">
         <v>-1</v>
@@ -2977,7 +2956,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F12" s="5">
         <v>-1</v>
@@ -3001,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F13" s="6">
         <v>-1</v>
@@ -3025,13 +3004,13 @@
         <v>1</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F14" s="5">
         <v>11</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3192,10 +3171,10 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3203,16 +3182,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3220,16 +3199,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3237,16 +3216,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3254,16 +3233,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3271,16 +3250,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3288,16 +3267,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3305,16 +3284,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3322,16 +3301,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3339,16 +3318,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3356,16 +3335,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3373,16 +3352,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3390,16 +3369,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -156,7 +156,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>cd时间，等级也从这里获取</t>
+          <t>cd时间</t>
         </r>
       </text>
     </comment>
@@ -1737,7 +1737,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2664,7 +2664,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2863,7 +2863,7 @@
         <v>78</v>
       </c>
       <c r="F8" s="5">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         <v>79</v>
       </c>
       <c r="F9" s="6">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>18</v>
@@ -2911,7 +2911,7 @@
         <v>80</v>
       </c>
       <c r="F10" s="5">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>18</v>
@@ -2935,7 +2935,7 @@
         <v>81</v>
       </c>
       <c r="F11" s="6">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>18</v>
@@ -3149,7 +3149,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>

--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -1,28 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617BEB18-E18C-4682-B592-AD78A14DC9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
     <sheet name="BuildingProduce" sheetId="2" r:id="rId2"/>
     <sheet name="HouseConsume" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hasee</author>
     <author>XINDONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -35,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -79,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -108,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -121,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -147,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -160,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1">
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -173,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="1">
+    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -191,12 +210,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hasee</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -209,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -222,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -238,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -251,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -264,7 +283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -277,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -295,12 +314,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hasee</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -313,7 +332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -326,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -339,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -357,7 +376,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="105">
   <si>
     <t>BuildingID</t>
   </si>
@@ -410,9 +429,6 @@
     <t>宝塔</t>
   </si>
   <si>
-    <t>当前版本最贵建筑</t>
-  </si>
-  <si>
     <t>0,</t>
   </si>
   <si>
@@ -572,6 +588,42 @@
     <t>1800,</t>
   </si>
   <si>
+    <t>building_408</t>
+  </si>
+  <si>
+    <t>树1</t>
+  </si>
+  <si>
+    <t>building_409</t>
+  </si>
+  <si>
+    <t>树2</t>
+  </si>
+  <si>
+    <t>building_410</t>
+  </si>
+  <si>
+    <t>树3</t>
+  </si>
+  <si>
+    <t>building_411</t>
+  </si>
+  <si>
+    <t>树4</t>
+  </si>
+  <si>
+    <t>building_412</t>
+  </si>
+  <si>
+    <t>树5</t>
+  </si>
+  <si>
+    <t>building_413</t>
+  </si>
+  <si>
+    <t>树6</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -633,19 +685,21 @@
   </si>
   <si>
     <t>15,</t>
+  </si>
+  <si>
+    <t>宝塔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,157 +716,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -827,198 +751,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1028,14 +766,14 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1043,266 +781,21 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1311,137 +804,89 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:O19" totalsRowShown="0">
-  <autoFilter ref="A1:O19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:O25" totalsRowShown="0">
+  <autoFilter ref="A1:O25" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="BuildingID"/>
-    <tableColumn id="7" name="ResourcePath"/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="BuildingType"/>
-    <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="CurrencyType"/>
-    <tableColumn id="6" name="CurrencyCount"/>
-    <tableColumn id="8" name="RowCount"/>
-    <tableColumn id="9" name="ColCount"/>
-    <tableColumn id="15" name="Cd"/>
-    <tableColumn id="10" name="Unlock"/>
-    <tableColumn id="11" name="People"/>
-    <tableColumn id="12" name="Level"/>
-    <tableColumn id="13" name="BaseScore"/>
-    <tableColumn id="14" name="EnvScore"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="BuildingID"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ResourcePath"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="BuildingType"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CurrencyType"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CurrencyCount"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="RowCount"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ColCount"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Cd"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Unlock"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="People"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Level"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="BaseScore"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="EnvScore"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:G19" totalsRowShown="0">
-  <autoFilter ref="A1:G19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:G25" totalsRowShown="0">
+  <autoFilter ref="A1:G25" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="ProduceType"/>
-    <tableColumn id="4" name="ProduceID"/>
-    <tableColumn id="5" name="ProduceAmount"/>
-    <tableColumn id="7" name="ConsumeID"/>
-    <tableColumn id="8" name="ConsumeAmount"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(A2,Building!$A$2:$A$25,Building!$C$2:$C$25)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ProduceType"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ProduceID"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ProduceAmount"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="ConsumeID"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="ConsumeAmount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_4" displayName="表1_4" ref="A1:E13" totalsRowShown="0">
-  <autoFilter ref="A1:E13"/>
-  <sortState ref="A1:E13">
-    <sortCondition ref="A1"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表1_4" displayName="表1_4" ref="A1:E13" totalsRowShown="0">
+  <autoFilter ref="A1:E13" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="BuildingID"/>
-    <tableColumn id="3" name="Name"/>
-    <tableColumn id="2" name="Level"/>
-    <tableColumn id="12" name="ConsumeID"/>
-    <tableColumn id="13" name="ProduceAmount"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="BuildingID"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Level"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="ConsumeID"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="ProduceAmount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1728,33 +1173,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:O19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="10.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="15.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="18.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="15.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="15.3333333333333" customWidth="1"/>
+    <col min="1" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="9.77777777777778" customWidth="1"/>
-    <col min="10" max="10" width="11.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="9.77777777777778" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" customWidth="1"/>
+    <col min="10" max="10" width="6.5546875" customWidth="1"/>
+    <col min="13" max="13" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1801,7 +1246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1814,14 +1259,14 @@
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
+      <c r="E2" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -1829,7 +1274,7 @@
       <c r="I2">
         <v>4</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2">
         <v>-1</v>
       </c>
       <c r="K2" t="b">
@@ -1848,27 +1293,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -1876,7 +1321,7 @@
       <c r="I3">
         <v>4</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3">
         <v>-1</v>
       </c>
       <c r="K3" t="b">
@@ -1895,27 +1340,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
         <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1942,35 +1387,35 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5">
         <v>-1</v>
       </c>
       <c r="K5" t="b">
@@ -1989,27 +1434,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -2017,7 +1462,7 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6">
         <v>-1</v>
       </c>
       <c r="K6" t="b">
@@ -2036,27 +1481,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
         <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -2064,7 +1509,7 @@
       <c r="I7">
         <v>8</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7">
         <v>-1</v>
       </c>
       <c r="K7" t="b">
@@ -2083,27 +1528,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
         <v>35</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -2111,7 +1556,7 @@
       <c r="I8">
         <v>2</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8">
         <v>8</v>
       </c>
       <c r="K8" t="b">
@@ -2130,27 +1575,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
         <v>38</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
         <v>39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -2177,27 +1622,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
         <v>42</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -2224,27 +1669,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
         <v>45</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -2271,27 +1716,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
         <v>48</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>49</v>
       </c>
       <c r="H12">
         <v>6</v>
@@ -2318,27 +1763,27 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
         <v>51</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
         <v>52</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -2346,7 +1791,7 @@
       <c r="I13">
         <v>3</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13">
         <v>6</v>
       </c>
       <c r="K13" t="b">
@@ -2365,27 +1810,27 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
         <v>54</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
         <v>55</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -2412,27 +1857,27 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
         <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>58</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
         <v>58</v>
       </c>
-      <c r="F15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>49</v>
+      <c r="G15" t="s">
+        <v>48</v>
       </c>
       <c r="H15">
         <v>4</v>
@@ -2440,7 +1885,7 @@
       <c r="I15">
         <v>4</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15">
         <v>-1</v>
       </c>
       <c r="K15" t="b">
@@ -2459,35 +1904,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
         <v>60</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
         <v>61</v>
       </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16">
         <v>-1</v>
       </c>
       <c r="K16" t="b">
@@ -2506,35 +1951,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
         <v>63</v>
-      </c>
-      <c r="C17" t="s">
-        <v>64</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
         <v>18</v>
       </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17">
         <v>-1</v>
       </c>
       <c r="K17" t="b">
@@ -2547,620 +1992,1044 @@
         <v>1</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
         <v>65</v>
-      </c>
-      <c r="C18" t="s">
-        <v>66</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
         <v>66</v>
       </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>-1</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>30</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>67</v>
       </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="J18" s="9">
-        <v>-1</v>
-      </c>
-      <c r="K18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>68</v>
-      </c>
-      <c r="C19" t="s">
-        <v>69</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
         <v>69</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>30</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>18</v>
       </c>
-      <c r="G19" t="s">
+      <c r="B20" t="s">
         <v>70</v>
       </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="J19" s="9">
-        <v>-1</v>
-      </c>
-      <c r="K19" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20">
+        <v>7</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>5</v>
+      </c>
+      <c r="O20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>-1</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>5</v>
+      </c>
+      <c r="O22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>5</v>
+      </c>
+      <c r="O23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
+      <c r="J24">
+        <v>-1</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>5</v>
+      </c>
+      <c r="O24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>6</v>
+      </c>
+      <c r="J25">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>5</v>
+      </c>
+      <c r="O25">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88888888888889" customWidth="1"/>
-    <col min="2" max="2" width="10.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="14.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="16.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="11.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="18.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A2,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <f>_xlfn.XLOOKUP(A2,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
         <v>宝塔</v>
       </c>
-      <c r="C2" s="5">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A3,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+        <v>院子</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <f>_xlfn.XLOOKUP(A4,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+        <v>农田</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A5,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+        <v>马车</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <f>_xlfn.XLOOKUP(A6,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+        <v>道路</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A7,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+        <v>桥</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <f>_xlfn.XLOOKUP(A8,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+        <v>中型房屋1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="4">
+        <v>-2</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A9,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+        <v>小型房屋</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="5">
+        <v>-2</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <f>_xlfn.XLOOKUP(A10,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+        <v>大型房屋</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="4">
+        <v>-2</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A11,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+        <v>中型房屋2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="5">
+        <v>-2</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>_xlfn.XLOOKUP(A12,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+        <v>采石场</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A13,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+        <v>林场</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="str">
+        <f>_xlfn.XLOOKUP(A14,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+        <v>砖厂</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="4">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A15,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+        <v>商铺</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <f>_xlfn.XLOOKUP(A16,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+        <v>篱笆</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A17,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+        <v>井1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="str">
+        <f>_xlfn.XLOOKUP(A18,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+        <v>井2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A19,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+        <v>井3</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>18</v>
       </c>
-      <c r="F2" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="str">
-        <f>_xlfn.XLOOKUP(A3,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
-        <v>院子</v>
-      </c>
-      <c r="C3" s="6">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A4,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
-        <v>农田</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="str">
-        <f>_xlfn.XLOOKUP(A5,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
-        <v>马车</v>
-      </c>
-      <c r="C5" s="6">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A6,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
-        <v>道路</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="str">
-        <f>_xlfn.XLOOKUP(A7,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
-        <v>桥</v>
-      </c>
-      <c r="C7" s="6">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A8,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
-        <v>中型房屋1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="5">
-        <v>-2</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6" t="str">
-        <f>_xlfn.XLOOKUP(A9,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
-        <v>小型房屋</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="6">
-        <v>-2</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A10,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
-        <v>大型房屋</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="5">
-        <v>-2</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="7">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6" t="str">
-        <f>_xlfn.XLOOKUP(A11,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
-        <v>中型房屋2</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="6">
-        <v>-2</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A12,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
-        <v>采石场</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5">
-        <v>11</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="5">
-        <v>-1</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="7">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6" t="str">
-        <f>_xlfn.XLOOKUP(A13,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
-        <v>林场</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A14,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
-        <v>砖厂</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="5">
-        <v>11</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="7">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6" t="str">
-        <f>_xlfn.XLOOKUP(A15,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
-        <v>商铺</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="4">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A16,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
-        <v>篱笆</v>
-      </c>
-      <c r="C16" s="5">
-        <v>2</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="5">
-        <v>-1</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="7">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6" t="str">
-        <f>_xlfn.XLOOKUP(A17,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
-        <v>井1</v>
-      </c>
-      <c r="C17" s="6">
-        <v>2</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="4">
-        <v>16</v>
-      </c>
-      <c r="B18" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A18,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
-        <v>井2</v>
-      </c>
-      <c r="C18" s="5">
-        <v>2</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="5">
-        <v>-1</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="7">
-        <v>17</v>
-      </c>
-      <c r="B19" s="6" t="str">
-        <f>_xlfn.XLOOKUP(A19,Building!$A$2:$A$19,Building!$C$2:$C$19)</f>
-        <v>井3</v>
-      </c>
-      <c r="C19" s="6">
-        <v>2</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>18</v>
+      <c r="B20" t="str">
+        <f>_xlfn.XLOOKUP(A20,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+        <v>树1</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="str">
+        <f>_xlfn.XLOOKUP(A21,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+        <v>树2</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="str">
+        <f>_xlfn.XLOOKUP(A22,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+        <v>树3</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="str">
+        <f>_xlfn.XLOOKUP(A23,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+        <v>树4</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="str">
+        <f>_xlfn.XLOOKUP(A24,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+        <v>树5</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="str">
+        <f>_xlfn.XLOOKUP(A25,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+        <v>树6</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1111111111111" customWidth="1"/>
-    <col min="2" max="3" width="10.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="13.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="16.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3171,222 +3040,222 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617BEB18-E18C-4682-B592-AD78A14DC9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8E3A35-CCE1-44D2-AB22-4D51B54BC3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -376,7 +376,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="103">
   <si>
     <t>BuildingID</t>
   </si>
@@ -685,21 +685,13 @@
   </si>
   <si>
     <t>15,</t>
-  </si>
-  <si>
-    <t>宝塔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -711,6 +703,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -728,8 +727,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -751,8 +749,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
-        <bgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.79992065187536243"/>
+        <bgColor theme="4" tint="0.79992065187536243"/>
       </patternFill>
     </fill>
   </fills>
@@ -766,14 +764,14 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,10 +779,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,7 +814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1181,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1260,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -1457,7 +1455,7 @@
         <v>24</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -2112,7 +2110,7 @@
         <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="H20">
         <v>7</v>
@@ -2159,7 +2157,7 @@
         <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2206,7 +2204,7 @@
         <v>17</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2253,7 +2251,7 @@
         <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2300,7 +2298,7 @@
         <v>17</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="H24">
         <v>4</v>
@@ -2347,7 +2345,7 @@
         <v>17</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="H25">
         <v>4</v>
@@ -2375,7 +2373,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -2389,7 +2387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -3004,7 +3002,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
@@ -3251,7 +3249,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
   <tableParts count="1">

--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8E3A35-CCE1-44D2-AB22-4D51B54BC3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844F7590-1179-4CD4-9DAD-A9F5EEB276B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1180,7 +1180,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E19" sqref="E18:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1784,10 +1784,10 @@
         <v>52</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -1831,10 +1831,10 @@
         <v>55</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J14">
         <v>8</v>
@@ -1878,10 +1878,10 @@
         <v>48</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J15">
         <v>-1</v>
@@ -2113,10 +2113,10 @@
         <v>52</v>
       </c>
       <c r="H20">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J20">
         <v>-1</v>
@@ -2301,10 +2301,10 @@
         <v>52</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J24">
         <v>-1</v>
@@ -2351,7 +2351,7 @@
         <v>4</v>
       </c>
       <c r="I25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J25">
         <v>-1</v>
@@ -2388,7 +2388,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -1,47 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844F7590-1179-4CD4-9DAD-A9F5EEB276B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30720" windowHeight="13740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
     <sheet name="BuildingProduce" sheetId="2" r:id="rId2"/>
     <sheet name="HouseConsume" sheetId="3" r:id="rId3"/>
+    <sheet name="BuildingUpgrade" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hasee</author>
     <author>XINDONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +36,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -179,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="K1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -192,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="M1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -210,12 +192,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hasee</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -228,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -241,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -257,7 +239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -270,7 +252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -283,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -296,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -314,12 +296,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hasee</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -332,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -345,7 +327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -358,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -376,7 +358,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="108">
   <si>
     <t>BuildingID</t>
   </si>
@@ -685,13 +667,34 @@
   </si>
   <si>
     <t>15,</t>
+  </si>
+  <si>
+    <t>ItemID</t>
+  </si>
+  <si>
+    <t>ItemCount</t>
+  </si>
+  <si>
+    <t>CurrencyID</t>
+  </si>
+  <si>
+    <t>150,</t>
+  </si>
+  <si>
+    <t>1,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -711,7 +714,144 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -720,21 +860,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -749,12 +876,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79992065187536243"/>
-        <bgColor theme="4" tint="0.79992065187536243"/>
+        <fgColor theme="4" tint="0.799920651875362"/>
+        <bgColor theme="4" tint="0.799920651875362"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -764,14 +1077,14 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
+        <color theme="4" tint="0.399914548173467"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
+        <color theme="4" tint="0.399914548173467"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
+        <color theme="4" tint="0.399914548173467"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,16 +1092,258 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
+        <color theme="4" tint="0.399914548173467"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
+        <color theme="4" tint="0.399914548173467"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -814,77 +1369,134 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:O25" totalsRowShown="0">
-  <autoFilter ref="A1:O25" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:O25" totalsRowShown="0">
+  <autoFilter ref="A1:O25"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="BuildingID"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ResourcePath"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="BuildingType"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CurrencyType"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CurrencyCount"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="RowCount"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ColCount"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Cd"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Unlock"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="People"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Level"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="BaseScore"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="EnvScore"/>
+    <tableColumn id="1" name="BuildingID"/>
+    <tableColumn id="7" name="ResourcePath"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="BuildingType"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="CurrencyType"/>
+    <tableColumn id="6" name="CurrencyCount"/>
+    <tableColumn id="8" name="RowCount"/>
+    <tableColumn id="9" name="ColCount"/>
+    <tableColumn id="15" name="Cd"/>
+    <tableColumn id="10" name="Unlock"/>
+    <tableColumn id="11" name="People"/>
+    <tableColumn id="12" name="Level"/>
+    <tableColumn id="13" name="BaseScore"/>
+    <tableColumn id="14" name="EnvScore"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:G25" totalsRowShown="0">
-  <autoFilter ref="A1:G25" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:G25" totalsRowShown="0">
+  <autoFilter ref="A1:G25"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name">
-      <calculatedColumnFormula>_xlfn.XLOOKUP(A2,Building!$A$2:$A$25,Building!$C$2:$C$25)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ProduceType"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ProduceID"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ProduceAmount"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="ConsumeID"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="ConsumeAmount"/>
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="ProduceType"/>
+    <tableColumn id="4" name="ProduceID"/>
+    <tableColumn id="5" name="ProduceAmount"/>
+    <tableColumn id="7" name="ConsumeID"/>
+    <tableColumn id="8" name="ConsumeAmount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表1_4" displayName="表1_4" ref="A1:E13" totalsRowShown="0">
-  <autoFilter ref="A1:E13" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_4" displayName="表1_4" ref="A1:E13" totalsRowShown="0">
+  <autoFilter ref="A1:E13"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="BuildingID"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Level"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="ConsumeID"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="ProduceAmount"/>
+    <tableColumn id="1" name="BuildingID"/>
+    <tableColumn id="3" name="Name"/>
+    <tableColumn id="2" name="Level"/>
+    <tableColumn id="12" name="ConsumeID"/>
+    <tableColumn id="13" name="ProduceAmount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:F3" totalsRowShown="0">
+  <autoFilter ref="A1:F3"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Level"/>
+    <tableColumn id="3" name="ItemID"/>
+    <tableColumn id="4" name="ItemCount"/>
+    <tableColumn id="5" name="CurrencyID"/>
+    <tableColumn id="6" name="CurrencyCount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1171,33 +1783,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E18:E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="1" max="2" width="13.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="10.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="15.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="18.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="15.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="15.3333333333333" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" customWidth="1"/>
-    <col min="10" max="10" width="6.5546875" customWidth="1"/>
-    <col min="13" max="13" width="9.77734375" customWidth="1"/>
+    <col min="9" max="9" width="9.77777777777778" customWidth="1"/>
+    <col min="10" max="10" width="6.55555555555556" customWidth="1"/>
+    <col min="13" max="13" width="9.77777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1244,7 +1856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1291,7 +1903,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1338,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1385,7 +1997,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1432,7 +2044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1479,7 +2091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1526,7 +2138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1573,7 +2185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1620,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1667,7 +2279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1714,7 +2326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1761,7 +2373,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1808,7 +2420,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1855,7 +2467,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1902,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1949,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1996,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2043,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2090,7 +2702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2137,7 +2749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2184,7 +2796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2231,7 +2843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2278,7 +2890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2325,7 +2937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2373,36 +2985,37 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="3.88888888888889" customWidth="1"/>
+    <col min="2" max="2" width="10.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="14.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="16.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="11.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="18.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -2425,7 +3038,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -2449,7 +3062,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -2473,7 +3086,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -2497,7 +3110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -2521,7 +3134,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -2545,7 +3158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -2569,7 +3182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -2593,7 +3206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -2617,7 +3230,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -2641,7 +3254,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -2665,7 +3278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -2689,7 +3302,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -2713,7 +3326,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -2737,7 +3350,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -2761,7 +3374,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -2785,7 +3398,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -2809,7 +3422,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -2833,7 +3446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -2857,7 +3470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2881,7 +3494,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2905,7 +3518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2929,7 +3542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2953,7 +3566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2977,7 +3590,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3002,32 +3615,33 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.1111111111111" customWidth="1"/>
+    <col min="2" max="3" width="10.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="13.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="16.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3044,7 +3658,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>6</v>
       </c>
@@ -3061,7 +3675,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>6</v>
       </c>
@@ -3078,7 +3692,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>6</v>
       </c>
@@ -3095,7 +3709,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>7</v>
       </c>
@@ -3112,7 +3726,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>7</v>
       </c>
@@ -3129,7 +3743,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>7</v>
       </c>
@@ -3146,7 +3760,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>8</v>
       </c>
@@ -3163,7 +3777,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3180,7 +3794,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3197,7 +3811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3214,7 +3828,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>9</v>
       </c>
@@ -3231,7 +3845,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>9</v>
       </c>
@@ -3249,11 +3863,96 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="4" max="4" width="10.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="11.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="15.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F72B84-C541-4F8B-B7B2-733BDB72E677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -12,18 +18,31 @@
     <sheet name="HouseConsume" sheetId="3" r:id="rId3"/>
     <sheet name="BuildingUpgrade" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hasee</author>
     <author>XINDONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -36,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -93,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -122,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -135,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -148,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -161,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1">
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -174,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="1">
+    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -192,12 +211,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hasee</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -210,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -223,7 +242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -239,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -252,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -265,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -278,7 +297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -296,12 +315,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hasee</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -314,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -327,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -340,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -358,7 +377,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="114">
   <si>
     <t>BuildingID</t>
   </si>
@@ -678,23 +697,43 @@
     <t>CurrencyID</t>
   </si>
   <si>
+    <t>-1,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>150,</t>
-  </si>
-  <si>
-    <t>1,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>400,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -711,157 +750,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -876,198 +792,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799920651875362"/>
-        <bgColor theme="4" tint="0.799920651875362"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79989013336588644"/>
+        <bgColor theme="4" tint="0.79989013336588644"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1077,14 +807,14 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399914548173467"/>
+        <color theme="4" tint="0.39988402966399123"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399914548173467"/>
+        <color theme="4" tint="0.39988402966399123"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399914548173467"/>
+        <color theme="4" tint="0.39988402966399123"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1092,262 +822,20 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399914548173467"/>
+        <color theme="4" tint="0.39988402966399123"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399914548173467"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.39988402966399123"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1369,134 +857,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:O25" totalsRowShown="0">
-  <autoFilter ref="A1:O25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:O25" totalsRowShown="0">
+  <autoFilter ref="A1:O25" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="BuildingID"/>
-    <tableColumn id="7" name="ResourcePath"/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="BuildingType"/>
-    <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="CurrencyType"/>
-    <tableColumn id="6" name="CurrencyCount"/>
-    <tableColumn id="8" name="RowCount"/>
-    <tableColumn id="9" name="ColCount"/>
-    <tableColumn id="15" name="Cd"/>
-    <tableColumn id="10" name="Unlock"/>
-    <tableColumn id="11" name="People"/>
-    <tableColumn id="12" name="Level"/>
-    <tableColumn id="13" name="BaseScore"/>
-    <tableColumn id="14" name="EnvScore"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="BuildingID"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ResourcePath"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="BuildingType"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CurrencyType"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CurrencyCount"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="RowCount"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ColCount"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Cd"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Unlock"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="People"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Level"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="BaseScore"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="EnvScore"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:G25" totalsRowShown="0">
-  <autoFilter ref="A1:G25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:G25" totalsRowShown="0">
+  <autoFilter ref="A1:G25" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="ProduceType"/>
-    <tableColumn id="4" name="ProduceID"/>
-    <tableColumn id="5" name="ProduceAmount"/>
-    <tableColumn id="7" name="ConsumeID"/>
-    <tableColumn id="8" name="ConsumeAmount"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(A2,Building!$A$2:$A$25,Building!$C$2:$C$25)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ProduceType"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ProduceID"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ProduceAmount"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="ConsumeID"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="ConsumeAmount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_4" displayName="表1_4" ref="A1:E13" totalsRowShown="0">
-  <autoFilter ref="A1:E13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表1_4" displayName="表1_4" ref="A1:E13" totalsRowShown="0">
+  <autoFilter ref="A1:E13" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="BuildingID"/>
-    <tableColumn id="3" name="Name"/>
-    <tableColumn id="2" name="Level"/>
-    <tableColumn id="12" name="ConsumeID"/>
-    <tableColumn id="13" name="ProduceAmount"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="BuildingID"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Level"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="ConsumeID"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="ProduceAmount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:F3" totalsRowShown="0">
-  <autoFilter ref="A1:F3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表4" displayName="表4" ref="A1:F19" totalsRowShown="0">
+  <autoFilter ref="A1:F19" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Level"/>
-    <tableColumn id="3" name="ItemID"/>
-    <tableColumn id="4" name="ItemCount"/>
-    <tableColumn id="5" name="CurrencyID"/>
-    <tableColumn id="6" name="CurrencyCount"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Level"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ItemID"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="ItemCount"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="CurrencyID"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="CurrencyCount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1783,33 +1232,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="10.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="15.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="18.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="15.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="15.3333333333333" customWidth="1"/>
+    <col min="1" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="9.77777777777778" customWidth="1"/>
-    <col min="10" max="10" width="6.55555555555556" customWidth="1"/>
-    <col min="13" max="13" width="9.77777777777778" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" customWidth="1"/>
+    <col min="10" max="10" width="6.5546875" customWidth="1"/>
+    <col min="13" max="13" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1856,7 +1305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1869,7 +1318,7 @@
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
@@ -1903,7 +1352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1950,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1997,7 +1446,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2044,7 +1493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2091,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2138,7 +1587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2185,7 +1634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2232,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2279,7 +1728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2326,7 +1775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2373,7 +1822,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2420,7 +1869,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2467,7 +1916,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2514,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2561,7 +2010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2608,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2655,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2702,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2721,7 +2170,7 @@
       <c r="F20" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" t="s">
         <v>52</v>
       </c>
       <c r="H20">
@@ -2749,7 +2198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2768,7 +2217,7 @@
       <c r="F21" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" t="s">
         <v>52</v>
       </c>
       <c r="H21">
@@ -2796,7 +2245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2815,7 +2264,7 @@
       <c r="F22" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" t="s">
         <v>52</v>
       </c>
       <c r="H22">
@@ -2843,7 +2292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2862,7 +2311,7 @@
       <c r="F23" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" t="s">
         <v>52</v>
       </c>
       <c r="H23">
@@ -2890,7 +2339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2909,7 +2358,7 @@
       <c r="F24" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" t="s">
         <v>52</v>
       </c>
       <c r="H24">
@@ -2937,7 +2386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2956,7 +2405,7 @@
       <c r="F25" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" t="s">
         <v>52</v>
       </c>
       <c r="H25">
@@ -2985,37 +2434,36 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88888888888889" customWidth="1"/>
-    <col min="2" max="2" width="10.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="14.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="16.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="11.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="18.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -3038,7 +2486,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -3062,7 +2510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -3086,7 +2534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3110,7 +2558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -3134,7 +2582,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3158,7 +2606,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -3182,7 +2630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -3206,7 +2654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -3230,7 +2678,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -3254,7 +2702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -3278,7 +2726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -3302,7 +2750,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -3326,7 +2774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -3350,7 +2798,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -3374,7 +2822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -3398,7 +2846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -3422,7 +2870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -3446,7 +2894,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -3470,7 +2918,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3494,7 +2942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3518,7 +2966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3542,7 +2990,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3566,7 +3014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3590,7 +3038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3615,33 +3063,32 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1111111111111" customWidth="1"/>
-    <col min="2" max="3" width="10.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="13.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="16.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3658,7 +3105,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
@@ -3675,7 +3122,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
@@ -3692,7 +3139,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
@@ -3709,7 +3156,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -3726,7 +3173,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
@@ -3743,7 +3190,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -3760,7 +3207,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -3777,7 +3224,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3794,7 +3241,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3811,7 +3258,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3828,7 +3275,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -3845,7 +3292,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -3863,32 +3310,31 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="11.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="15.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>82</v>
       </c>
@@ -3908,17 +3354,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>106</v>
       </c>
       <c r="E2" t="s">
@@ -3928,18 +3374,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
+      <c r="C3" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -3948,9 +3394,329 @@
         <v>55</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F72B84-C541-4F8B-B7B2-733BDB72E677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30720" windowHeight="13740" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -18,31 +12,18 @@
     <sheet name="HouseConsume" sheetId="3" r:id="rId3"/>
     <sheet name="BuildingUpgrade" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hasee</author>
     <author>XINDONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +36,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -128,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -180,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="K1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -193,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="M1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -211,12 +192,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hasee</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -229,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -242,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -258,7 +239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -271,7 +252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -284,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -297,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -315,12 +296,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hasee</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -333,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -346,7 +327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -359,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -377,7 +358,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="111">
   <si>
     <t>BuildingID</t>
   </si>
@@ -698,42 +679,38 @@
   </si>
   <si>
     <t>-1,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>200,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>150,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>400,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -750,34 +727,157 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -792,12 +892,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79989013336588644"/>
-        <bgColor theme="4" tint="0.79989013336588644"/>
+        <fgColor theme="4" tint="0.799890133365886"/>
+        <bgColor theme="4" tint="0.799890133365886"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -807,14 +1093,14 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39988402966399123"/>
+        <color theme="4" tint="0.399884029663991"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39988402966399123"/>
+        <color theme="4" tint="0.399884029663991"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39988402966399123"/>
+        <color theme="4" tint="0.399884029663991"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,27 +1108,272 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39988402966399123"/>
+        <color theme="4" tint="0.399884029663991"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39988402966399123"/>
+        <color theme="4" tint="0.399884029663991"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -857,95 +1388,134 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:O25" totalsRowShown="0">
-  <autoFilter ref="A1:O25" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:O25" totalsRowShown="0">
+  <autoFilter ref="A1:O25"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="BuildingID"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ResourcePath"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="BuildingType"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CurrencyType"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CurrencyCount"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="RowCount"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ColCount"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Cd"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Unlock"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="People"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Level"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="BaseScore"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="EnvScore"/>
+    <tableColumn id="1" name="BuildingID"/>
+    <tableColumn id="7" name="ResourcePath"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="BuildingType"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="CurrencyType"/>
+    <tableColumn id="6" name="CurrencyCount"/>
+    <tableColumn id="8" name="RowCount"/>
+    <tableColumn id="9" name="ColCount"/>
+    <tableColumn id="15" name="Cd"/>
+    <tableColumn id="10" name="Unlock"/>
+    <tableColumn id="11" name="People"/>
+    <tableColumn id="12" name="Level"/>
+    <tableColumn id="13" name="BaseScore"/>
+    <tableColumn id="14" name="EnvScore"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:G25" totalsRowShown="0">
-  <autoFilter ref="A1:G25" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:G25" totalsRowShown="0">
+  <autoFilter ref="A1:G25"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name">
-      <calculatedColumnFormula>_xlfn.XLOOKUP(A2,Building!$A$2:$A$25,Building!$C$2:$C$25)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ProduceType"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ProduceID"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ProduceAmount"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="ConsumeID"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="ConsumeAmount"/>
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="ProduceType"/>
+    <tableColumn id="4" name="ProduceID"/>
+    <tableColumn id="5" name="ProduceAmount"/>
+    <tableColumn id="7" name="ConsumeID"/>
+    <tableColumn id="8" name="ConsumeAmount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表1_4" displayName="表1_4" ref="A1:E13" totalsRowShown="0">
-  <autoFilter ref="A1:E13" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_4" displayName="表1_4" ref="A1:E13" totalsRowShown="0">
+  <autoFilter ref="A1:E13"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="BuildingID"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Level"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="ConsumeID"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="ProduceAmount"/>
+    <tableColumn id="1" name="BuildingID"/>
+    <tableColumn id="3" name="Name"/>
+    <tableColumn id="2" name="Level"/>
+    <tableColumn id="12" name="ConsumeID"/>
+    <tableColumn id="13" name="ProduceAmount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表4" displayName="表4" ref="A1:F19" totalsRowShown="0">
-  <autoFilter ref="A1:F19" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:F19" totalsRowShown="0">
+  <autoFilter ref="A1:F19"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Level"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ItemID"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="ItemCount"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="CurrencyID"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="CurrencyCount"/>
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Level"/>
+    <tableColumn id="3" name="ItemID"/>
+    <tableColumn id="4" name="ItemCount"/>
+    <tableColumn id="5" name="CurrencyID"/>
+    <tableColumn id="6" name="CurrencyCount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1232,33 +1802,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="1" max="2" width="13.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="10.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="15.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="18.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="15.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="15.3333333333333" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" customWidth="1"/>
-    <col min="10" max="10" width="6.5546875" customWidth="1"/>
-    <col min="13" max="13" width="9.77734375" customWidth="1"/>
+    <col min="9" max="9" width="9.77777777777778" customWidth="1"/>
+    <col min="10" max="10" width="6.55555555555556" customWidth="1"/>
+    <col min="13" max="13" width="9.77777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1305,7 +1875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1352,7 +1922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1399,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1446,7 +2016,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1493,7 +2063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1540,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1587,7 +2157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1634,7 +2204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1681,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1728,7 +2298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1775,7 +2345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1822,7 +2392,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1869,7 +2439,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1916,7 +2486,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1963,7 +2533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2010,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2057,7 +2627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2104,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2151,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2198,7 +2768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2245,7 +2815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2292,7 +2862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2339,7 +2909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2386,7 +2956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2434,491 +3004,492 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="3.88888888888889" customWidth="1"/>
+    <col min="2" max="2" width="10.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="14.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="16.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="11.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="18.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="str">
+    <row r="2" spans="1:7">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="str">
         <f>_xlfn.XLOOKUP(A2,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
         <v>宝塔</v>
       </c>
-      <c r="C2" s="4">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="C2" s="5">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="6">
         <v>-1</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="G2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="6" t="str">
         <f>_xlfn.XLOOKUP(A3,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
         <v>院子</v>
       </c>
-      <c r="C3" s="5">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6">
         <v>-1</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="str">
+      <c r="G3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="str">
         <f>_xlfn.XLOOKUP(A4,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
         <v>农田</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>-1</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="G4" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="str">
+      <c r="B5" s="6" t="str">
         <f>_xlfn.XLOOKUP(A5,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
         <v>马车</v>
       </c>
-      <c r="C5" s="5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="6">
         <v>-1</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="G5" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="str">
+      <c r="B6" s="5" t="str">
         <f>_xlfn.XLOOKUP(A6,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
         <v>道路</v>
       </c>
-      <c r="C6" s="4">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="6">
         <v>-1</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="G6" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="str">
+      <c r="B7" s="6" t="str">
         <f>_xlfn.XLOOKUP(A7,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
         <v>桥</v>
       </c>
-      <c r="C7" s="5">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="C7" s="6">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="6">
         <v>-1</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="G7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="str">
+      <c r="B8" s="5" t="str">
         <f>_xlfn.XLOOKUP(A8,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
         <v>中型房屋1</v>
       </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>-2</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="G8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="str">
+      <c r="B9" s="6" t="str">
         <f>_xlfn.XLOOKUP(A9,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
         <v>小型房屋</v>
       </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="6">
         <v>-2</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="G9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="str">
+      <c r="B10" s="5" t="str">
         <f>_xlfn.XLOOKUP(A10,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
         <v>大型房屋</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>-2</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="G10" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="str">
+      <c r="B11" s="6" t="str">
         <f>_xlfn.XLOOKUP(A11,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
         <v>中型房屋2</v>
       </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="6">
         <v>-2</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="G11" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="str">
+      <c r="B12" s="5" t="str">
         <f>_xlfn.XLOOKUP(A12,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
         <v>采石场</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>1</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <v>11</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <v>-1</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="G12" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="str">
+      <c r="B13" s="6" t="str">
         <f>_xlfn.XLOOKUP(A13,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
         <v>林场</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="6">
         <v>1</v>
       </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="6">
         <v>-1</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="G13" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="str">
+      <c r="B14" s="5" t="str">
         <f>_xlfn.XLOOKUP(A14,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
         <v>砖厂</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="5">
         <v>1</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="5">
         <v>1</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
         <v>11</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+    <row r="15" spans="1:7">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="str">
+      <c r="B15" s="6" t="str">
         <f>_xlfn.XLOOKUP(A15,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
         <v>商铺</v>
       </c>
-      <c r="C15" s="5">
-        <v>2</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="5">
+      <c r="C15" s="6">
+        <v>2</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="6">
         <v>-1</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="G15" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="str">
+      <c r="B16" s="5" t="str">
         <f>_xlfn.XLOOKUP(A16,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
         <v>篱笆</v>
       </c>
-      <c r="C16" s="4">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="C16" s="5">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="5">
         <v>-1</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="G16" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="str">
+      <c r="B17" s="6" t="str">
         <f>_xlfn.XLOOKUP(A17,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
         <v>井1</v>
       </c>
-      <c r="C17" s="5">
-        <v>2</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="5">
+      <c r="C17" s="6">
+        <v>2</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="6">
         <v>-1</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="G17" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="str">
+      <c r="B18" s="5" t="str">
         <f>_xlfn.XLOOKUP(A18,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
         <v>井2</v>
       </c>
-      <c r="C18" s="4">
-        <v>2</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="C18" s="5">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="5">
         <v>-1</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5" t="str">
+      <c r="G18" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="str">
         <f>_xlfn.XLOOKUP(A19,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
         <v>井3</v>
       </c>
-      <c r="C19" s="5">
-        <v>2</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="5">
+      <c r="C19" s="6">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="6">
         <v>-1</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2929,20 +3500,20 @@
       <c r="C20">
         <v>2</v>
       </c>
-      <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="5">
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="6">
         <v>-1</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2953,20 +3524,20 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" s="5">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="5">
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="6">
         <v>-1</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2977,20 +3548,20 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="5">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="5">
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="6">
         <v>-1</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3001,20 +3572,20 @@
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" s="5">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="5">
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="6">
         <v>-1</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3025,20 +3596,20 @@
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="5">
-        <v>0</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="5">
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="6">
         <v>-1</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3049,46 +3620,47 @@
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="5">
-        <v>0</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="5">
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="6">
         <v>-1</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="6" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.1111111111111" customWidth="1"/>
+    <col min="2" max="3" width="10.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="13.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="16.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3105,7 +3677,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>6</v>
       </c>
@@ -3122,7 +3694,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>6</v>
       </c>
@@ -3139,7 +3711,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>6</v>
       </c>
@@ -3156,7 +3728,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>7</v>
       </c>
@@ -3173,7 +3745,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>7</v>
       </c>
@@ -3190,7 +3762,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>7</v>
       </c>
@@ -3207,7 +3779,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>8</v>
       </c>
@@ -3224,7 +3796,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3241,7 +3813,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3258,7 +3830,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3275,7 +3847,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>9</v>
       </c>
@@ -3292,7 +3864,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>9</v>
       </c>
@@ -3310,31 +3882,32 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="4" max="4" width="10.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="11.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="15.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>82</v>
       </c>
@@ -3354,17 +3927,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>106</v>
       </c>
       <c r="E2" t="s">
@@ -3374,17 +3947,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>106</v>
       </c>
       <c r="E3" t="s">
@@ -3394,18 +3967,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>108</v>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -3414,18 +3987,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>6</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>108</v>
+      <c r="C5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -3434,18 +4007,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>7</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>108</v>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -3454,18 +4027,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>108</v>
+      <c r="C7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -3474,18 +4047,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>108</v>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
@@ -3494,18 +4067,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>108</v>
+      <c r="C9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -3514,18 +4087,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>108</v>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
@@ -3534,18 +4107,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>108</v>
+      <c r="C11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
@@ -3554,18 +4127,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>110</v>
+      <c r="C12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
@@ -3574,18 +4147,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
@@ -3594,18 +4167,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>108</v>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
@@ -3614,18 +4187,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>108</v>
+      <c r="C15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
@@ -3634,18 +4207,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>110</v>
+      <c r="C16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="E16" t="s">
         <v>17</v>
@@ -3654,18 +4227,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>12</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="E17" t="s">
         <v>17</v>
@@ -3674,49 +4247,49 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>13</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>110</v>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="E18" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E19" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>113</v>
+      <c r="F19" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740" activeTab="3"/>
+    <workbookView windowWidth="30720" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -104,8 +104,8 @@
           </rPr>
           <t>材料类型（数组）:
 0木材
-1铁
-2黄金</t>
+1石砖
+2铁</t>
         </r>
       </text>
     </comment>
@@ -358,7 +358,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="113">
   <si>
     <t>BuildingID</t>
   </si>
@@ -552,13 +552,19 @@
     <t>井1</t>
   </si>
   <si>
+    <t>0,1,</t>
+  </si>
+  <si>
+    <t>600,500,</t>
+  </si>
+  <si>
     <t>building_406</t>
   </si>
   <si>
     <t>井2</t>
   </si>
   <si>
-    <t>1500,</t>
+    <t>1000,400,</t>
   </si>
   <si>
     <t>building_407</t>
@@ -567,7 +573,7 @@
     <t>井3</t>
   </si>
   <si>
-    <t>1800,</t>
+    <t>500,900,</t>
   </si>
   <si>
     <t>building_408</t>
@@ -703,14 +709,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1221,10 +1220,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1233,33 +1232,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1269,111 +1271,108 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1388,7 +1387,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1810,8 +1812,8 @@
   <sheetPr/>
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2597,10 +2599,10 @@
         <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s">
-        <v>18</v>
+        <v>64</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2632,22 +2634,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2679,22 +2681,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2726,16 +2728,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
@@ -2773,16 +2775,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
@@ -2820,16 +2822,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
@@ -2867,16 +2869,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
@@ -2914,16 +2916,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
@@ -2961,16 +2963,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
@@ -3036,25 +3038,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3120,7 +3122,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F4" s="6">
         <v>-1</v>
@@ -3216,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F8" s="5">
         <v>-2</v>
@@ -3240,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F9" s="6">
         <v>-2</v>
@@ -3264,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F10" s="5">
         <v>-2</v>
@@ -3288,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F11" s="6">
         <v>-2</v>
@@ -3312,7 +3314,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F12" s="5">
         <v>-1</v>
@@ -3336,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F13" s="6">
         <v>-1</v>
@@ -3360,13 +3362,13 @@
         <v>1</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F14" s="5">
         <v>11</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3671,10 +3673,10 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3708,7 +3710,7 @@
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3725,7 +3727,7 @@
         <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3742,7 +3744,7 @@
         <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3776,7 +3778,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3793,7 +3795,7 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3827,7 +3829,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3844,7 +3846,7 @@
         <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3878,7 +3880,7 @@
         <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3896,7 +3898,7 @@
   <sheetPr/>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
@@ -3909,19 +3911,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -3934,11 +3936,11 @@
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>106</v>
+      <c r="C2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -3954,11 +3956,11 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>106</v>
+      <c r="C3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -3995,7 +3997,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>48</v>
@@ -4035,7 +4037,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>48</v>
@@ -4075,7 +4077,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>48</v>
@@ -4115,7 +4117,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>48</v>
@@ -4135,10 +4137,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
@@ -4155,10 +4157,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
@@ -4195,7 +4197,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>48</v>
@@ -4215,10 +4217,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E16" t="s">
         <v>17</v>
@@ -4235,10 +4237,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E17" t="s">
         <v>17</v>
@@ -4258,7 +4260,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E18" t="s">
         <v>17</v>
@@ -4275,16 +4277,16 @@
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E19" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -1813,7 +1813,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1947,10 +1947,10 @@
         <v>17</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J3">
         <v>-1</v>

--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -358,7 +358,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="122">
   <si>
     <t>BuildingID</t>
   </si>
@@ -697,6 +697,33 @@
   </si>
   <si>
     <t>3000,</t>
+  </si>
+  <si>
+    <t>0,10,</t>
+  </si>
+  <si>
+    <t>200,300,</t>
+  </si>
+  <si>
+    <t>0,11,</t>
+  </si>
+  <si>
+    <t>500,200,</t>
+  </si>
+  <si>
+    <t>2000,</t>
+  </si>
+  <si>
+    <t>11,1,</t>
+  </si>
+  <si>
+    <t>600,400,</t>
+  </si>
+  <si>
+    <t>5000,</t>
+  </si>
+  <si>
+    <t>10000,</t>
   </si>
 </sst>
 </file>
@@ -1509,8 +1536,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:F19" totalsRowShown="0">
-  <autoFilter ref="A1:F19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:F23" totalsRowShown="0">
+  <autoFilter ref="A1:F23"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Level"/>
@@ -1813,7 +1840,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1962,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -3896,10 +3923,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -4289,6 +4316,86 @@
         <v>112</v>
       </c>
     </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C424A507-83D1-4BB9-8154-BECEC194B2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -12,18 +18,31 @@
     <sheet name="HouseConsume" sheetId="3" r:id="rId3"/>
     <sheet name="BuildingUpgrade" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hasee</author>
     <author>XINDONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -36,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -93,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -122,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -135,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -148,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -161,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1">
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -174,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="1">
+    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -192,12 +211,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hasee</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -210,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -223,7 +242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -239,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -252,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -265,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -278,7 +297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -296,12 +315,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hasee</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -314,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -327,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -340,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -358,7 +377,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="138">
   <si>
     <t>BuildingID</t>
   </si>
@@ -612,6 +631,48 @@
     <t>树6</t>
   </si>
   <si>
+    <t>building_414</t>
+  </si>
+  <si>
+    <t>亭子</t>
+  </si>
+  <si>
+    <t>building_415</t>
+  </si>
+  <si>
+    <t>牌坊</t>
+  </si>
+  <si>
+    <t>building_416</t>
+  </si>
+  <si>
+    <t>医院</t>
+  </si>
+  <si>
+    <t>building_417</t>
+  </si>
+  <si>
+    <t>书院</t>
+  </si>
+  <si>
+    <t>building_418</t>
+  </si>
+  <si>
+    <t>小摊</t>
+  </si>
+  <si>
+    <t>building_419</t>
+  </si>
+  <si>
+    <t>酒楼</t>
+  </si>
+  <si>
+    <t>building_420</t>
+  </si>
+  <si>
+    <t>铁匠铺</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -724,19 +785,21 @@
   </si>
   <si>
     <t>10000,</t>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -753,157 +816,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -918,198 +852,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799890133365886"/>
-        <bgColor theme="4" tint="0.799890133365886"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79985961485641044"/>
+        <bgColor theme="4" tint="0.79985961485641044"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1119,14 +867,14 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399884029663991"/>
+        <color theme="4" tint="0.39985351115451523"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399884029663991"/>
+        <color theme="4" tint="0.39985351115451523"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399884029663991"/>
+        <color theme="4" tint="0.39985351115451523"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1134,266 +882,21 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399884029663991"/>
+        <color theme="4" tint="0.39985351115451523"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399884029663991"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.39985351115451523"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1417,134 +920,95 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:O25" totalsRowShown="0">
-  <autoFilter ref="A1:O25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:O32" totalsRowShown="0">
+  <autoFilter ref="A1:O32" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="BuildingID"/>
-    <tableColumn id="7" name="ResourcePath"/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="BuildingType"/>
-    <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="CurrencyType"/>
-    <tableColumn id="6" name="CurrencyCount"/>
-    <tableColumn id="8" name="RowCount"/>
-    <tableColumn id="9" name="ColCount"/>
-    <tableColumn id="15" name="Cd"/>
-    <tableColumn id="10" name="Unlock"/>
-    <tableColumn id="11" name="People"/>
-    <tableColumn id="12" name="Level"/>
-    <tableColumn id="13" name="BaseScore"/>
-    <tableColumn id="14" name="EnvScore"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="BuildingID"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ResourcePath"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="BuildingType"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CurrencyType"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CurrencyCount"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="RowCount"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ColCount"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Cd"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Unlock"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="People"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Level"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="BaseScore"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="EnvScore"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:G25" totalsRowShown="0">
-  <autoFilter ref="A1:G25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:G32" totalsRowShown="0">
+  <autoFilter ref="A1:G32" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="ProduceType"/>
-    <tableColumn id="4" name="ProduceID"/>
-    <tableColumn id="5" name="ProduceAmount"/>
-    <tableColumn id="7" name="ConsumeID"/>
-    <tableColumn id="8" name="ConsumeAmount"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(A2,Building!$A$2:$A$32,Building!$C$2:$C$32)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ProduceType"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ProduceID"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ProduceAmount"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="ConsumeID"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="ConsumeAmount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_4" displayName="表1_4" ref="A1:E13" totalsRowShown="0">
-  <autoFilter ref="A1:E13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表1_4" displayName="表1_4" ref="A1:E13" totalsRowShown="0">
+  <autoFilter ref="A1:E13" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="BuildingID"/>
-    <tableColumn id="3" name="Name"/>
-    <tableColumn id="2" name="Level"/>
-    <tableColumn id="12" name="ConsumeID"/>
-    <tableColumn id="13" name="ProduceAmount"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="BuildingID"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Level"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="ConsumeID"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="ProduceAmount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:F23" totalsRowShown="0">
-  <autoFilter ref="A1:F23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表4" displayName="表4" ref="A1:F23" totalsRowShown="0">
+  <autoFilter ref="A1:F23" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Level"/>
-    <tableColumn id="3" name="ItemID"/>
-    <tableColumn id="4" name="ItemCount"/>
-    <tableColumn id="5" name="CurrencyID"/>
-    <tableColumn id="6" name="CurrencyCount"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Level"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ItemID"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="ItemCount"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="CurrencyID"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="CurrencyCount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1831,33 +1295,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:O25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="10.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="15.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="18.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="15.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="15.3333333333333" customWidth="1"/>
+    <col min="1" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="9.77777777777778" customWidth="1"/>
-    <col min="10" max="10" width="6.55555555555556" customWidth="1"/>
-    <col min="13" max="13" width="9.77777777777778" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" customWidth="1"/>
+    <col min="10" max="10" width="6.5546875" customWidth="1"/>
+    <col min="13" max="13" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1904,7 +1368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1951,7 +1415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1998,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2045,7 +1509,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2092,7 +1556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2139,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2186,7 +1650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2233,7 +1697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2280,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2327,7 +1791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2374,7 +1838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2421,7 +1885,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2468,7 +1932,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2515,7 +1979,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2562,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2609,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2628,7 +2092,7 @@
       <c r="F17" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="7" t="s">
         <v>65</v>
       </c>
       <c r="H17">
@@ -2656,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2703,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2750,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2797,7 +2261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2844,7 +2308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2891,7 +2355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2938,7 +2402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2985,7 +2449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3032,664 +2496,1159 @@
         <v>6</v>
       </c>
     </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>20</v>
+      </c>
+      <c r="O26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>6</v>
+      </c>
+      <c r="J27">
+        <v>-1</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>25</v>
+      </c>
+      <c r="O27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>-1</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>30</v>
+      </c>
+      <c r="O28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
+      <c r="J29">
+        <v>-1</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>35</v>
+      </c>
+      <c r="O29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>15</v>
+      </c>
+      <c r="O30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>6</v>
+      </c>
+      <c r="J31">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>28</v>
+      </c>
+      <c r="O31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>7</v>
+      </c>
+      <c r="J32">
+        <v>8</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <v>10</v>
+      </c>
+      <c r="O32">
+        <v>-15</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88888888888889" customWidth="1"/>
-    <col min="2" max="2" width="10.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="14.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="16.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="11.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="18.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A2,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <f>_xlfn.XLOOKUP(A2,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
         <v>宝塔</v>
       </c>
-      <c r="C2" s="5">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="str">
-        <f>_xlfn.XLOOKUP(A3,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A3,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
         <v>院子</v>
       </c>
-      <c r="C3" s="6">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A4,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <f>_xlfn.XLOOKUP(A4,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
         <v>农田</v>
       </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
         <v>10</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="7">
+      <c r="E4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="str">
-        <f>_xlfn.XLOOKUP(A5,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+      <c r="B5" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A5,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
         <v>马车</v>
       </c>
-      <c r="C5" s="6">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="4">
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A6,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+      <c r="B6" s="4" t="str">
+        <f>_xlfn.XLOOKUP(A6,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
         <v>道路</v>
       </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="7">
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="str">
-        <f>_xlfn.XLOOKUP(A7,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+      <c r="B7" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A7,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
         <v>桥</v>
       </c>
-      <c r="C7" s="6">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="4">
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A8,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+      <c r="B8" s="4" t="str">
+        <f>_xlfn.XLOOKUP(A8,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
         <v>中型房屋1</v>
       </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="4">
         <v>-2</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="7">
+      <c r="G8" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="str">
-        <f>_xlfn.XLOOKUP(A9,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+      <c r="B9" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A9,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
         <v>小型房屋</v>
       </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="5">
         <v>-2</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4">
+      <c r="G9" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A10,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+      <c r="B10" s="4" t="str">
+        <f>_xlfn.XLOOKUP(A10,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
         <v>大型房屋</v>
       </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="4">
         <v>-2</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="7">
+      <c r="G10" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="str">
-        <f>_xlfn.XLOOKUP(A11,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+      <c r="B11" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A11,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
         <v>中型房屋2</v>
       </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="5">
         <v>-2</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="4">
+      <c r="G11" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A12,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+      <c r="B12" s="4" t="str">
+        <f>_xlfn.XLOOKUP(A12,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
         <v>采石场</v>
       </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
         <v>11</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="5">
-        <v>-1</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="7">
+      <c r="E12" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="str">
-        <f>_xlfn.XLOOKUP(A13,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+      <c r="B13" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A13,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
         <v>林场</v>
       </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="4">
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A14,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+      <c r="B14" s="4" t="str">
+        <f>_xlfn.XLOOKUP(A14,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
         <v>砖厂</v>
       </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="5">
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="4">
         <v>11</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="7">
+      <c r="G14" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="str">
-        <f>_xlfn.XLOOKUP(A15,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+      <c r="B15" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A15,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
         <v>商铺</v>
       </c>
-      <c r="C15" s="6">
-        <v>2</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="4">
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A16,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+      <c r="B16" s="4" t="str">
+        <f>_xlfn.XLOOKUP(A16,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
         <v>篱笆</v>
       </c>
-      <c r="C16" s="5">
-        <v>2</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="5">
-        <v>-1</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="7">
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="str">
-        <f>_xlfn.XLOOKUP(A17,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+      <c r="B17" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A17,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
         <v>井1</v>
       </c>
-      <c r="C17" s="6">
-        <v>2</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="4">
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A18,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+      <c r="B18" s="4" t="str">
+        <f>_xlfn.XLOOKUP(A18,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
         <v>井2</v>
       </c>
-      <c r="C18" s="5">
-        <v>2</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="5">
-        <v>-1</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="7">
-        <v>17</v>
-      </c>
-      <c r="B19" s="6" t="str">
-        <f>_xlfn.XLOOKUP(A19,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="str">
+        <f>_xlfn.XLOOKUP(A19,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
         <v>井3</v>
       </c>
-      <c r="C19" s="6">
-        <v>2</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="C19" s="5">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="str">
-        <f>_xlfn.XLOOKUP(A20,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+        <f>_xlfn.XLOOKUP(A20,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
         <v>树1</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
-      <c r="D20" s="6">
-        <v>0</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="str">
-        <f>_xlfn.XLOOKUP(A21,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+        <f>_xlfn.XLOOKUP(A21,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
         <v>树2</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" s="6">
-        <v>0</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="str">
-        <f>_xlfn.XLOOKUP(A22,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+        <f>_xlfn.XLOOKUP(A22,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
         <v>树3</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="str">
-        <f>_xlfn.XLOOKUP(A23,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+        <f>_xlfn.XLOOKUP(A23,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
         <v>树4</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" s="6">
-        <v>0</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="str">
-        <f>_xlfn.XLOOKUP(A24,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+        <f>_xlfn.XLOOKUP(A24,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
         <v>树5</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="6">
-        <v>0</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="str">
-        <f>_xlfn.XLOOKUP(A25,Building!$A$2:$A$25,Building!$C$2:$C$25)</f>
+        <f>_xlfn.XLOOKUP(A25,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
         <v>树6</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="6">
-        <v>0</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G25" s="6" t="s">
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="str">
+        <f>_xlfn.XLOOKUP(A26,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
+        <v>亭子</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="str">
+        <f>_xlfn.XLOOKUP(A27,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
+        <v>牌坊</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="str">
+        <f>_xlfn.XLOOKUP(A28,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
+        <v>医院</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="str">
+        <f>_xlfn.XLOOKUP(A29,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
+        <v>书院</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="str">
+        <f>_xlfn.XLOOKUP(A30,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
+        <v>小摊</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="str">
+        <f>_xlfn.XLOOKUP(A31,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
+        <v>酒楼</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="str">
+        <f>_xlfn.XLOOKUP(A32,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
+        <v>铁匠铺</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1111111111111" customWidth="1"/>
-    <col min="2" max="3" width="10.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="13.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="16.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3700,13 +3659,13 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
@@ -3723,7 +3682,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
@@ -3737,10 +3696,10 @@
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
@@ -3754,10 +3713,10 @@
         <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -3771,10 +3730,10 @@
         <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
@@ -3791,7 +3750,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -3805,10 +3764,10 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -3822,10 +3781,10 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3842,7 +3801,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3856,10 +3815,10 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3873,10 +3832,10 @@
         <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -3893,7 +3852,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -3907,67 +3866,66 @@
         <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="11.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="15.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>108</v>
+      <c r="C2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -3976,18 +3934,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>108</v>
+      <c r="C3" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -3996,17 +3954,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
         <v>48</v>
       </c>
       <c r="E4" t="s">
@@ -4016,17 +3974,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" t="s">
         <v>48</v>
       </c>
       <c r="E5" t="s">
@@ -4036,17 +3994,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
         <v>48</v>
       </c>
       <c r="E6" t="s">
@@ -4056,17 +4014,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" t="s">
         <v>48</v>
       </c>
       <c r="E7" t="s">
@@ -4076,17 +4034,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>48</v>
       </c>
       <c r="E8" t="s">
@@ -4096,17 +4054,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" t="s">
         <v>48</v>
       </c>
       <c r="E9" t="s">
@@ -4116,17 +4074,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
         <v>48</v>
       </c>
       <c r="E10" t="s">
@@ -4136,17 +4094,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" t="s">
         <v>48</v>
       </c>
       <c r="E11" t="s">
@@ -4156,18 +4114,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>110</v>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" t="s">
+        <v>124</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
@@ -4176,18 +4134,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>111</v>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" t="s">
+        <v>125</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
@@ -4196,17 +4154,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
         <v>48</v>
       </c>
       <c r="E14" t="s">
@@ -4216,17 +4174,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="C15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" t="s">
         <v>48</v>
       </c>
       <c r="E15" t="s">
@@ -4236,18 +4194,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>110</v>
+      <c r="C16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" t="s">
+        <v>124</v>
       </c>
       <c r="E16" t="s">
         <v>17</v>
@@ -4256,18 +4214,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>111</v>
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" t="s">
+        <v>125</v>
       </c>
       <c r="E17" t="s">
         <v>17</v>
@@ -4276,47 +4234,47 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>110</v>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>124</v>
       </c>
       <c r="E18" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>111</v>
+      <c r="C19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" t="s">
+        <v>125</v>
       </c>
       <c r="E19" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="F19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -4324,10 +4282,10 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E20" t="s">
         <v>17</v>
@@ -4336,7 +4294,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -4344,19 +4302,19 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="E21" t="s">
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -4364,19 +4322,19 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D22" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="E22" t="s">
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -4384,7 +4342,7 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -4393,12 +4351,12 @@
         <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C424A507-83D1-4BB9-8154-BECEC194B2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30720" windowHeight="13740" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -18,31 +12,18 @@
     <sheet name="HouseConsume" sheetId="3" r:id="rId3"/>
     <sheet name="BuildingUpgrade" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hasee</author>
     <author>XINDONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +36,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -128,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -180,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="K1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -193,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="M1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -211,12 +192,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hasee</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -229,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -242,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -258,7 +239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -271,7 +252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -284,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -297,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -315,12 +296,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hasee</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -333,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -346,7 +327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -359,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -637,6 +618,9 @@
     <t>亭子</t>
   </si>
   <si>
+    <t>1,</t>
+  </si>
+  <si>
     <t>building_415</t>
   </si>
   <si>
@@ -694,16 +678,16 @@
     <t>4,8,10,</t>
   </si>
   <si>
-    <t>25,45,57,</t>
-  </si>
-  <si>
-    <t>20,40,50,</t>
-  </si>
-  <si>
-    <t>40,60,80,</t>
-  </si>
-  <si>
-    <t>20,40,60,</t>
+    <t>13,25,45,</t>
+  </si>
+  <si>
+    <t>10,20,25,</t>
+  </si>
+  <si>
+    <t>20,35,56,</t>
+  </si>
+  <si>
+    <t>12,24,40,</t>
   </si>
   <si>
     <t>6,12,15,</t>
@@ -748,7 +732,7 @@
     <t>-1,</t>
   </si>
   <si>
-    <t>1,</t>
+    <t>600,</t>
   </si>
   <si>
     <t>150,</t>
@@ -757,7 +741,10 @@
     <t>400,</t>
   </si>
   <si>
-    <t>3000,</t>
+    <t>2000,</t>
+  </si>
+  <si>
+    <t>6000,</t>
   </si>
   <si>
     <t>0,10,</t>
@@ -772,7 +759,7 @@
     <t>500,200,</t>
   </si>
   <si>
-    <t>2000,</t>
+    <t>4000,</t>
   </si>
   <si>
     <t>11,1,</t>
@@ -781,25 +768,23 @@
     <t>600,400,</t>
   </si>
   <si>
-    <t>5000,</t>
-  </si>
-  <si>
     <t>10000,</t>
   </si>
   <si>
-    <t>1,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>20000,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -816,15 +801,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -832,12 +811,154 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -852,12 +973,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79985961485641044"/>
-        <bgColor theme="4" tint="0.79985961485641044"/>
+        <fgColor theme="4" tint="0.79985961485641"/>
+        <bgColor theme="4" tint="0.79985961485641"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -867,14 +1174,14 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39985351115451523"/>
+        <color theme="4" tint="0.399853511154515"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39985351115451523"/>
+        <color theme="4" tint="0.399853511154515"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39985351115451523"/>
+        <color theme="4" tint="0.399853511154515"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,20 +1189,262 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39985351115451523"/>
+        <color theme="4" tint="0.399853511154515"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39985351115451523"/>
+        <color theme="4" tint="0.399853511154515"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -920,95 +1469,137 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:O32" totalsRowShown="0">
-  <autoFilter ref="A1:O32" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:O32" totalsRowShown="0">
+  <autoFilter ref="A1:O32"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="BuildingID"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ResourcePath"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="BuildingType"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CurrencyType"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CurrencyCount"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="RowCount"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ColCount"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Cd"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Unlock"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="People"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Level"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="BaseScore"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="EnvScore"/>
+    <tableColumn id="1" name="BuildingID"/>
+    <tableColumn id="7" name="ResourcePath"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="BuildingType"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="CurrencyType"/>
+    <tableColumn id="6" name="CurrencyCount"/>
+    <tableColumn id="8" name="RowCount"/>
+    <tableColumn id="9" name="ColCount"/>
+    <tableColumn id="15" name="Cd"/>
+    <tableColumn id="10" name="Unlock"/>
+    <tableColumn id="11" name="People"/>
+    <tableColumn id="12" name="Level"/>
+    <tableColumn id="13" name="BaseScore"/>
+    <tableColumn id="14" name="EnvScore"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:G32" totalsRowShown="0">
-  <autoFilter ref="A1:G32" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:G32" totalsRowShown="0">
+  <autoFilter ref="A1:G32"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name">
-      <calculatedColumnFormula>_xlfn.XLOOKUP(A2,Building!$A$2:$A$32,Building!$C$2:$C$32)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ProduceType"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ProduceID"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ProduceAmount"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="ConsumeID"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="ConsumeAmount"/>
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="ProduceType"/>
+    <tableColumn id="4" name="ProduceID"/>
+    <tableColumn id="5" name="ProduceAmount"/>
+    <tableColumn id="7" name="ConsumeID"/>
+    <tableColumn id="8" name="ConsumeAmount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表1_4" displayName="表1_4" ref="A1:E13" totalsRowShown="0">
-  <autoFilter ref="A1:E13" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_4" displayName="表1_4" ref="A1:E13" totalsRowShown="0">
+  <autoFilter ref="A1:E13"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="BuildingID"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Level"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="ConsumeID"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="ProduceAmount"/>
+    <tableColumn id="1" name="BuildingID"/>
+    <tableColumn id="3" name="Name"/>
+    <tableColumn id="2" name="Level"/>
+    <tableColumn id="12" name="ConsumeID"/>
+    <tableColumn id="13" name="ProduceAmount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表4" displayName="表4" ref="A1:F23" totalsRowShown="0">
-  <autoFilter ref="A1:F23" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:F23" totalsRowShown="0">
+  <autoFilter ref="A1:F23"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Level"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ItemID"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="ItemCount"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="CurrencyID"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="CurrencyCount"/>
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Level"/>
+    <tableColumn id="3" name="ItemID"/>
+    <tableColumn id="4" name="ItemCount"/>
+    <tableColumn id="5" name="CurrencyID"/>
+    <tableColumn id="6" name="CurrencyCount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1295,33 +1886,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="1" max="2" width="13.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="10.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="15.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="18.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="15.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="15.3333333333333" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" customWidth="1"/>
-    <col min="10" max="10" width="6.5546875" customWidth="1"/>
-    <col min="13" max="13" width="9.77734375" customWidth="1"/>
+    <col min="9" max="9" width="9.77777777777778" customWidth="1"/>
+    <col min="10" max="10" width="6.55555555555556" customWidth="1"/>
+    <col min="13" max="13" width="9.77777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1368,7 +1959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1415,7 +2006,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1462,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1509,7 +2100,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1556,7 +2147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1603,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1650,7 +2241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1697,7 +2288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1744,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1791,7 +2382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1838,7 +2429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1885,7 +2476,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1932,7 +2523,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1979,7 +2570,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2026,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2073,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2120,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2167,7 +2758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2214,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2261,7 +2852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2308,7 +2899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2355,7 +2946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2402,7 +2993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2449,7 +3040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2496,7 +3087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2512,11 +3103,11 @@
       <c r="E26" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>137</v>
+      <c r="F26" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2543,27 +3134,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>137</v>
+      <c r="G27" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2590,27 +3181,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28">
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>137</v>
+        <v>90</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -2637,27 +3228,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>137</v>
+        <v>92</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="H29">
         <v>6</v>
@@ -2684,27 +3275,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>137</v>
+        <v>94</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -2731,27 +3322,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31">
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>137</v>
+        <v>96</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="H31">
         <v>5</v>
@@ -2778,27 +3369,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32">
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>137</v>
+        <v>98</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="H32">
         <v>5</v>
@@ -2826,59 +3417,60 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="3.88888888888889" customWidth="1"/>
+    <col min="2" max="2" width="10.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="14.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="16.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="11.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="18.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -2902,7 +3494,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -2926,7 +3518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -2941,7 +3533,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F4" s="5">
         <v>-1</v>
@@ -2950,7 +3542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -2974,7 +3566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -2998,7 +3590,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -3022,7 +3614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -3037,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F8" s="4">
         <v>-2</v>
@@ -3046,7 +3638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -3061,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F9" s="5">
         <v>-2</v>
@@ -3070,7 +3662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -3085,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F10" s="4">
         <v>-2</v>
@@ -3094,7 +3686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -3109,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F11" s="5">
         <v>-2</v>
@@ -3118,7 +3710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -3133,7 +3725,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F12" s="4">
         <v>-1</v>
@@ -3142,7 +3734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -3157,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F13" s="5">
         <v>-1</v>
@@ -3166,7 +3758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -3181,16 +3773,16 @@
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F14" s="4">
         <v>11</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -3214,7 +3806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -3238,7 +3830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -3262,7 +3854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -3286,7 +3878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -3310,7 +3902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3334,7 +3926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3358,7 +3950,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3382,7 +3974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3406,7 +3998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3430,7 +4022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3454,7 +4046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3478,7 +4070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3502,7 +4094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3526,7 +4118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3550,7 +4142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3574,7 +4166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3598,7 +4190,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3613,7 +4205,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F32" s="5">
         <v>-1</v>
@@ -3623,32 +4215,33 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.1111111111111" customWidth="1"/>
+    <col min="2" max="3" width="10.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="13.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="16.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3659,13 +4252,13 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>6</v>
       </c>
@@ -3682,7 +4275,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>6</v>
       </c>
@@ -3696,10 +4289,10 @@
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>6</v>
       </c>
@@ -3713,10 +4306,10 @@
         <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>7</v>
       </c>
@@ -3730,10 +4323,10 @@
         <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>7</v>
       </c>
@@ -3750,7 +4343,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>7</v>
       </c>
@@ -3764,10 +4357,10 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>8</v>
       </c>
@@ -3781,10 +4374,10 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3801,7 +4394,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3815,10 +4408,10 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3832,10 +4425,10 @@
         <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>9</v>
       </c>
@@ -3852,7 +4445,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>9</v>
       </c>
@@ -3866,95 +4459,96 @@
         <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="4" max="4" width="10.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="11.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="15.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>122</v>
+      <c r="C2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>122</v>
+      <c r="C3" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>6</v>
       </c>
@@ -3971,10 +4565,10 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>6</v>
       </c>
@@ -3982,7 +4576,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
         <v>48</v>
@@ -3991,10 +4585,10 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>7</v>
       </c>
@@ -4011,10 +4605,10 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>7</v>
       </c>
@@ -4022,7 +4616,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
         <v>48</v>
@@ -4031,10 +4625,10 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>8</v>
       </c>
@@ -4051,10 +4645,10 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4062,7 +4656,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
         <v>48</v>
@@ -4071,10 +4665,10 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4091,10 +4685,10 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4102,7 +4696,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
         <v>48</v>
@@ -4111,10 +4705,10 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4122,19 +4716,19 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>10</v>
       </c>
@@ -4142,19 +4736,19 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>11</v>
       </c>
@@ -4171,10 +4765,10 @@
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>11</v>
       </c>
@@ -4182,7 +4776,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
@@ -4191,10 +4785,10 @@
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>12</v>
       </c>
@@ -4202,19 +4796,19 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E16" t="s">
         <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>12</v>
       </c>
@@ -4222,19 +4816,19 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E17" t="s">
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>13</v>
       </c>
@@ -4245,16 +4839,16 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E18" t="s">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>13</v>
       </c>
@@ -4262,19 +4856,19 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E19" t="s">
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>1</v>
       </c>
@@ -4282,19 +4876,19 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
         <v>127</v>
       </c>
-      <c r="D20" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>1</v>
       </c>
@@ -4302,19 +4896,19 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E21" t="s">
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>1</v>
       </c>
@@ -4322,19 +4916,19 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E22" t="s">
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>1</v>
       </c>
@@ -4342,7 +4936,7 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -4351,12 +4945,12 @@
         <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740" activeTab="3"/>
+    <workbookView windowWidth="30720" windowHeight="13740" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
     <sheet name="BuildingProduce" sheetId="2" r:id="rId2"/>
     <sheet name="HouseConsume" sheetId="3" r:id="rId3"/>
     <sheet name="BuildingUpgrade" sheetId="4" r:id="rId4"/>
+    <sheet name="CityEvaluate" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -358,7 +359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="139">
   <si>
     <t>BuildingID</t>
   </si>
@@ -772,6 +773,9 @@
   </si>
   <si>
     <t>20000,</t>
+  </si>
+  <si>
+    <t>Score</t>
   </si>
 </sst>
 </file>
@@ -784,7 +788,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -796,13 +800,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1302,10 +1299,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1314,33 +1311,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1350,97 +1350,94 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1469,7 +1466,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -1600,6 +1597,17 @@
     <tableColumn id="4" name="ItemCount"/>
     <tableColumn id="5" name="CurrencyID"/>
     <tableColumn id="6" name="CurrencyCount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Level"/>
+    <tableColumn id="2" name="Score"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4477,8 +4485,8 @@
   <sheetPr/>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -4955,4 +4963,72 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740" activeTab="4"/>
+    <workbookView windowWidth="30720" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -359,7 +359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="141">
   <si>
     <t>BuildingID</t>
   </si>
@@ -535,6 +535,9 @@
     <t>商铺</t>
   </si>
   <si>
+    <t>购买物品</t>
+  </si>
+  <si>
     <t>11,</t>
   </si>
   <si>
@@ -646,6 +649,9 @@
     <t>小摊</t>
   </si>
   <si>
+    <t>把不用的物品换成钱</t>
+  </si>
+  <si>
     <t>building_419</t>
   </si>
   <si>
@@ -676,49 +682,49 @@
     <t>ConsumeAmount</t>
   </si>
   <si>
-    <t>4,8,10,</t>
-  </si>
-  <si>
-    <t>13,25,45,</t>
-  </si>
-  <si>
-    <t>10,20,25,</t>
-  </si>
-  <si>
-    <t>20,35,56,</t>
+    <t>3,7,9,</t>
+  </si>
+  <si>
+    <t>11,23,42,</t>
+  </si>
+  <si>
+    <t>9,18,24,</t>
+  </si>
+  <si>
+    <t>18,32,50,</t>
   </si>
   <si>
     <t>12,24,40,</t>
   </si>
   <si>
-    <t>6,12,15,</t>
+    <t>5,11,14,</t>
+  </si>
+  <si>
+    <t>4,9,12,</t>
+  </si>
+  <si>
+    <t>3,6,8,</t>
   </si>
   <si>
     <t>5,10,13,</t>
   </si>
   <si>
-    <t>3,6,8,</t>
-  </si>
-  <si>
-    <t>9,</t>
-  </si>
-  <si>
-    <t>12,</t>
-  </si>
-  <si>
-    <t>3,</t>
+    <t>4,</t>
   </si>
   <si>
     <t>8,</t>
   </si>
   <si>
-    <t>16,</t>
-  </si>
-  <si>
-    <t>6,</t>
+    <t>2,</t>
+  </si>
+  <si>
+    <t>7,</t>
   </si>
   <si>
     <t>15,</t>
+  </si>
+  <si>
+    <t>13,</t>
   </si>
   <si>
     <t>ItemID</t>
@@ -1902,8 +1908,8 @@
   <sheetPr/>
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1911,7 +1917,7 @@
     <col min="1" max="2" width="13.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="10.8888888888889" customWidth="1"/>
     <col min="4" max="4" width="15.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="18.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="15.6666666666667" customWidth="1"/>
     <col min="7" max="7" width="15.3333333333333" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
@@ -2592,10 +2598,10 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
         <v>48</v>
@@ -2630,22 +2636,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2677,22 +2683,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2724,22 +2730,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2771,22 +2777,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2818,16 +2824,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
@@ -2865,16 +2871,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
@@ -2912,16 +2918,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
@@ -2959,16 +2965,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
@@ -3006,16 +3012,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
@@ -3053,16 +3059,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
@@ -3100,19 +3106,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>35</v>
@@ -3147,19 +3153,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="C27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>35</v>
@@ -3194,19 +3200,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28">
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>35</v>
@@ -3241,19 +3247,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>35</v>
@@ -3288,19 +3294,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>35</v>
@@ -3335,19 +3341,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31">
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>35</v>
@@ -3382,19 +3388,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32">
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>35</v>
@@ -3441,7 +3447,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -3457,25 +3463,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3541,7 +3547,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F4" s="5">
         <v>-1</v>
@@ -3637,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F8" s="4">
         <v>-2</v>
@@ -3661,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F9" s="5">
         <v>-2</v>
@@ -3685,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F10" s="4">
         <v>-2</v>
@@ -3709,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F11" s="5">
         <v>-2</v>
@@ -3733,7 +3739,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F12" s="4">
         <v>-1</v>
@@ -3757,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F13" s="5">
         <v>-1</v>
@@ -3781,13 +3787,13 @@
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F14" s="4">
         <v>11</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4213,7 +4219,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F32" s="5">
         <v>-1</v>
@@ -4238,7 +4244,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -4260,10 +4266,10 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4277,10 +4283,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4294,10 +4300,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4311,10 +4317,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4328,10 +4334,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4345,10 +4351,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4362,10 +4368,10 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4379,10 +4385,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4396,10 +4402,10 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4413,10 +4419,10 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4430,10 +4436,10 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4447,10 +4453,10 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4464,10 +4470,10 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4486,7 +4492,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -4498,19 +4504,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -4524,10 +4530,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -4544,16 +4550,16 @@
         <v>3</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4584,7 +4590,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
         <v>48</v>
@@ -4593,7 +4599,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4624,7 +4630,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
         <v>48</v>
@@ -4633,7 +4639,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4664,7 +4670,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
         <v>48</v>
@@ -4673,7 +4679,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4704,7 +4710,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
         <v>48</v>
@@ -4713,7 +4719,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4724,10 +4730,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
@@ -4744,16 +4750,16 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
         <v>126</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4784,7 +4790,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
@@ -4793,7 +4799,7 @@
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4804,10 +4810,10 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E16" t="s">
         <v>17</v>
@@ -4824,16 +4830,16 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
         <v>126</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4847,13 +4853,13 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4864,16 +4870,16 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E19" t="s">
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4884,16 +4890,16 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
         <v>129</v>
-      </c>
-      <c r="D20" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4904,16 +4910,16 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E21" t="s">
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4924,16 +4930,16 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E22" t="s">
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4944,7 +4950,7 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -4953,7 +4959,7 @@
         <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4970,7 +4976,7 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -4981,7 +4987,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740"/>
+    <workbookView windowWidth="23040" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -359,7 +359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="163">
   <si>
     <t>BuildingID</t>
   </si>
@@ -406,6 +406,9 @@
     <t>EnvScore</t>
   </si>
   <si>
+    <t>Story</t>
+  </si>
+  <si>
     <t>building_101</t>
   </si>
   <si>
@@ -418,12 +421,56 @@
     <t>1000,</t>
   </si>
   <si>
+    <t>在风景秀美之地，宝塔具有不可替代的引领作用</t>
+  </si>
+  <si>
     <t>building_201</t>
   </si>
   <si>
     <t>院子</t>
   </si>
   <si>
+    <r>
+      <t>宋代农村百姓的比较朴实</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1D1D1F"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1D1D1F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多为低矮的屋和瓦房</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1D1D1F"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1D1D1F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>构成一组住宅</t>
+    </r>
+  </si>
+  <si>
     <t>building_301</t>
   </si>
   <si>
@@ -436,6 +483,9 @@
     <t>5,</t>
   </si>
   <si>
+    <t>生产农作物</t>
+  </si>
+  <si>
     <t>building_401</t>
   </si>
   <si>
@@ -448,18 +498,27 @@
     <t>80,</t>
   </si>
   <si>
+    <t>宋代马车多为平民百姓所使用，作为长途交通工具</t>
+  </si>
+  <si>
     <t>building_402</t>
   </si>
   <si>
     <t>道路</t>
   </si>
   <si>
+    <t>宋代道路十分便利，以石路为主，供行人和车辆通行</t>
+  </si>
+  <si>
     <t>building_403</t>
   </si>
   <si>
     <t>桥</t>
   </si>
   <si>
+    <t>宋代桥梁材质多为砖、木，造型素简古雅</t>
+  </si>
+  <si>
     <t>building_202</t>
   </si>
   <si>
@@ -469,6 +528,9 @@
     <t>100,</t>
   </si>
   <si>
+    <t>宋代农村百姓的比较朴实,多为低矮的屋和瓦房,构成一组住宅</t>
+  </si>
+  <si>
     <t>building_203</t>
   </si>
   <si>
@@ -508,6 +570,9 @@
     <t>200,</t>
   </si>
   <si>
+    <t>生产石材</t>
+  </si>
+  <si>
     <t>building_303</t>
   </si>
   <si>
@@ -520,6 +585,9 @@
     <t>50,</t>
   </si>
   <si>
+    <t>生产木材</t>
+  </si>
+  <si>
     <t>building_304</t>
   </si>
   <si>
@@ -529,6 +597,9 @@
     <t>300,</t>
   </si>
   <si>
+    <t>生产砖块</t>
+  </si>
+  <si>
     <t>building_305</t>
   </si>
   <si>
@@ -541,6 +612,9 @@
     <t>11,</t>
   </si>
   <si>
+    <t>生活用品，奇珍异宝，应有尽有</t>
+  </si>
+  <si>
     <t>building_404</t>
   </si>
   <si>
@@ -550,6 +624,9 @@
     <t>10,</t>
   </si>
   <si>
+    <t>篱笆可以保护房屋家室</t>
+  </si>
+  <si>
     <t>building_405</t>
   </si>
   <si>
@@ -562,6 +639,9 @@
     <t>600,500,</t>
   </si>
   <si>
+    <t>苏轼疏浚六井，使得西湖甘水，殆遍一城</t>
+  </si>
+  <si>
     <t>building_406</t>
   </si>
   <si>
@@ -586,6 +666,9 @@
     <t>树1</t>
   </si>
   <si>
+    <t>树木可用来装点城市，清洁空气</t>
+  </si>
+  <si>
     <t>building_409</t>
   </si>
   <si>
@@ -625,24 +708,36 @@
     <t>1,</t>
   </si>
   <si>
+    <t>宋代亭榭是山川灵气动荡吐纳的交点和精神聚积的处所</t>
+  </si>
+  <si>
     <t>building_415</t>
   </si>
   <si>
     <t>牌坊</t>
   </si>
   <si>
+    <t>牌坊昭示家族先人的高尚美德和丰功伟绩，兼有祭祖的功能</t>
+  </si>
+  <si>
     <t>building_416</t>
   </si>
   <si>
     <t>医院</t>
   </si>
   <si>
+    <t>收容病人，进行医疗救助</t>
+  </si>
+  <si>
     <t>building_417</t>
   </si>
   <si>
     <t>书院</t>
   </si>
   <si>
+    <t>宋代书院是中国古代的相对独立于官学之外的教育机构</t>
+  </si>
+  <si>
     <t>building_418</t>
   </si>
   <si>
@@ -652,16 +747,25 @@
     <t>把不用的物品换成钱</t>
   </si>
   <si>
+    <t>宋代“地摊经济”空前繁盛，可作为城市文化的标志性特点</t>
+  </si>
+  <si>
     <t>building_419</t>
   </si>
   <si>
     <t>酒楼</t>
   </si>
   <si>
+    <t>提供餐食和美酒</t>
+  </si>
+  <si>
     <t>building_420</t>
   </si>
   <si>
     <t>铁匠铺</t>
+  </si>
+  <si>
+    <t>生产各类铁器,满足老百姓的需求</t>
   </si>
   <si>
     <t>ID</t>
@@ -794,7 +898,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -809,6 +913,25 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1D1D1F"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1D1D1F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -976,8 +1099,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79985961485641"/>
-        <bgColor theme="4" tint="0.79985961485641"/>
+        <fgColor theme="4" tint="0.799829096346934"/>
+        <bgColor theme="4" tint="0.799829096346934"/>
       </patternFill>
     </fill>
     <fill>
@@ -1177,14 +1300,14 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399853511154515"/>
+        <color theme="4" tint="0.399822992645039"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399853511154515"/>
+        <color theme="4" tint="0.399822992645039"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399853511154515"/>
+        <color theme="4" tint="0.399822992645039"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1192,10 +1315,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399853511154515"/>
+        <color theme="4" tint="0.399822992645039"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399853511154515"/>
+        <color theme="4" tint="0.399822992645039"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1305,10 +1428,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1317,137 +1440,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1472,7 +1595,13 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -1540,9 +1669,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:O32" totalsRowShown="0">
-  <autoFilter ref="A1:O32"/>
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:P32" totalsRowShown="0">
+  <autoFilter ref="A1:P32"/>
+  <tableColumns count="16">
     <tableColumn id="1" name="BuildingID"/>
     <tableColumn id="7" name="ResourcePath"/>
     <tableColumn id="2" name="Name"/>
@@ -1558,6 +1687,7 @@
     <tableColumn id="12" name="Level"/>
     <tableColumn id="13" name="BaseScore"/>
     <tableColumn id="14" name="EnvScore"/>
+    <tableColumn id="16" name="Story"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1906,10 +2036,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1924,9 +2054,10 @@
     <col min="9" max="9" width="9.77777777777778" customWidth="1"/>
     <col min="10" max="10" width="6.55555555555556" customWidth="1"/>
     <col min="13" max="13" width="9.77777777777778" customWidth="1"/>
+    <col min="16" max="16" width="65.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1972,28 +2103,31 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:16">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -2019,28 +2153,31 @@
       <c r="O2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="15.6" spans="1:16">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -2066,28 +2203,31 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:16">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -2113,28 +2253,31 @@
       <c r="O4">
         <v>-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:16">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -2160,28 +2303,31 @@
       <c r="O5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:16">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -2207,28 +2353,31 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:16">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -2254,28 +2403,31 @@
       <c r="O7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -2301,28 +2453,31 @@
       <c r="O8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -2348,28 +2503,31 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -2395,28 +2553,31 @@
       <c r="O10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -2442,28 +2603,31 @@
       <c r="O11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:16">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H12">
         <v>6</v>
@@ -2489,28 +2653,31 @@
       <c r="O12">
         <v>-9</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:16">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H13">
         <v>6</v>
@@ -2536,28 +2703,31 @@
       <c r="O13">
         <v>-6</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:16">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H14">
         <v>8</v>
@@ -2583,28 +2753,31 @@
       <c r="O14">
         <v>-12</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:16">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H15">
         <v>6</v>
@@ -2630,28 +2803,31 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:16">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2677,28 +2853,31 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:16">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2724,28 +2903,31 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:16">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2771,28 +2953,31 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="1:16">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2818,28 +3003,31 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" ht="15" spans="1:16">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2865,28 +3053,31 @@
       <c r="O20">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:16">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2912,28 +3103,31 @@
       <c r="O21">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:16">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2959,28 +3153,31 @@
       <c r="O22">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:16">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -3006,28 +3203,31 @@
       <c r="O23">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="1:16">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -3053,28 +3253,31 @@
       <c r="O24">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:16">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H25">
         <v>4</v>
@@ -3100,28 +3303,31 @@
       <c r="O25">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:16">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>35</v>
+        <v>101</v>
+      </c>
+      <c r="F26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" t="s">
+        <v>42</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -3147,28 +3353,31 @@
       <c r="O26">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="1:16">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>35</v>
+        <v>105</v>
+      </c>
+      <c r="F27" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" t="s">
+        <v>42</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -3194,28 +3403,31 @@
       <c r="O27">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:16">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="D28">
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>35</v>
+        <v>108</v>
+      </c>
+      <c r="F28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" t="s">
+        <v>42</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3241,28 +3453,31 @@
       <c r="O28">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" ht="15.6" spans="1:16">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>35</v>
+        <v>111</v>
+      </c>
+      <c r="F29" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" t="s">
+        <v>42</v>
       </c>
       <c r="H29">
         <v>6</v>
@@ -3288,28 +3503,31 @@
       <c r="O29">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:16">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>35</v>
+        <v>115</v>
+      </c>
+      <c r="F30" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" t="s">
+        <v>42</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3335,28 +3553,31 @@
       <c r="O30">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P30" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="1:16">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D31">
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>35</v>
+        <v>118</v>
+      </c>
+      <c r="F31" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" t="s">
+        <v>42</v>
       </c>
       <c r="H31">
         <v>5</v>
@@ -3382,28 +3603,31 @@
       <c r="O31">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="P31" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:16">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="D32">
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>35</v>
+        <v>121</v>
+      </c>
+      <c r="F32" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" t="s">
+        <v>42</v>
       </c>
       <c r="H32">
         <v>5</v>
@@ -3428,6 +3652,9 @@
       </c>
       <c r="O32">
         <v>-15</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3463,25 +3690,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3499,13 +3726,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="5">
         <v>-1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3523,13 +3750,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="5">
         <v>-1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3547,13 +3774,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="F4" s="5">
         <v>-1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3571,13 +3798,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="5">
         <v>-1</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3595,13 +3822,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="5">
         <v>-1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3619,13 +3846,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" s="5">
         <v>-1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3643,13 +3870,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="F8" s="4">
         <v>-2</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3667,13 +3894,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="F9" s="5">
         <v>-2</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3691,13 +3918,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="F10" s="4">
         <v>-2</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3715,13 +3942,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="F11" s="5">
         <v>-2</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3739,13 +3966,13 @@
         <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="F12" s="4">
         <v>-1</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3763,13 +3990,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="F13" s="5">
         <v>-1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3787,13 +4014,13 @@
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="F14" s="4">
         <v>11</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3811,13 +4038,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F15" s="5">
         <v>-1</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3835,13 +4062,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F16" s="4">
         <v>-1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3859,13 +4086,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F17" s="5">
         <v>-1</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3883,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F18" s="4">
         <v>-1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3907,13 +4134,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F19" s="5">
         <v>-1</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3931,13 +4158,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F20" s="5">
         <v>-1</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3955,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F21" s="5">
         <v>-1</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3979,13 +4206,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="5">
         <v>-1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4003,13 +4230,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F23" s="5">
         <v>-1</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4027,13 +4254,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F24" s="5">
         <v>-1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4051,13 +4278,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F25" s="5">
         <v>-1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4075,13 +4302,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F26" s="4">
         <v>-1</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4099,13 +4326,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F27" s="5">
         <v>-1</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -4123,13 +4350,13 @@
         <v>0</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F28" s="4">
         <v>-1</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -4147,13 +4374,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F29" s="5">
         <v>-1</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -4171,13 +4398,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F30" s="5">
         <v>-1</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -4195,13 +4422,13 @@
         <v>0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F31" s="5">
         <v>-1</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -4219,13 +4446,13 @@
         <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="F32" s="5">
         <v>-1</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -4266,10 +4493,10 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="E1" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4277,16 +4504,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4294,16 +4521,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4311,16 +4538,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4328,16 +4555,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4345,16 +4572,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4362,16 +4589,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4379,16 +4606,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4396,16 +4623,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4413,16 +4640,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4430,16 +4657,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4447,16 +4674,16 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4464,16 +4691,16 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4504,19 +4731,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -4529,17 +4756,17 @@
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>125</v>
+      <c r="C2" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4549,17 +4776,17 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>125</v>
+      <c r="C3" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4570,16 +4797,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4590,16 +4817,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4610,16 +4837,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4630,16 +4857,16 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4650,16 +4877,16 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4670,16 +4897,16 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4690,16 +4917,16 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4710,16 +4937,16 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4730,16 +4957,16 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4750,16 +4977,16 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4770,16 +4997,16 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4790,16 +5017,16 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4810,16 +5037,16 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4830,16 +5057,16 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4850,16 +5077,16 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4870,16 +5097,16 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4890,16 +5117,16 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4910,16 +5137,16 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4930,16 +5157,16 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4950,16 +5177,16 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4987,7 +5214,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300"/>
+    <workbookView windowWidth="30720" windowHeight="13740" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -359,7 +359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="164">
   <si>
     <t>BuildingID</t>
   </si>
@@ -409,6 +409,9 @@
     <t>Story</t>
   </si>
   <si>
+    <t>MaxCount</t>
+  </si>
+  <si>
     <t>building_101</t>
   </si>
   <si>
@@ -431,6 +434,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1D1D1F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>宋代农村百姓的比较朴实</t>
     </r>
     <r>
@@ -609,214 +618,214 @@
     <t>购买物品</t>
   </si>
   <si>
+    <t>生活用品，奇珍异宝，应有尽有</t>
+  </si>
+  <si>
+    <t>building_404</t>
+  </si>
+  <si>
+    <t>篱笆</t>
+  </si>
+  <si>
+    <t>10,</t>
+  </si>
+  <si>
+    <t>篱笆可以保护房屋家室</t>
+  </si>
+  <si>
+    <t>building_405</t>
+  </si>
+  <si>
+    <t>井1</t>
+  </si>
+  <si>
+    <t>0,1,</t>
+  </si>
+  <si>
+    <t>600,500,</t>
+  </si>
+  <si>
+    <t>苏轼疏浚六井，使得西湖甘水，殆遍一城</t>
+  </si>
+  <si>
+    <t>building_406</t>
+  </si>
+  <si>
+    <t>井2</t>
+  </si>
+  <si>
+    <t>1000,400,</t>
+  </si>
+  <si>
+    <t>building_407</t>
+  </si>
+  <si>
+    <t>井3</t>
+  </si>
+  <si>
+    <t>500,900,</t>
+  </si>
+  <si>
+    <t>building_408</t>
+  </si>
+  <si>
+    <t>树1</t>
+  </si>
+  <si>
+    <t>树木可用来装点城市，清洁空气</t>
+  </si>
+  <si>
+    <t>building_409</t>
+  </si>
+  <si>
+    <t>树2</t>
+  </si>
+  <si>
+    <t>building_410</t>
+  </si>
+  <si>
+    <t>树3</t>
+  </si>
+  <si>
+    <t>building_411</t>
+  </si>
+  <si>
+    <t>树4</t>
+  </si>
+  <si>
+    <t>building_412</t>
+  </si>
+  <si>
+    <t>树5</t>
+  </si>
+  <si>
+    <t>building_413</t>
+  </si>
+  <si>
+    <t>树6</t>
+  </si>
+  <si>
+    <t>building_414</t>
+  </si>
+  <si>
+    <t>亭子</t>
+  </si>
+  <si>
+    <t>1,</t>
+  </si>
+  <si>
+    <t>宋代亭榭是山川灵气动荡吐纳的交点和精神聚积的处所</t>
+  </si>
+  <si>
+    <t>building_415</t>
+  </si>
+  <si>
+    <t>牌坊</t>
+  </si>
+  <si>
+    <t>牌坊昭示家族先人的高尚美德和丰功伟绩，兼有祭祖的功能</t>
+  </si>
+  <si>
+    <t>building_416</t>
+  </si>
+  <si>
+    <t>医院</t>
+  </si>
+  <si>
+    <t>收容病人，进行医疗救助</t>
+  </si>
+  <si>
+    <t>building_417</t>
+  </si>
+  <si>
+    <t>书院</t>
+  </si>
+  <si>
+    <t>宋代书院是中国古代的相对独立于官学之外的教育机构</t>
+  </si>
+  <si>
+    <t>building_418</t>
+  </si>
+  <si>
+    <t>小摊</t>
+  </si>
+  <si>
+    <t>把不用的物品换成钱</t>
+  </si>
+  <si>
+    <t>宋代“地摊经济”空前繁盛，可作为城市文化的标志性特点</t>
+  </si>
+  <si>
+    <t>building_419</t>
+  </si>
+  <si>
+    <t>酒楼</t>
+  </si>
+  <si>
+    <t>提供餐食和美酒</t>
+  </si>
+  <si>
+    <t>building_420</t>
+  </si>
+  <si>
+    <t>铁匠铺</t>
+  </si>
+  <si>
+    <t>生产各类铁器,满足老百姓的需求</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ProduceType</t>
+  </si>
+  <si>
+    <t>ProduceID</t>
+  </si>
+  <si>
+    <t>ProduceAmount</t>
+  </si>
+  <si>
+    <t>ConsumeID</t>
+  </si>
+  <si>
+    <t>ConsumeAmount</t>
+  </si>
+  <si>
+    <t>3,7,9,</t>
+  </si>
+  <si>
+    <t>11,23,42,</t>
+  </si>
+  <si>
+    <t>9,18,24,</t>
+  </si>
+  <si>
+    <t>18,32,50,</t>
+  </si>
+  <si>
+    <t>12,24,40,</t>
+  </si>
+  <si>
+    <t>5,11,14,</t>
+  </si>
+  <si>
+    <t>4,9,12,</t>
+  </si>
+  <si>
+    <t>3,6,8,</t>
+  </si>
+  <si>
+    <t>5,10,13,</t>
+  </si>
+  <si>
+    <t>4,</t>
+  </si>
+  <si>
+    <t>8,</t>
+  </si>
+  <si>
     <t>11,</t>
-  </si>
-  <si>
-    <t>生活用品，奇珍异宝，应有尽有</t>
-  </si>
-  <si>
-    <t>building_404</t>
-  </si>
-  <si>
-    <t>篱笆</t>
-  </si>
-  <si>
-    <t>10,</t>
-  </si>
-  <si>
-    <t>篱笆可以保护房屋家室</t>
-  </si>
-  <si>
-    <t>building_405</t>
-  </si>
-  <si>
-    <t>井1</t>
-  </si>
-  <si>
-    <t>0,1,</t>
-  </si>
-  <si>
-    <t>600,500,</t>
-  </si>
-  <si>
-    <t>苏轼疏浚六井，使得西湖甘水，殆遍一城</t>
-  </si>
-  <si>
-    <t>building_406</t>
-  </si>
-  <si>
-    <t>井2</t>
-  </si>
-  <si>
-    <t>1000,400,</t>
-  </si>
-  <si>
-    <t>building_407</t>
-  </si>
-  <si>
-    <t>井3</t>
-  </si>
-  <si>
-    <t>500,900,</t>
-  </si>
-  <si>
-    <t>building_408</t>
-  </si>
-  <si>
-    <t>树1</t>
-  </si>
-  <si>
-    <t>树木可用来装点城市，清洁空气</t>
-  </si>
-  <si>
-    <t>building_409</t>
-  </si>
-  <si>
-    <t>树2</t>
-  </si>
-  <si>
-    <t>building_410</t>
-  </si>
-  <si>
-    <t>树3</t>
-  </si>
-  <si>
-    <t>building_411</t>
-  </si>
-  <si>
-    <t>树4</t>
-  </si>
-  <si>
-    <t>building_412</t>
-  </si>
-  <si>
-    <t>树5</t>
-  </si>
-  <si>
-    <t>building_413</t>
-  </si>
-  <si>
-    <t>树6</t>
-  </si>
-  <si>
-    <t>building_414</t>
-  </si>
-  <si>
-    <t>亭子</t>
-  </si>
-  <si>
-    <t>1,</t>
-  </si>
-  <si>
-    <t>宋代亭榭是山川灵气动荡吐纳的交点和精神聚积的处所</t>
-  </si>
-  <si>
-    <t>building_415</t>
-  </si>
-  <si>
-    <t>牌坊</t>
-  </si>
-  <si>
-    <t>牌坊昭示家族先人的高尚美德和丰功伟绩，兼有祭祖的功能</t>
-  </si>
-  <si>
-    <t>building_416</t>
-  </si>
-  <si>
-    <t>医院</t>
-  </si>
-  <si>
-    <t>收容病人，进行医疗救助</t>
-  </si>
-  <si>
-    <t>building_417</t>
-  </si>
-  <si>
-    <t>书院</t>
-  </si>
-  <si>
-    <t>宋代书院是中国古代的相对独立于官学之外的教育机构</t>
-  </si>
-  <si>
-    <t>building_418</t>
-  </si>
-  <si>
-    <t>小摊</t>
-  </si>
-  <si>
-    <t>把不用的物品换成钱</t>
-  </si>
-  <si>
-    <t>宋代“地摊经济”空前繁盛，可作为城市文化的标志性特点</t>
-  </si>
-  <si>
-    <t>building_419</t>
-  </si>
-  <si>
-    <t>酒楼</t>
-  </si>
-  <si>
-    <t>提供餐食和美酒</t>
-  </si>
-  <si>
-    <t>building_420</t>
-  </si>
-  <si>
-    <t>铁匠铺</t>
-  </si>
-  <si>
-    <t>生产各类铁器,满足老百姓的需求</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>ProduceType</t>
-  </si>
-  <si>
-    <t>ProduceID</t>
-  </si>
-  <si>
-    <t>ProduceAmount</t>
-  </si>
-  <si>
-    <t>ConsumeID</t>
-  </si>
-  <si>
-    <t>ConsumeAmount</t>
-  </si>
-  <si>
-    <t>3,7,9,</t>
-  </si>
-  <si>
-    <t>11,23,42,</t>
-  </si>
-  <si>
-    <t>9,18,24,</t>
-  </si>
-  <si>
-    <t>18,32,50,</t>
-  </si>
-  <si>
-    <t>12,24,40,</t>
-  </si>
-  <si>
-    <t>5,11,14,</t>
-  </si>
-  <si>
-    <t>4,9,12,</t>
-  </si>
-  <si>
-    <t>3,6,8,</t>
-  </si>
-  <si>
-    <t>5,10,13,</t>
-  </si>
-  <si>
-    <t>4,</t>
-  </si>
-  <si>
-    <t>8,</t>
   </si>
   <si>
     <t>2,</t>
@@ -898,7 +907,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -910,13 +919,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1428,10 +1430,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1440,33 +1442,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1476,97 +1481,94 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1595,13 +1597,13 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -1669,9 +1671,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:P32" totalsRowShown="0">
-  <autoFilter ref="A1:P32"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:Q32" totalsRowShown="0">
+  <autoFilter ref="A1:Q32"/>
+  <tableColumns count="17">
     <tableColumn id="1" name="BuildingID"/>
     <tableColumn id="7" name="ResourcePath"/>
     <tableColumn id="2" name="Name"/>
@@ -1688,6 +1690,7 @@
     <tableColumn id="13" name="BaseScore"/>
     <tableColumn id="14" name="EnvScore"/>
     <tableColumn id="16" name="Story"/>
+    <tableColumn id="17" name="MaxCount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2036,10 +2039,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2055,9 +2058,10 @@
     <col min="10" max="10" width="6.55555555555556" customWidth="1"/>
     <col min="13" max="13" width="9.77777777777778" customWidth="1"/>
     <col min="16" max="16" width="65.6666666666667" customWidth="1"/>
+    <col min="17" max="17" width="11.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2106,28 +2110,31 @@
       <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" ht="15" spans="1:16">
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:17">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -2154,30 +2161,33 @@
         <v>20</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" ht="15.6" spans="1:16">
+        <v>21</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="15.6" spans="1:17">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -2204,30 +2214,33 @@
         <v>0</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" ht="15" spans="1:16">
+        <v>24</v>
+      </c>
+      <c r="Q3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:17">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -2254,30 +2267,33 @@
         <v>-2</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" ht="15" spans="1:16">
+        <v>29</v>
+      </c>
+      <c r="Q4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:17">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -2304,30 +2320,33 @@
         <v>3</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" ht="15" spans="1:16">
+        <v>34</v>
+      </c>
+      <c r="Q5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:17">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -2354,30 +2373,33 @@
         <v>0</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" ht="15" spans="1:16">
+        <v>37</v>
+      </c>
+      <c r="Q6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:17">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -2404,30 +2426,33 @@
         <v>7</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>40</v>
+      </c>
+      <c r="Q7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -2454,30 +2479,33 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>44</v>
+      </c>
+      <c r="Q8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -2504,30 +2532,33 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>44</v>
+      </c>
+      <c r="Q9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -2554,30 +2585,33 @@
         <v>3</v>
       </c>
       <c r="P10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>44</v>
+      </c>
+      <c r="Q10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -2604,30 +2638,33 @@
         <v>2</v>
       </c>
       <c r="P11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" ht="15" spans="1:16">
+        <v>44</v>
+      </c>
+      <c r="Q11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:17">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H12">
         <v>6</v>
@@ -2654,30 +2691,33 @@
         <v>-9</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" ht="15" spans="1:16">
+        <v>58</v>
+      </c>
+      <c r="Q12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:17">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H13">
         <v>6</v>
@@ -2704,30 +2744,33 @@
         <v>-6</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" ht="15" spans="1:16">
+        <v>63</v>
+      </c>
+      <c r="Q13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:17">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H14">
         <v>8</v>
@@ -2754,30 +2797,33 @@
         <v>-12</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" ht="15" spans="1:16">
+        <v>67</v>
+      </c>
+      <c r="Q14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" ht="15.6" spans="1:17">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H15">
         <v>6</v>
@@ -2789,7 +2835,7 @@
         <v>-1</v>
       </c>
       <c r="K15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2803,11 +2849,14 @@
       <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15" s="9" t="s">
+      <c r="P15" s="10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="16" ht="15" spans="1:16">
+      <c r="Q15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:17">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2824,7 +2873,7 @@
         <v>73</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
         <v>74</v>
@@ -2856,8 +2905,11 @@
       <c r="P16" s="9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" ht="15" spans="1:16">
+      <c r="Q16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:17">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2906,8 +2958,11 @@
       <c r="P17" s="9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="18" ht="15" spans="1:16">
+      <c r="Q17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:17">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2956,8 +3011,11 @@
       <c r="P18" s="9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" ht="15" spans="1:16">
+      <c r="Q18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="1:17">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3006,8 +3064,11 @@
       <c r="P19" s="9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="20" ht="15" spans="1:16">
+      <c r="Q19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="15" spans="1:17">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3024,10 +3085,10 @@
         <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -3056,8 +3117,11 @@
       <c r="P20" s="9" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="21" ht="15" spans="1:16">
+      <c r="Q20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:17">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3074,10 +3138,10 @@
         <v>91</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -3106,8 +3170,11 @@
       <c r="P21" s="9" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="22" ht="15" spans="1:16">
+      <c r="Q21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:17">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3124,10 +3191,10 @@
         <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -3156,8 +3223,11 @@
       <c r="P22" s="9" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="23" ht="15" spans="1:16">
+      <c r="Q22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:17">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3174,10 +3244,10 @@
         <v>95</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -3206,8 +3276,11 @@
       <c r="P23" s="9" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="24" ht="15" spans="1:16">
+      <c r="Q23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="1:17">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3224,10 +3297,10 @@
         <v>97</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -3256,8 +3329,11 @@
       <c r="P24" s="9" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" ht="15" spans="1:16">
+      <c r="Q24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:17">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3274,10 +3350,10 @@
         <v>99</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H25">
         <v>4</v>
@@ -3306,8 +3382,11 @@
       <c r="P25" s="9" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="26" ht="15" spans="1:16">
+      <c r="Q25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:17">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3327,7 +3406,7 @@
         <v>102</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -3356,8 +3435,11 @@
       <c r="P26" s="9" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="27" ht="15" spans="1:16">
+      <c r="Q26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="1:17">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3377,7 +3459,7 @@
         <v>102</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -3406,8 +3488,11 @@
       <c r="P27" s="9" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="28" ht="15" spans="1:16">
+      <c r="Q27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:17">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3427,7 +3512,7 @@
         <v>102</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3456,8 +3541,11 @@
       <c r="P28" s="9" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="29" ht="15.6" spans="1:16">
+      <c r="Q28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="15.6" spans="1:17">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3477,7 +3565,7 @@
         <v>102</v>
       </c>
       <c r="G29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H29">
         <v>6</v>
@@ -3506,8 +3594,11 @@
       <c r="P29" s="10" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="30" ht="15" spans="1:16">
+      <c r="Q29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:17">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3527,7 +3618,7 @@
         <v>102</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3556,8 +3647,11 @@
       <c r="P30" s="9" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="31" ht="15" spans="1:16">
+      <c r="Q30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="1:17">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3577,7 +3671,7 @@
         <v>102</v>
       </c>
       <c r="G31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H31">
         <v>5</v>
@@ -3606,8 +3700,11 @@
       <c r="P31" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="32" ht="15" spans="1:16">
+      <c r="Q31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:17">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3627,7 +3724,7 @@
         <v>102</v>
       </c>
       <c r="G32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H32">
         <v>5</v>
@@ -3655,6 +3752,9 @@
       </c>
       <c r="P32" s="9" t="s">
         <v>122</v>
+      </c>
+      <c r="Q32">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -3726,13 +3826,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="5">
         <v>-1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3750,13 +3850,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5">
         <v>-1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3780,7 +3880,7 @@
         <v>-1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3798,13 +3898,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="5">
         <v>-1</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3822,13 +3922,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="5">
         <v>-1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3846,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="5">
         <v>-1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3876,7 +3976,7 @@
         <v>-2</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3900,7 +4000,7 @@
         <v>-2</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3924,7 +4024,7 @@
         <v>-2</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3948,7 +4048,7 @@
         <v>-2</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3972,7 +4072,7 @@
         <v>-1</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3996,7 +4096,7 @@
         <v>-1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4038,13 +4138,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" s="5">
         <v>-1</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4062,13 +4162,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F16" s="4">
         <v>-1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4086,13 +4186,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F17" s="5">
         <v>-1</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4110,13 +4210,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F18" s="4">
         <v>-1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4134,13 +4234,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F19" s="5">
         <v>-1</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4158,13 +4258,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20" s="5">
         <v>-1</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4182,13 +4282,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F21" s="5">
         <v>-1</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4206,13 +4306,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22" s="5">
         <v>-1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4230,13 +4330,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F23" s="5">
         <v>-1</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4254,13 +4354,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F24" s="5">
         <v>-1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4278,13 +4378,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F25" s="5">
         <v>-1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4302,13 +4402,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F26" s="4">
         <v>-1</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4326,13 +4426,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F27" s="5">
         <v>-1</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -4350,13 +4450,13 @@
         <v>0</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F28" s="4">
         <v>-1</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -4374,13 +4474,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F29" s="5">
         <v>-1</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -4398,13 +4498,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F30" s="5">
         <v>-1</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -4422,13 +4522,13 @@
         <v>0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F31" s="5">
         <v>-1</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -4452,7 +4552,7 @@
         <v>-1</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -4504,7 +4604,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4521,7 +4621,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -4538,7 +4638,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -4547,7 +4647,7 @@
         <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4555,7 +4655,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4564,7 +4664,7 @@
         <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4572,7 +4672,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -4589,7 +4689,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -4598,7 +4698,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4606,7 +4706,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -4615,7 +4715,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4623,7 +4723,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -4640,7 +4740,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -4649,7 +4749,7 @@
         <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4657,7 +4757,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -4666,7 +4766,7 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4674,7 +4774,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -4691,7 +4791,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -4700,7 +4800,7 @@
         <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4718,8 +4818,8 @@
   <sheetPr/>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -4737,13 +4837,13 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -4757,16 +4857,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4777,16 +4877,16 @@
         <v>3</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4797,16 +4897,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4820,13 +4920,13 @@
         <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4837,16 +4937,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4860,13 +4960,13 @@
         <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4877,16 +4977,16 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4900,13 +5000,13 @@
         <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4917,16 +5017,16 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4940,13 +5040,13 @@
         <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4960,13 +5060,13 @@
         <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4980,13 +5080,13 @@
         <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4997,16 +5097,16 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5020,13 +5120,13 @@
         <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5040,13 +5140,13 @@
         <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5060,13 +5160,13 @@
         <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5077,16 +5177,16 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5100,13 +5200,13 @@
         <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5117,16 +5217,16 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5137,16 +5237,16 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5157,16 +5257,16 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5180,13 +5280,13 @@
         <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -5204,7 +5304,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -5214,7 +5314,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEAE303-1BAA-44D3-8321-E6A70D0FD5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -13,18 +19,31 @@
     <sheet name="BuildingUpgrade" sheetId="4" r:id="rId4"/>
     <sheet name="CityEvaluate" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hasee</author>
     <author>XINDONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -37,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -81,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -94,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -110,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -123,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -136,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -149,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1">
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="1">
+    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -193,12 +212,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hasee</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -211,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -224,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -240,7 +259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -253,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -266,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -279,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -297,12 +316,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hasee</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -315,7 +334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -328,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -341,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -359,7 +378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="163">
   <si>
     <t>BuildingID</t>
   </si>
@@ -430,56 +449,6 @@
     <t>building_201</t>
   </si>
   <si>
-    <t>院子</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1D1D1F"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>宋代农村百姓的比较朴实</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1D1D1F"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1D1D1F"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多为低矮的屋和瓦房</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1D1D1F"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1D1D1F"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>构成一组住宅</t>
-    </r>
-  </si>
-  <si>
     <t>building_301</t>
   </si>
   <si>
@@ -895,19 +864,17 @@
   </si>
   <si>
     <t>Score</t>
+  </si>
+  <si>
+    <t>官府</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -927,7 +894,7 @@
       <sz val="12"/>
       <color rgb="FF1D1D1F"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -936,157 +903,35 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="12"/>
+      <color rgb="FF1D1D1F"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1101,198 +946,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799829096346934"/>
-        <bgColor theme="4" tint="0.799829096346934"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79979857783745845"/>
+        <bgColor theme="4" tint="0.79979857783745845"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1302,14 +961,14 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399822992645039"/>
+        <color theme="4" tint="0.39979247413556324"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399822992645039"/>
+        <color theme="4" tint="0.39979247413556324"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399822992645039"/>
+        <color theme="4" tint="0.39979247413556324"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1317,262 +976,20 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399822992645039"/>
+        <color theme="4" tint="0.39979247413556324"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399822992645039"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.39979247413556324"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1597,9 +1014,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1609,144 +1023,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:Q32" totalsRowShown="0">
-  <autoFilter ref="A1:Q32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:Q32" totalsRowShown="0">
+  <autoFilter ref="A1:Q32" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="BuildingID"/>
-    <tableColumn id="7" name="ResourcePath"/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="BuildingType"/>
-    <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="CurrencyType"/>
-    <tableColumn id="6" name="CurrencyCount"/>
-    <tableColumn id="8" name="RowCount"/>
-    <tableColumn id="9" name="ColCount"/>
-    <tableColumn id="15" name="Cd"/>
-    <tableColumn id="10" name="Unlock"/>
-    <tableColumn id="11" name="People"/>
-    <tableColumn id="12" name="Level"/>
-    <tableColumn id="13" name="BaseScore"/>
-    <tableColumn id="14" name="EnvScore"/>
-    <tableColumn id="16" name="Story"/>
-    <tableColumn id="17" name="MaxCount"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="BuildingID"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ResourcePath"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="BuildingType"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CurrencyType"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CurrencyCount"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="RowCount"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ColCount"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Cd"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Unlock"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="People"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Level"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="BaseScore"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="EnvScore"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Story"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="MaxCount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:G32" totalsRowShown="0">
-  <autoFilter ref="A1:G32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:G32" totalsRowShown="0">
+  <autoFilter ref="A1:G32" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="ProduceType"/>
-    <tableColumn id="4" name="ProduceID"/>
-    <tableColumn id="5" name="ProduceAmount"/>
-    <tableColumn id="7" name="ConsumeID"/>
-    <tableColumn id="8" name="ConsumeAmount"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(A2,Building!$A$2:$A$32,Building!$C$2:$C$32)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ProduceType"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ProduceID"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ProduceAmount"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="ConsumeID"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="ConsumeAmount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_4" displayName="表1_4" ref="A1:E13" totalsRowShown="0">
-  <autoFilter ref="A1:E13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表1_4" displayName="表1_4" ref="A1:E13" totalsRowShown="0">
+  <autoFilter ref="A1:E13" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="BuildingID"/>
-    <tableColumn id="3" name="Name"/>
-    <tableColumn id="2" name="Level"/>
-    <tableColumn id="12" name="ConsumeID"/>
-    <tableColumn id="13" name="ProduceAmount"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="BuildingID"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Level"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="ConsumeID"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="ProduceAmount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:F23" totalsRowShown="0">
-  <autoFilter ref="A1:F23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表4" displayName="表4" ref="A1:F23" totalsRowShown="0">
+  <autoFilter ref="A1:F23" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Level"/>
-    <tableColumn id="3" name="ItemID"/>
-    <tableColumn id="4" name="ItemCount"/>
-    <tableColumn id="5" name="CurrencyID"/>
-    <tableColumn id="6" name="CurrencyCount"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Level"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ItemID"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="ItemCount"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="CurrencyID"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="CurrencyCount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A1:B6" totalsRowShown="0">
-  <autoFilter ref="A1:B6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="表5" displayName="表5" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Level"/>
-    <tableColumn id="2" name="Score"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Score"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2033,35 +1411,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="10.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="15.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="15.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="15.3333333333333" customWidth="1"/>
+    <col min="1" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="9.77777777777778" customWidth="1"/>
-    <col min="10" max="10" width="6.55555555555556" customWidth="1"/>
-    <col min="13" max="13" width="9.77777777777778" customWidth="1"/>
-    <col min="16" max="16" width="65.6666666666667" customWidth="1"/>
-    <col min="17" max="17" width="11.1111111111111" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" customWidth="1"/>
+    <col min="10" max="10" width="6.5546875" customWidth="1"/>
+    <col min="13" max="13" width="9.77734375" customWidth="1"/>
+    <col min="16" max="16" width="65.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2107,14 +1485,14 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
       <c r="Q1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:17">
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2160,28 +1538,28 @@
       <c r="O2">
         <v>20</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="Q2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:17">
+    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
+      <c r="C3" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>23</v>
+      <c r="E3" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -2213,34 +1591,34 @@
       <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="Q3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" ht="15" spans="1:17">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -2266,34 +1644,34 @@
       <c r="O4">
         <v>-2</v>
       </c>
-      <c r="P4" s="9" t="s">
-        <v>29</v>
+      <c r="P4" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="Q4">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:17">
+    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
         <v>31</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -2319,81 +1697,81 @@
       <c r="O5">
         <v>3</v>
       </c>
-      <c r="P5" s="9" t="s">
-        <v>34</v>
+      <c r="P5" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="Q5">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:17">
+    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>-1</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="Q6">
         <v>-1</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:17">
+    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
@@ -2425,34 +1803,34 @@
       <c r="O7">
         <v>7</v>
       </c>
-      <c r="P7" s="9" t="s">
-        <v>40</v>
+      <c r="P7" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="Q7">
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
         <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>43</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -2479,33 +1857,33 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q8">
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
         <v>45</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
         <v>46</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>48</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -2532,33 +1910,33 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q9">
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
         <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>51</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -2585,33 +1963,33 @@
         <v>3</v>
       </c>
       <c r="P10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q10">
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
         <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s">
-        <v>54</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -2638,33 +2016,33 @@
         <v>2</v>
       </c>
       <c r="P11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q11">
         <v>-1</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:17">
+    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
         <v>55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>57</v>
       </c>
       <c r="H12">
         <v>6</v>
@@ -2690,34 +2068,34 @@
       <c r="O12">
         <v>-9</v>
       </c>
-      <c r="P12" s="9" t="s">
-        <v>58</v>
+      <c r="P12" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="Q12">
         <v>-1</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="1:17">
+    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
         <v>59</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
         <v>60</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s">
-        <v>62</v>
       </c>
       <c r="H13">
         <v>6</v>
@@ -2743,34 +2121,34 @@
       <c r="O13">
         <v>-6</v>
       </c>
-      <c r="P13" s="9" t="s">
-        <v>63</v>
+      <c r="P13" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="Q13">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="1:17">
+    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
         <v>64</v>
-      </c>
-      <c r="C14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>66</v>
       </c>
       <c r="H14">
         <v>8</v>
@@ -2796,34 +2174,34 @@
       <c r="O14">
         <v>-12</v>
       </c>
-      <c r="P14" s="9" t="s">
-        <v>67</v>
+      <c r="P14" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="Q14">
         <v>-1</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="1:17">
+    <row r="15" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H15">
         <v>6</v>
@@ -2849,87 +2227,87 @@
       <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15" s="10" t="s">
-        <v>71</v>
+      <c r="P15" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="Q15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="1:17">
+    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
         <v>72</v>
       </c>
-      <c r="C16" t="s">
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>-1</v>
-      </c>
-      <c r="K16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>75</v>
-      </c>
       <c r="Q16">
         <v>-1</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="1:17">
+    <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2955,34 +2333,34 @@
       <c r="O17">
         <v>0</v>
       </c>
-      <c r="P17" s="9" t="s">
-        <v>80</v>
+      <c r="P17" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="1:17">
+    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -3008,34 +2386,34 @@
       <c r="O18">
         <v>0</v>
       </c>
-      <c r="P18" s="9" t="s">
-        <v>80</v>
+      <c r="P18" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="Q18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="1:17">
+    <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -3061,34 +2439,34 @@
       <c r="O19">
         <v>0</v>
       </c>
-      <c r="P19" s="9" t="s">
-        <v>80</v>
+      <c r="P19" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="Q19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="1:17">
+    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F20" t="s">
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -3114,34 +2492,34 @@
       <c r="O20">
         <v>6</v>
       </c>
-      <c r="P20" s="9" t="s">
+      <c r="P20" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" t="s">
         <v>89</v>
       </c>
-      <c r="Q20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" ht="15" spans="1:17">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" t="s">
-        <v>91</v>
-      </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F21" t="s">
         <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -3167,34 +2545,34 @@
       <c r="O21">
         <v>6</v>
       </c>
-      <c r="P21" s="9" t="s">
-        <v>89</v>
+      <c r="P21" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="Q21">
         <v>-1</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="1:17">
+    <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F22" t="s">
         <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -3220,34 +2598,34 @@
       <c r="O22">
         <v>6</v>
       </c>
-      <c r="P22" s="9" t="s">
-        <v>89</v>
+      <c r="P22" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="Q22">
         <v>-1</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="1:17">
+    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F23" t="s">
         <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -3273,34 +2651,34 @@
       <c r="O23">
         <v>6</v>
       </c>
-      <c r="P23" s="9" t="s">
-        <v>89</v>
+      <c r="P23" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="Q23">
         <v>-1</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="1:17">
+    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F24" t="s">
         <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -3326,34 +2704,34 @@
       <c r="O24">
         <v>6</v>
       </c>
-      <c r="P24" s="9" t="s">
-        <v>89</v>
+      <c r="P24" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="Q24">
         <v>-1</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="1:17">
+    <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H25">
         <v>4</v>
@@ -3379,34 +2757,34 @@
       <c r="O25">
         <v>6</v>
       </c>
-      <c r="P25" s="9" t="s">
-        <v>89</v>
+      <c r="P25" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="Q25">
         <v>-1</v>
       </c>
     </row>
-    <row r="26" ht="15" spans="1:17">
+    <row r="26" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" t="s">
         <v>100</v>
       </c>
-      <c r="C26" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>101</v>
-      </c>
-      <c r="F26" t="s">
-        <v>102</v>
-      </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -3432,34 +2810,34 @@
       <c r="O26">
         <v>10</v>
       </c>
-      <c r="P26" s="9" t="s">
-        <v>103</v>
+      <c r="P26" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="Q26">
         <v>-1</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="1:17">
+    <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -3485,34 +2863,34 @@
       <c r="O27">
         <v>10</v>
       </c>
-      <c r="P27" s="9" t="s">
-        <v>106</v>
+      <c r="P27" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="Q27">
         <v>-1</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="1:17">
+    <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D28">
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3538,34 +2916,34 @@
       <c r="O28">
         <v>10</v>
       </c>
-      <c r="P28" s="9" t="s">
-        <v>109</v>
+      <c r="P28" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="Q28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" ht="15.6" spans="1:17">
+    <row r="29" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H29">
         <v>6</v>
@@ -3591,34 +2969,34 @@
       <c r="O29">
         <v>10</v>
       </c>
-      <c r="P29" s="10" t="s">
-        <v>112</v>
+      <c r="P29" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="Q29">
         <v>-1</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="1:17">
+    <row r="30" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
         <v>113</v>
       </c>
-      <c r="C30" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>115</v>
-      </c>
       <c r="F30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3644,34 +3022,34 @@
       <c r="O30">
         <v>10</v>
       </c>
-      <c r="P30" s="9" t="s">
-        <v>116</v>
+      <c r="P30" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="Q30">
         <v>-1</v>
       </c>
     </row>
-    <row r="31" ht="15" spans="1:17">
+    <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D31">
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H31">
         <v>5</v>
@@ -3697,34 +3075,34 @@
       <c r="O31">
         <v>10</v>
       </c>
-      <c r="P31" s="9" t="s">
-        <v>119</v>
+      <c r="P31" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="Q31">
         <v>-1</v>
       </c>
     </row>
-    <row r="32" ht="15" spans="1:17">
+    <row r="32" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D32">
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H32">
         <v>5</v>
@@ -3750,68 +3128,67 @@
       <c r="O32">
         <v>-15</v>
       </c>
-      <c r="P32" s="9" t="s">
-        <v>122</v>
+      <c r="P32" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="Q32">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88888888888889" customWidth="1"/>
-    <col min="2" max="2" width="10.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="14.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="16.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="11.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="18.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -3835,13 +3212,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="str">
         <f>_xlfn.XLOOKUP(A3,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
-        <v>院子</v>
+        <v>官府</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -3859,7 +3236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3874,7 +3251,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F4" s="5">
         <v>-1</v>
@@ -3883,7 +3260,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -3907,7 +3284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3931,7 +3308,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -3955,7 +3332,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -3970,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F8" s="4">
         <v>-2</v>
@@ -3979,7 +3356,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -3994,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F9" s="5">
         <v>-2</v>
@@ -4003,7 +3380,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -4018,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F10" s="4">
         <v>-2</v>
@@ -4027,7 +3404,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -4042,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F11" s="5">
         <v>-2</v>
@@ -4051,7 +3428,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -4066,7 +3443,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F12" s="4">
         <v>-1</v>
@@ -4075,7 +3452,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -4090,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F13" s="5">
         <v>-1</v>
@@ -4099,7 +3476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -4114,16 +3491,16 @@
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F14" s="4">
         <v>11</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -4147,7 +3524,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -4171,7 +3548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -4195,7 +3572,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -4219,7 +3596,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -4243,7 +3620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4267,7 +3644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4291,7 +3668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4315,7 +3692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4339,7 +3716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4363,7 +3740,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4387,7 +3764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4411,7 +3788,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4435,7 +3812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4459,7 +3836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4483,7 +3860,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4507,7 +3884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4531,7 +3908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4546,7 +3923,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F32" s="5">
         <v>-1</v>
@@ -4556,33 +3933,32 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1111111111111" customWidth="1"/>
-    <col min="2" max="3" width="10.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="13.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="16.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4593,303 +3969,302 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="11.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="15.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
       <c r="C1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" t="s">
         <v>145</v>
-      </c>
-      <c r="D1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" t="s">
-        <v>147</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>148</v>
+      <c r="C2" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>148</v>
+      <c r="C3" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
@@ -4900,16 +4275,16 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -4917,19 +4292,19 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
@@ -4940,16 +4315,16 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -4957,19 +4332,19 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -4980,16 +4355,16 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4997,19 +4372,19 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5020,16 +4395,16 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5037,19 +4412,19 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5057,19 +4432,19 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E12" t="s">
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -5077,19 +4452,19 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E13" t="s">
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -5100,16 +4475,16 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -5117,19 +4492,19 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -5137,19 +4512,19 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -5157,19 +4532,19 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
@@ -5180,16 +4555,16 @@
         <v>19</v>
       </c>
       <c r="D18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
         <v>150</v>
       </c>
-      <c r="E18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
@@ -5197,39 +4572,39 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
         <v>151</v>
       </c>
-      <c r="E19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" t="s">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>154</v>
-      </c>
-      <c r="D20" t="s">
-        <v>155</v>
-      </c>
       <c r="E20" t="s">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -5237,19 +4612,19 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
         <v>156</v>
       </c>
-      <c r="D21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -5257,19 +4632,19 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
         <v>159</v>
       </c>
-      <c r="D22" t="s">
-        <v>160</v>
-      </c>
-      <c r="E22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -5277,7 +4652,7 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
         <v>20</v>
@@ -5286,12 +4661,12 @@
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -5299,25 +4674,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5325,7 +4699,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5333,7 +4707,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5341,7 +4715,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5349,7 +4723,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5358,8 +4732,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEAE303-1BAA-44D3-8321-E6A70D0FD5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8C6A4E-6B5B-44AD-A6EF-72E25456AC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,6 +50,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>唯一id，从0开始</t>
@@ -63,6 +64,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>资源路径</t>
@@ -76,6 +78,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>建筑名称</t>
@@ -89,6 +92,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>建筑类型：
@@ -107,6 +111,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>详细信息</t>
@@ -120,6 +125,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>材料类型（数组）:
@@ -136,6 +142,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>材料点数（数组）</t>
@@ -149,6 +156,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>列数(x方向)</t>
@@ -162,6 +170,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>行数(z方向)</t>
@@ -175,6 +184,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>cd时间</t>
@@ -188,6 +198,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>默认解锁</t>
@@ -201,6 +212,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>最大等级</t>
@@ -224,6 +236,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>唯一id，从0开始</t>
@@ -237,6 +250,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>建筑名称</t>
@@ -250,6 +264,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>产出类型：
@@ -266,6 +281,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>产出物品id</t>
@@ -279,6 +295,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>产出物品量</t>
@@ -292,6 +309,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>消耗物品id</t>
@@ -305,6 +323,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>消耗物品量</t>
@@ -328,6 +347,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>唯一id，从0开始</t>
@@ -341,6 +361,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>建筑名称</t>
@@ -354,6 +375,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>产出物品id</t>
@@ -367,6 +389,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>产出物品量</t>
@@ -378,7 +401,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="178">
   <si>
     <t>BuildingID</t>
   </si>
@@ -434,6 +457,9 @@
     <t>building_101</t>
   </si>
   <si>
+    <t>六和塔</t>
+  </si>
+  <si>
     <t>宝塔</t>
   </si>
   <si>
@@ -449,6 +475,9 @@
     <t>building_201</t>
   </si>
   <si>
+    <t>官府</t>
+  </si>
+  <si>
     <t>building_301</t>
   </si>
   <si>
@@ -500,6 +529,9 @@
     <t>building_202</t>
   </si>
   <si>
+    <t>府宅</t>
+  </si>
+  <si>
     <t>中型房屋1</t>
   </si>
   <si>
@@ -512,291 +544,312 @@
     <t>building_203</t>
   </si>
   <si>
+    <t>望火楼</t>
+  </si>
+  <si>
+    <t>基础房屋</t>
+  </si>
+  <si>
+    <t>30,</t>
+  </si>
+  <si>
+    <t>building_204</t>
+  </si>
+  <si>
+    <t>宅院</t>
+  </si>
+  <si>
+    <t>大型房屋</t>
+  </si>
+  <si>
+    <t>240,</t>
+  </si>
+  <si>
+    <t>building_205</t>
+  </si>
+  <si>
+    <t>中型房屋2</t>
+  </si>
+  <si>
+    <t>125,</t>
+  </si>
+  <si>
+    <t>building_302</t>
+  </si>
+  <si>
+    <t>采石场</t>
+  </si>
+  <si>
+    <t>200,</t>
+  </si>
+  <si>
+    <t>生产石材</t>
+  </si>
+  <si>
+    <t>building_303</t>
+  </si>
+  <si>
+    <t>林场</t>
+  </si>
+  <si>
+    <t>可以生产木头</t>
+  </si>
+  <si>
+    <t>50,</t>
+  </si>
+  <si>
+    <t>生产木材</t>
+  </si>
+  <si>
+    <t>building_304</t>
+  </si>
+  <si>
+    <t>砖厂</t>
+  </si>
+  <si>
+    <t>300,</t>
+  </si>
+  <si>
+    <t>生产砖块</t>
+  </si>
+  <si>
+    <t>building_305</t>
+  </si>
+  <si>
+    <t>商铺</t>
+  </si>
+  <si>
+    <t>购买物品</t>
+  </si>
+  <si>
+    <t>生活用品，奇珍异宝，应有尽有</t>
+  </si>
+  <si>
+    <t>building_404</t>
+  </si>
+  <si>
+    <t>篱笆</t>
+  </si>
+  <si>
+    <t>10,</t>
+  </si>
+  <si>
+    <t>篱笆可以保护房屋家室</t>
+  </si>
+  <si>
+    <t>building_405</t>
+  </si>
+  <si>
+    <t>相国井</t>
+  </si>
+  <si>
+    <t>0,1,</t>
+  </si>
+  <si>
+    <t>600,500,</t>
+  </si>
+  <si>
+    <t>苏轼疏浚六井，使得西湖甘水，殆遍一城</t>
+  </si>
+  <si>
+    <t>building_406</t>
+  </si>
+  <si>
+    <t>方井</t>
+  </si>
+  <si>
+    <t>1000,400,</t>
+  </si>
+  <si>
+    <t>building_407</t>
+  </si>
+  <si>
+    <t>金牛井</t>
+  </si>
+  <si>
+    <t>500,900,</t>
+  </si>
+  <si>
+    <t>building_408</t>
+  </si>
+  <si>
+    <t>琼树</t>
+  </si>
+  <si>
+    <t>树木可用来装点城市，清洁空气</t>
+  </si>
+  <si>
+    <t>building_409</t>
+  </si>
+  <si>
+    <t>树枝</t>
+  </si>
+  <si>
+    <t>building_410</t>
+  </si>
+  <si>
+    <t>枯枝</t>
+  </si>
+  <si>
+    <t>building_411</t>
+  </si>
+  <si>
+    <t>松柏</t>
+  </si>
+  <si>
+    <t>building_412</t>
+  </si>
+  <si>
+    <t>珠树</t>
+  </si>
+  <si>
+    <t>building_413</t>
+  </si>
+  <si>
+    <t>凤林</t>
+  </si>
+  <si>
+    <t>building_414</t>
+  </si>
+  <si>
+    <t>亭榭</t>
+  </si>
+  <si>
+    <t>亭子</t>
+  </si>
+  <si>
+    <t>1,</t>
+  </si>
+  <si>
+    <t>宋代亭榭是山川灵气动荡吐纳的交点和精神聚积的处所</t>
+  </si>
+  <si>
+    <t>building_415</t>
+  </si>
+  <si>
+    <t>牌坊</t>
+  </si>
+  <si>
+    <t>牌坊昭示家族先人的高尚美德和丰功伟绩，兼有祭祖的功能</t>
+  </si>
+  <si>
+    <t>building_416</t>
+  </si>
+  <si>
+    <t>安乐坊</t>
+  </si>
+  <si>
+    <t>医院</t>
+  </si>
+  <si>
+    <t>收容病人，进行医疗救助</t>
+  </si>
+  <si>
+    <t>building_417</t>
+  </si>
+  <si>
+    <t>书院</t>
+  </si>
+  <si>
+    <t>宋代书院是中国古代的相对独立于官学之外的教育机构</t>
+  </si>
+  <si>
+    <t>building_418</t>
+  </si>
+  <si>
+    <t>小摊</t>
+  </si>
+  <si>
+    <t>把不用的物品换成钱</t>
+  </si>
+  <si>
+    <t>宋代“地摊经济”空前繁盛，可作为城市文化的标志性特点</t>
+  </si>
+  <si>
+    <t>building_419</t>
+  </si>
+  <si>
+    <t>酒楼</t>
+  </si>
+  <si>
+    <t>提供餐食和美酒</t>
+  </si>
+  <si>
+    <t>building_420</t>
+  </si>
+  <si>
+    <t>铁匠铺</t>
+  </si>
+  <si>
+    <t>生产各类铁器,满足老百姓的需求</t>
+  </si>
+  <si>
+    <t>building_421</t>
+  </si>
+  <si>
+    <t>三潭印月</t>
+  </si>
+  <si>
+    <t>三潭印月是西湖中最大的岛屿，风景秀丽、景色清幽</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ProduceType</t>
+  </si>
+  <si>
+    <t>ProduceID</t>
+  </si>
+  <si>
+    <t>ProduceAmount</t>
+  </si>
+  <si>
+    <t>ConsumeID</t>
+  </si>
+  <si>
+    <t>ConsumeAmount</t>
+  </si>
+  <si>
+    <t>3,7,9,</t>
+  </si>
+  <si>
+    <t>11,23,42,</t>
+  </si>
+  <si>
+    <t>9,18,24,</t>
+  </si>
+  <si>
+    <t>18,32,50,</t>
+  </si>
+  <si>
+    <t>12,24,40,</t>
+  </si>
+  <si>
+    <t>5,11,14,</t>
+  </si>
+  <si>
+    <t>4,9,12,</t>
+  </si>
+  <si>
+    <t>3,6,8,</t>
+  </si>
+  <si>
+    <t>5,10,13,</t>
+  </si>
+  <si>
+    <t>4,</t>
+  </si>
+  <si>
+    <t>8,</t>
+  </si>
+  <si>
+    <t>11,</t>
+  </si>
+  <si>
     <t>小型房屋</t>
   </si>
   <si>
-    <t>基础房屋</t>
-  </si>
-  <si>
-    <t>30,</t>
-  </si>
-  <si>
-    <t>building_204</t>
-  </si>
-  <si>
-    <t>大型房屋</t>
-  </si>
-  <si>
-    <t>240,</t>
-  </si>
-  <si>
-    <t>building_205</t>
-  </si>
-  <si>
-    <t>中型房屋2</t>
-  </si>
-  <si>
-    <t>125,</t>
-  </si>
-  <si>
-    <t>building_302</t>
-  </si>
-  <si>
-    <t>采石场</t>
-  </si>
-  <si>
-    <t>200,</t>
-  </si>
-  <si>
-    <t>生产石材</t>
-  </si>
-  <si>
-    <t>building_303</t>
-  </si>
-  <si>
-    <t>林场</t>
-  </si>
-  <si>
-    <t>可以生产木头</t>
-  </si>
-  <si>
-    <t>50,</t>
-  </si>
-  <si>
-    <t>生产木材</t>
-  </si>
-  <si>
-    <t>building_304</t>
-  </si>
-  <si>
-    <t>砖厂</t>
-  </si>
-  <si>
-    <t>300,</t>
-  </si>
-  <si>
-    <t>生产砖块</t>
-  </si>
-  <si>
-    <t>building_305</t>
-  </si>
-  <si>
-    <t>商铺</t>
-  </si>
-  <si>
-    <t>购买物品</t>
-  </si>
-  <si>
-    <t>生活用品，奇珍异宝，应有尽有</t>
-  </si>
-  <si>
-    <t>building_404</t>
-  </si>
-  <si>
-    <t>篱笆</t>
-  </si>
-  <si>
-    <t>10,</t>
-  </si>
-  <si>
-    <t>篱笆可以保护房屋家室</t>
-  </si>
-  <si>
-    <t>building_405</t>
-  </si>
-  <si>
-    <t>井1</t>
-  </si>
-  <si>
-    <t>0,1,</t>
-  </si>
-  <si>
-    <t>600,500,</t>
-  </si>
-  <si>
-    <t>苏轼疏浚六井，使得西湖甘水，殆遍一城</t>
-  </si>
-  <si>
-    <t>building_406</t>
-  </si>
-  <si>
-    <t>井2</t>
-  </si>
-  <si>
-    <t>1000,400,</t>
-  </si>
-  <si>
-    <t>building_407</t>
-  </si>
-  <si>
-    <t>井3</t>
-  </si>
-  <si>
-    <t>500,900,</t>
-  </si>
-  <si>
-    <t>building_408</t>
-  </si>
-  <si>
-    <t>树1</t>
-  </si>
-  <si>
-    <t>树木可用来装点城市，清洁空气</t>
-  </si>
-  <si>
-    <t>building_409</t>
-  </si>
-  <si>
-    <t>树2</t>
-  </si>
-  <si>
-    <t>building_410</t>
-  </si>
-  <si>
-    <t>树3</t>
-  </si>
-  <si>
-    <t>building_411</t>
-  </si>
-  <si>
-    <t>树4</t>
-  </si>
-  <si>
-    <t>building_412</t>
-  </si>
-  <si>
-    <t>树5</t>
-  </si>
-  <si>
-    <t>building_413</t>
-  </si>
-  <si>
-    <t>树6</t>
-  </si>
-  <si>
-    <t>building_414</t>
-  </si>
-  <si>
-    <t>亭子</t>
-  </si>
-  <si>
-    <t>1,</t>
-  </si>
-  <si>
-    <t>宋代亭榭是山川灵气动荡吐纳的交点和精神聚积的处所</t>
-  </si>
-  <si>
-    <t>building_415</t>
-  </si>
-  <si>
-    <t>牌坊</t>
-  </si>
-  <si>
-    <t>牌坊昭示家族先人的高尚美德和丰功伟绩，兼有祭祖的功能</t>
-  </si>
-  <si>
-    <t>building_416</t>
-  </si>
-  <si>
-    <t>医院</t>
-  </si>
-  <si>
-    <t>收容病人，进行医疗救助</t>
-  </si>
-  <si>
-    <t>building_417</t>
-  </si>
-  <si>
-    <t>书院</t>
-  </si>
-  <si>
-    <t>宋代书院是中国古代的相对独立于官学之外的教育机构</t>
-  </si>
-  <si>
-    <t>building_418</t>
-  </si>
-  <si>
-    <t>小摊</t>
-  </si>
-  <si>
-    <t>把不用的物品换成钱</t>
-  </si>
-  <si>
-    <t>宋代“地摊经济”空前繁盛，可作为城市文化的标志性特点</t>
-  </si>
-  <si>
-    <t>building_419</t>
-  </si>
-  <si>
-    <t>酒楼</t>
-  </si>
-  <si>
-    <t>提供餐食和美酒</t>
-  </si>
-  <si>
-    <t>building_420</t>
-  </si>
-  <si>
-    <t>铁匠铺</t>
-  </si>
-  <si>
-    <t>生产各类铁器,满足老百姓的需求</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>ProduceType</t>
-  </si>
-  <si>
-    <t>ProduceID</t>
-  </si>
-  <si>
-    <t>ProduceAmount</t>
-  </si>
-  <si>
-    <t>ConsumeID</t>
-  </si>
-  <si>
-    <t>ConsumeAmount</t>
-  </si>
-  <si>
-    <t>3,7,9,</t>
-  </si>
-  <si>
-    <t>11,23,42,</t>
-  </si>
-  <si>
-    <t>9,18,24,</t>
-  </si>
-  <si>
-    <t>18,32,50,</t>
-  </si>
-  <si>
-    <t>12,24,40,</t>
-  </si>
-  <si>
-    <t>5,11,14,</t>
-  </si>
-  <si>
-    <t>4,9,12,</t>
-  </si>
-  <si>
-    <t>3,6,8,</t>
-  </si>
-  <si>
-    <t>5,10,13,</t>
-  </si>
-  <si>
-    <t>4,</t>
-  </si>
-  <si>
-    <t>8,</t>
-  </si>
-  <si>
-    <t>11,</t>
-  </si>
-  <si>
     <t>2,</t>
   </si>
   <si>
@@ -866,15 +919,35 @@
     <t>Score</t>
   </si>
   <si>
-    <t>官府</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>三潭印月</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦房</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000,2000,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,1,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,3000,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -886,30 +959,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF1D1D1F"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF1D1D1F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -926,9 +975,44 @@
     <font>
       <sz val="12"/>
       <color rgb="FF1D1D1F"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1D1D1F"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -946,8 +1030,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79979857783745845"/>
-        <bgColor theme="4" tint="0.79979857783745845"/>
+        <fgColor theme="4" tint="0.79976805932798245"/>
+        <bgColor theme="4" tint="0.79976805932798245"/>
       </patternFill>
     </fill>
   </fills>
@@ -961,14 +1045,14 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39979247413556324"/>
+        <color theme="4" tint="0.39976195562608724"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39979247413556324"/>
+        <color theme="4" tint="0.39976195562608724"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39979247413556324"/>
+        <color theme="4" tint="0.39976195562608724"/>
       </bottom>
       <diagonal/>
     </border>
@@ -976,10 +1060,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39979247413556324"/>
+        <color theme="4" tint="0.39976195562608724"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39979247413556324"/>
+        <color theme="4" tint="0.39976195562608724"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1011,22 +1095,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1047,8 +1131,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:Q32" totalsRowShown="0">
-  <autoFilter ref="A1:Q32" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:Q33" totalsRowShown="0">
+  <autoFilter ref="A1:Q33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="BuildingID"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ResourcePath"/>
@@ -1073,12 +1157,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:G32" totalsRowShown="0">
-  <autoFilter ref="A1:G32" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:G33" totalsRowShown="0">
+  <autoFilter ref="A1:G33" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name">
-      <calculatedColumnFormula>_xlfn.XLOOKUP(A2,Building!$A$2:$A$32,Building!$C$2:$C$32)</calculatedColumnFormula>
+      <calculatedColumnFormula>_xlfn.XLOOKUP(A2,Building!$A$2:$A$33,Building!$C$2:$C$33)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ProduceType"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ProduceID"/>
@@ -1417,10 +1501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1499,20 +1583,20 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
-        <v>20</v>
+      <c r="F2" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -1533,13 +1617,13 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O2">
         <v>20</v>
       </c>
-      <c r="P2" s="8" t="s">
-        <v>21</v>
+      <c r="P2" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1550,22 +1634,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>162</v>
+        <v>23</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>162</v>
+      <c r="E3" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -1591,8 +1675,8 @@
       <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3" s="12" t="s">
-        <v>162</v>
+      <c r="P3" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="Q3">
         <v>-1</v>
@@ -1603,22 +1687,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1644,8 +1728,8 @@
       <c r="O4">
         <v>-2</v>
       </c>
-      <c r="P4" s="8" t="s">
-        <v>27</v>
+      <c r="P4" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="Q4">
         <v>-1</v>
@@ -1656,22 +1740,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1697,8 +1781,8 @@
       <c r="O5">
         <v>3</v>
       </c>
-      <c r="P5" s="8" t="s">
-        <v>32</v>
+      <c r="P5" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="Q5">
         <v>-1</v>
@@ -1709,22 +1793,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1750,8 +1834,8 @@
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6" s="8" t="s">
-        <v>35</v>
+      <c r="P6" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="Q6">
         <v>-1</v>
@@ -1762,22 +1846,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -1803,8 +1887,8 @@
       <c r="O7">
         <v>7</v>
       </c>
-      <c r="P7" s="8" t="s">
-        <v>38</v>
+      <c r="P7" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="Q7">
         <v>-1</v>
@@ -1815,22 +1899,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1857,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q8">
         <v>-1</v>
@@ -1868,22 +1952,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1910,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q9">
         <v>-1</v>
@@ -1921,22 +2005,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -1963,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="P10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q10">
         <v>-1</v>
@@ -1974,22 +2058,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -2016,7 +2100,7 @@
         <v>2</v>
       </c>
       <c r="P11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q11">
         <v>-1</v>
@@ -2027,22 +2111,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H12">
         <v>6</v>
@@ -2068,8 +2152,8 @@
       <c r="O12">
         <v>-9</v>
       </c>
-      <c r="P12" s="8" t="s">
-        <v>56</v>
+      <c r="P12" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="Q12">
         <v>-1</v>
@@ -2080,22 +2164,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H13">
         <v>6</v>
@@ -2121,8 +2205,8 @@
       <c r="O13">
         <v>-6</v>
       </c>
-      <c r="P13" s="8" t="s">
-        <v>61</v>
+      <c r="P13" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="Q13">
         <v>-1</v>
@@ -2133,22 +2217,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H14">
         <v>8</v>
@@ -2174,8 +2258,8 @@
       <c r="O14">
         <v>-12</v>
       </c>
-      <c r="P14" s="8" t="s">
-        <v>65</v>
+      <c r="P14" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="Q14">
         <v>-1</v>
@@ -2186,22 +2270,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H15">
         <v>6</v>
@@ -2213,7 +2297,7 @@
         <v>-1</v>
       </c>
       <c r="K15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2227,8 +2311,8 @@
       <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15" s="9" t="s">
-        <v>69</v>
+      <c r="P15" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -2239,22 +2323,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2280,8 +2364,8 @@
       <c r="O16">
         <v>0</v>
       </c>
-      <c r="P16" s="8" t="s">
-        <v>73</v>
+      <c r="P16" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="Q16">
         <v>-1</v>
@@ -2292,22 +2376,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2333,8 +2417,8 @@
       <c r="O17">
         <v>0</v>
       </c>
-      <c r="P17" s="8" t="s">
-        <v>78</v>
+      <c r="P17" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -2345,22 +2429,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" t="s">
         <v>80</v>
       </c>
-      <c r="F18" t="s">
-        <v>76</v>
-      </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2386,8 +2470,8 @@
       <c r="O18">
         <v>0</v>
       </c>
-      <c r="P18" s="8" t="s">
-        <v>78</v>
+      <c r="P18" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -2398,22 +2482,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2439,8 +2523,8 @@
       <c r="O19">
         <v>0</v>
       </c>
-      <c r="P19" s="8" t="s">
-        <v>78</v>
+      <c r="P19" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -2451,22 +2535,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2492,8 +2576,8 @@
       <c r="O20">
         <v>6</v>
       </c>
-      <c r="P20" s="8" t="s">
-        <v>87</v>
+      <c r="P20" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="Q20">
         <v>-1</v>
@@ -2504,22 +2588,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2545,8 +2629,8 @@
       <c r="O21">
         <v>6</v>
       </c>
-      <c r="P21" s="8" t="s">
-        <v>87</v>
+      <c r="P21" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="Q21">
         <v>-1</v>
@@ -2557,22 +2641,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2598,8 +2682,8 @@
       <c r="O22">
         <v>6</v>
       </c>
-      <c r="P22" s="8" t="s">
-        <v>87</v>
+      <c r="P22" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="Q22">
         <v>-1</v>
@@ -2610,22 +2694,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2651,8 +2735,8 @@
       <c r="O23">
         <v>6</v>
       </c>
-      <c r="P23" s="8" t="s">
-        <v>87</v>
+      <c r="P23" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="Q23">
         <v>-1</v>
@@ -2663,22 +2747,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2704,8 +2788,8 @@
       <c r="O24">
         <v>6</v>
       </c>
-      <c r="P24" s="8" t="s">
-        <v>87</v>
+      <c r="P24" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="Q24">
         <v>-1</v>
@@ -2716,22 +2800,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H25">
         <v>4</v>
@@ -2757,8 +2841,8 @@
       <c r="O25">
         <v>6</v>
       </c>
-      <c r="P25" s="8" t="s">
-        <v>87</v>
+      <c r="P25" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="Q25">
         <v>-1</v>
@@ -2769,22 +2853,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F26" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2810,8 +2894,8 @@
       <c r="O26">
         <v>10</v>
       </c>
-      <c r="P26" s="8" t="s">
-        <v>101</v>
+      <c r="P26" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="Q26">
         <v>-1</v>
@@ -2822,22 +2906,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F27" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2863,8 +2947,8 @@
       <c r="O27">
         <v>10</v>
       </c>
-      <c r="P27" s="8" t="s">
-        <v>104</v>
+      <c r="P27" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="Q27">
         <v>-1</v>
@@ -2875,22 +2959,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D28">
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F28" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G28" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -2916,8 +3000,8 @@
       <c r="O28">
         <v>10</v>
       </c>
-      <c r="P28" s="8" t="s">
-        <v>107</v>
+      <c r="P28" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -2928,22 +3012,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F29" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H29">
         <v>6</v>
@@ -2969,8 +3053,8 @@
       <c r="O29">
         <v>10</v>
       </c>
-      <c r="P29" s="9" t="s">
-        <v>110</v>
+      <c r="P29" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="Q29">
         <v>-1</v>
@@ -2981,22 +3065,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F30" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3022,8 +3106,8 @@
       <c r="O30">
         <v>10</v>
       </c>
-      <c r="P30" s="8" t="s">
-        <v>114</v>
+      <c r="P30" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="Q30">
         <v>-1</v>
@@ -3034,22 +3118,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D31">
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F31" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G31" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H31">
         <v>5</v>
@@ -3075,8 +3159,8 @@
       <c r="O31">
         <v>10</v>
       </c>
-      <c r="P31" s="8" t="s">
-        <v>117</v>
+      <c r="P31" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="Q31">
         <v>-1</v>
@@ -3087,22 +3171,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D32">
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F32" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G32" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H32">
         <v>5</v>
@@ -3128,15 +3212,68 @@
       <c r="O32">
         <v>-15</v>
       </c>
-      <c r="P32" s="8" t="s">
-        <v>120</v>
+      <c r="P32" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="Q32">
         <v>-1</v>
       </c>
     </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
+      <c r="I33">
+        <v>8</v>
+      </c>
+      <c r="J33">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>100</v>
+      </c>
+      <c r="O33">
+        <v>20</v>
+      </c>
+      <c r="P33" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -3148,10 +3285,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3167,25 +3304,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3193,8 +3330,8 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="str">
-        <f>_xlfn.XLOOKUP(A2,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
-        <v>宝塔</v>
+        <f>_xlfn.XLOOKUP(A2,Building!$A$2:$A$33,Building!$C$2:$C$33)</f>
+        <v>六和塔</v>
       </c>
       <c r="C2" s="4">
         <v>2</v>
@@ -3203,13 +3340,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="5">
         <v>-1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3217,7 +3354,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A3,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
+        <f>_xlfn.XLOOKUP(A3,Building!$A$2:$A$33,Building!$C$2:$C$33)</f>
         <v>官府</v>
       </c>
       <c r="C3" s="5">
@@ -3227,13 +3364,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="5">
         <v>-1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3241,7 +3378,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="str">
-        <f>_xlfn.XLOOKUP(A4,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
+        <f>_xlfn.XLOOKUP(A4,Building!$A$2:$A$33,Building!$C$2:$C$33)</f>
         <v>农田</v>
       </c>
       <c r="C4" s="4">
@@ -3251,13 +3388,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F4" s="5">
         <v>-1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3265,7 +3402,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A5,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
+        <f>_xlfn.XLOOKUP(A5,Building!$A$2:$A$33,Building!$C$2:$C$33)</f>
         <v>马车</v>
       </c>
       <c r="C5" s="5">
@@ -3275,13 +3412,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="5">
         <v>-1</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3289,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="str">
-        <f>_xlfn.XLOOKUP(A6,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
+        <f>_xlfn.XLOOKUP(A6,Building!$A$2:$A$33,Building!$C$2:$C$33)</f>
         <v>道路</v>
       </c>
       <c r="C6" s="4">
@@ -3299,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="5">
         <v>-1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3313,7 +3450,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A7,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
+        <f>_xlfn.XLOOKUP(A7,Building!$A$2:$A$33,Building!$C$2:$C$33)</f>
         <v>桥</v>
       </c>
       <c r="C7" s="5">
@@ -3323,13 +3460,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="5">
         <v>-1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3337,8 +3474,8 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="str">
-        <f>_xlfn.XLOOKUP(A8,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
-        <v>中型房屋1</v>
+        <f>_xlfn.XLOOKUP(A8,Building!$A$2:$A$33,Building!$C$2:$C$33)</f>
+        <v>府宅</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
@@ -3347,13 +3484,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F8" s="4">
         <v>-2</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3361,8 +3498,8 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A9,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
-        <v>小型房屋</v>
+        <f>_xlfn.XLOOKUP(A9,Building!$A$2:$A$33,Building!$C$2:$C$33)</f>
+        <v>望火楼</v>
       </c>
       <c r="C9" s="5">
         <v>0</v>
@@ -3371,13 +3508,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F9" s="5">
         <v>-2</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3385,8 +3522,8 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="str">
-        <f>_xlfn.XLOOKUP(A10,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
-        <v>大型房屋</v>
+        <f>_xlfn.XLOOKUP(A10,Building!$A$2:$A$33,Building!$C$2:$C$33)</f>
+        <v>宅院</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -3395,13 +3532,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F10" s="4">
         <v>-2</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3409,8 +3546,8 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A11,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
-        <v>中型房屋2</v>
+        <f>_xlfn.XLOOKUP(A11,Building!$A$2:$A$33,Building!$C$2:$C$33)</f>
+        <v>瓦房</v>
       </c>
       <c r="C11" s="5">
         <v>0</v>
@@ -3419,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F11" s="5">
         <v>-2</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3433,7 +3570,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="str">
-        <f>_xlfn.XLOOKUP(A12,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
+        <f>_xlfn.XLOOKUP(A12,Building!$A$2:$A$33,Building!$C$2:$C$33)</f>
         <v>采石场</v>
       </c>
       <c r="C12" s="4">
@@ -3443,13 +3580,13 @@
         <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F12" s="4">
         <v>-1</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3457,7 +3594,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A13,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
+        <f>_xlfn.XLOOKUP(A13,Building!$A$2:$A$33,Building!$C$2:$C$33)</f>
         <v>林场</v>
       </c>
       <c r="C13" s="5">
@@ -3467,13 +3604,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F13" s="5">
         <v>-1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3481,7 +3618,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="str">
-        <f>_xlfn.XLOOKUP(A14,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
+        <f>_xlfn.XLOOKUP(A14,Building!$A$2:$A$33,Building!$C$2:$C$33)</f>
         <v>砖厂</v>
       </c>
       <c r="C14" s="4">
@@ -3491,13 +3628,13 @@
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F14" s="4">
         <v>11</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3505,7 +3642,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A15,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
+        <f>_xlfn.XLOOKUP(A15,Building!$A$2:$A$33,Building!$C$2:$C$33)</f>
         <v>商铺</v>
       </c>
       <c r="C15" s="5">
@@ -3515,13 +3652,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15" s="5">
         <v>-1</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3529,7 +3666,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="str">
-        <f>_xlfn.XLOOKUP(A16,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
+        <f>_xlfn.XLOOKUP(A16,Building!$A$2:$A$33,Building!$C$2:$C$33)</f>
         <v>篱笆</v>
       </c>
       <c r="C16" s="4">
@@ -3539,13 +3676,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F16" s="4">
         <v>-1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3553,8 +3690,8 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A17,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
-        <v>井1</v>
+        <f>_xlfn.XLOOKUP(A17,Building!$A$2:$A$33,Building!$C$2:$C$33)</f>
+        <v>相国井</v>
       </c>
       <c r="C17" s="5">
         <v>2</v>
@@ -3563,13 +3700,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F17" s="5">
         <v>-1</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3577,8 +3714,8 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="str">
-        <f>_xlfn.XLOOKUP(A18,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
-        <v>井2</v>
+        <f>_xlfn.XLOOKUP(A18,Building!$A$2:$A$33,Building!$C$2:$C$33)</f>
+        <v>方井</v>
       </c>
       <c r="C18" s="4">
         <v>2</v>
@@ -3587,13 +3724,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" s="4">
         <v>-1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3601,8 +3738,8 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="str">
-        <f>_xlfn.XLOOKUP(A19,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
-        <v>井3</v>
+        <f>_xlfn.XLOOKUP(A19,Building!$A$2:$A$33,Building!$C$2:$C$33)</f>
+        <v>金牛井</v>
       </c>
       <c r="C19" s="5">
         <v>2</v>
@@ -3611,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F19" s="5">
         <v>-1</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3625,8 +3762,8 @@
         <v>18</v>
       </c>
       <c r="B20" t="str">
-        <f>_xlfn.XLOOKUP(A20,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
-        <v>树1</v>
+        <f>_xlfn.XLOOKUP(A20,Building!$A$2:$A$33,Building!$C$2:$C$33)</f>
+        <v>琼树</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -3635,13 +3772,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F20" s="5">
         <v>-1</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3649,8 +3786,8 @@
         <v>19</v>
       </c>
       <c r="B21" t="str">
-        <f>_xlfn.XLOOKUP(A21,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
-        <v>树2</v>
+        <f>_xlfn.XLOOKUP(A21,Building!$A$2:$A$33,Building!$C$2:$C$33)</f>
+        <v>树枝</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -3659,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F21" s="5">
         <v>-1</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3673,8 +3810,8 @@
         <v>20</v>
       </c>
       <c r="B22" t="str">
-        <f>_xlfn.XLOOKUP(A22,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
-        <v>树3</v>
+        <f>_xlfn.XLOOKUP(A22,Building!$A$2:$A$33,Building!$C$2:$C$33)</f>
+        <v>枯枝</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -3683,13 +3820,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F22" s="5">
         <v>-1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3697,8 +3834,8 @@
         <v>21</v>
       </c>
       <c r="B23" t="str">
-        <f>_xlfn.XLOOKUP(A23,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
-        <v>树4</v>
+        <f>_xlfn.XLOOKUP(A23,Building!$A$2:$A$33,Building!$C$2:$C$33)</f>
+        <v>松柏</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -3707,13 +3844,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F23" s="5">
         <v>-1</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3721,8 +3858,8 @@
         <v>22</v>
       </c>
       <c r="B24" t="str">
-        <f>_xlfn.XLOOKUP(A24,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
-        <v>树5</v>
+        <f>_xlfn.XLOOKUP(A24,Building!$A$2:$A$33,Building!$C$2:$C$33)</f>
+        <v>珠树</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -3731,13 +3868,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F24" s="5">
         <v>-1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3745,8 +3882,8 @@
         <v>23</v>
       </c>
       <c r="B25" t="str">
-        <f>_xlfn.XLOOKUP(A25,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
-        <v>树6</v>
+        <f>_xlfn.XLOOKUP(A25,Building!$A$2:$A$33,Building!$C$2:$C$33)</f>
+        <v>凤林</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -3755,13 +3892,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F25" s="5">
         <v>-1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3769,8 +3906,8 @@
         <v>24</v>
       </c>
       <c r="B26" t="str">
-        <f>_xlfn.XLOOKUP(A26,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
-        <v>亭子</v>
+        <f>_xlfn.XLOOKUP(A26,Building!$A$2:$A$33,Building!$C$2:$C$33)</f>
+        <v>亭榭</v>
       </c>
       <c r="C26" s="4">
         <v>2</v>
@@ -3779,13 +3916,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F26" s="4">
         <v>-1</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3793,7 +3930,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="str">
-        <f>_xlfn.XLOOKUP(A27,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
+        <f>_xlfn.XLOOKUP(A27,Building!$A$2:$A$33,Building!$C$2:$C$33)</f>
         <v>牌坊</v>
       </c>
       <c r="C27" s="5">
@@ -3803,13 +3940,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F27" s="5">
         <v>-1</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3817,8 +3954,8 @@
         <v>26</v>
       </c>
       <c r="B28" t="str">
-        <f>_xlfn.XLOOKUP(A28,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
-        <v>医院</v>
+        <f>_xlfn.XLOOKUP(A28,Building!$A$2:$A$33,Building!$C$2:$C$33)</f>
+        <v>安乐坊</v>
       </c>
       <c r="C28" s="4">
         <v>2</v>
@@ -3827,13 +3964,13 @@
         <v>0</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F28" s="4">
         <v>-1</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3841,7 +3978,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="str">
-        <f>_xlfn.XLOOKUP(A29,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
+        <f>_xlfn.XLOOKUP(A29,Building!$A$2:$A$33,Building!$C$2:$C$33)</f>
         <v>书院</v>
       </c>
       <c r="C29" s="5">
@@ -3851,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F29" s="5">
         <v>-1</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3865,7 +4002,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="str">
-        <f>_xlfn.XLOOKUP(A30,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
+        <f>_xlfn.XLOOKUP(A30,Building!$A$2:$A$33,Building!$C$2:$C$33)</f>
         <v>小摊</v>
       </c>
       <c r="C30">
@@ -3875,13 +4012,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F30" s="5">
         <v>-1</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3889,7 +4026,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="str">
-        <f>_xlfn.XLOOKUP(A31,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
+        <f>_xlfn.XLOOKUP(A31,Building!$A$2:$A$33,Building!$C$2:$C$33)</f>
         <v>酒楼</v>
       </c>
       <c r="C31">
@@ -3899,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F31" s="5">
         <v>-1</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3913,7 +4050,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="str">
-        <f>_xlfn.XLOOKUP(A32,Building!$A$2:$A$32,Building!$C$2:$C$32)</f>
+        <f>_xlfn.XLOOKUP(A32,Building!$A$2:$A$33,Building!$C$2:$C$33)</f>
         <v>铁匠铺</v>
       </c>
       <c r="C32">
@@ -3923,17 +4060,41 @@
         <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F32" s="5">
         <v>-1</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="str">
+        <f>_xlfn.XLOOKUP(A33,Building!$A$2:$A$33,Building!$C$2:$C$33)</f>
+        <v>三潭印月</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
@@ -3969,10 +4130,10 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3980,16 +4141,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3997,16 +4158,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4014,16 +4175,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4031,16 +4192,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4048,16 +4209,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4065,16 +4226,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4082,16 +4243,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4099,16 +4260,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4116,16 +4277,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4133,16 +4294,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -4150,16 +4311,16 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4167,20 +4328,20 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
@@ -4206,19 +4367,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -4231,17 +4392,17 @@
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>146</v>
+      <c r="C2" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4251,17 +4412,17 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>146</v>
+      <c r="C3" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4272,16 +4433,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4292,16 +4453,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4312,16 +4473,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4332,16 +4493,16 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4352,16 +4513,16 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4372,16 +4533,16 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4392,16 +4553,16 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4412,16 +4573,16 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4432,16 +4593,16 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4452,16 +4613,16 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4472,16 +4633,16 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4492,16 +4653,16 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4512,16 +4673,16 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4532,16 +4693,16 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4552,16 +4713,16 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4572,16 +4733,16 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4592,16 +4753,16 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4612,16 +4773,16 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D21" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4632,16 +4793,16 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D22" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -4652,20 +4813,20 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -4678,7 +4839,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4688,7 +4849,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4696,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4704,7 +4865,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4712,7 +4873,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4720,7 +4881,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4732,7 +4893,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8C6A4E-6B5B-44AD-A6EF-72E25456AC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -19,80 +13,63 @@
     <sheet name="BuildingUpgrade" sheetId="4" r:id="rId4"/>
     <sheet name="CityEvaluate" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hasee</author>
     <author>XINDONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>唯一id，从0开始</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>资源路径</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>建筑名称</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>建筑类型：
@@ -104,28 +81,26 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>详细信息</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>材料类型（数组）:
@@ -135,84 +110,78 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>材料点数（数组）</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>列数(x方向)</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>行数(z方向)</t>
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>cd时间</t>
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="K1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>默认解锁</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="M1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>最大等级</t>
@@ -224,47 +193,44 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hasee</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>唯一id，从0开始</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>建筑名称</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>产出类型：
@@ -274,56 +240,52 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>产出物品id</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>产出物品量</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>消耗物品id</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>消耗物品量</t>
@@ -335,61 +297,57 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hasee</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>唯一id，从0开始</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>建筑名称</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>产出物品id</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>产出物品量</t>
@@ -401,7 +359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="176">
   <si>
     <t>BuildingID</t>
   </si>
@@ -463,66 +421,72 @@
     <t>宝塔</t>
   </si>
   <si>
+    <t>0,2,</t>
+  </si>
+  <si>
+    <t>5000,3000,</t>
+  </si>
+  <si>
+    <t>在风景秀美之地，宝塔具有不可替代的引领作用</t>
+  </si>
+  <si>
+    <t>building_201</t>
+  </si>
+  <si>
+    <t>官府</t>
+  </si>
+  <si>
     <t>0,</t>
   </si>
   <si>
+    <t>building_301</t>
+  </si>
+  <si>
+    <t>农田</t>
+  </si>
+  <si>
+    <t>可以生产粮食</t>
+  </si>
+  <si>
+    <t>5,</t>
+  </si>
+  <si>
+    <t>生产农作物</t>
+  </si>
+  <si>
+    <t>building_401</t>
+  </si>
+  <si>
+    <t>马车</t>
+  </si>
+  <si>
+    <t>装饰品</t>
+  </si>
+  <si>
+    <t>80,</t>
+  </si>
+  <si>
+    <t>宋代马车多为平民百姓所使用，作为长途交通工具</t>
+  </si>
+  <si>
+    <t>building_402</t>
+  </si>
+  <si>
+    <t>道路</t>
+  </si>
+  <si>
+    <t>宋代道路十分便利，以石路为主，供行人和车辆通行</t>
+  </si>
+  <si>
+    <t>building_403</t>
+  </si>
+  <si>
+    <t>桥</t>
+  </si>
+  <si>
     <t>1000,</t>
   </si>
   <si>
-    <t>在风景秀美之地，宝塔具有不可替代的引领作用</t>
-  </si>
-  <si>
-    <t>building_201</t>
-  </si>
-  <si>
-    <t>官府</t>
-  </si>
-  <si>
-    <t>building_301</t>
-  </si>
-  <si>
-    <t>农田</t>
-  </si>
-  <si>
-    <t>可以生产粮食</t>
-  </si>
-  <si>
-    <t>5,</t>
-  </si>
-  <si>
-    <t>生产农作物</t>
-  </si>
-  <si>
-    <t>building_401</t>
-  </si>
-  <si>
-    <t>马车</t>
-  </si>
-  <si>
-    <t>装饰品</t>
-  </si>
-  <si>
-    <t>80,</t>
-  </si>
-  <si>
-    <t>宋代马车多为平民百姓所使用，作为长途交通工具</t>
-  </si>
-  <si>
-    <t>building_402</t>
-  </si>
-  <si>
-    <t>道路</t>
-  </si>
-  <si>
-    <t>宋代道路十分便利，以石路为主，供行人和车辆通行</t>
-  </si>
-  <si>
-    <t>building_403</t>
-  </si>
-  <si>
-    <t>桥</t>
-  </si>
-  <si>
     <t>宋代桥梁材质多为砖、木，造型素简古雅</t>
   </si>
   <si>
@@ -568,6 +532,9 @@
     <t>building_205</t>
   </si>
   <si>
+    <t>瓦房</t>
+  </si>
+  <si>
     <t>中型房屋2</t>
   </si>
   <si>
@@ -790,6 +757,12 @@
     <t>三潭印月</t>
   </si>
   <si>
+    <t>11,1,</t>
+  </si>
+  <si>
+    <t>4000,2000,</t>
+  </si>
+  <si>
     <t>三潭印月是西湖中最大的岛屿，风景秀丽、景色清幽</t>
   </si>
   <si>
@@ -904,9 +877,6 @@
     <t>4000,</t>
   </si>
   <si>
-    <t>11,1,</t>
-  </si>
-  <si>
     <t>600,400,</t>
   </si>
   <si>
@@ -917,37 +887,19 @@
   </si>
   <si>
     <t>Score</t>
-  </si>
-  <si>
-    <t>三潭印月</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓦房</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000,2000,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,1,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,2,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000,3000,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -960,7 +912,6 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -968,7 +919,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -976,46 +926,166 @@
       <sz val="12"/>
       <color rgb="FF1D1D1F"/>
       <name val="Helvetica"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF1D1D1F"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1030,12 +1100,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79976805932798245"/>
-        <bgColor theme="4" tint="0.79976805932798245"/>
+        <fgColor theme="4" tint="0.799768059327982"/>
+        <bgColor theme="4" tint="0.799768059327982"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1045,14 +1301,14 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39976195562608724"/>
+        <color theme="4" tint="0.399761955626087"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39976195562608724"/>
+        <color theme="4" tint="0.399761955626087"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39976195562608724"/>
+        <color theme="4" tint="0.399761955626087"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1060,20 +1316,262 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39976195562608724"/>
+        <color theme="4" tint="0.399761955626087"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39976195562608724"/>
+        <color theme="4" tint="0.399761955626087"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1110,105 +1608,144 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:Q33" totalsRowShown="0">
-  <autoFilter ref="A1:Q33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:Q33" totalsRowShown="0">
+  <autoFilter ref="A1:Q33"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="BuildingID"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ResourcePath"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="BuildingType"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CurrencyType"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CurrencyCount"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="RowCount"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ColCount"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Cd"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Unlock"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="People"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Level"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="BaseScore"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="EnvScore"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Story"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="MaxCount"/>
+    <tableColumn id="1" name="BuildingID"/>
+    <tableColumn id="7" name="ResourcePath"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="BuildingType"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="CurrencyType"/>
+    <tableColumn id="6" name="CurrencyCount"/>
+    <tableColumn id="8" name="RowCount"/>
+    <tableColumn id="9" name="ColCount"/>
+    <tableColumn id="15" name="Cd"/>
+    <tableColumn id="10" name="Unlock"/>
+    <tableColumn id="11" name="People"/>
+    <tableColumn id="12" name="Level"/>
+    <tableColumn id="13" name="BaseScore"/>
+    <tableColumn id="14" name="EnvScore"/>
+    <tableColumn id="16" name="Story"/>
+    <tableColumn id="17" name="MaxCount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:G33" totalsRowShown="0">
-  <autoFilter ref="A1:G33" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:G33" totalsRowShown="0">
+  <autoFilter ref="A1:G33"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name">
-      <calculatedColumnFormula>_xlfn.XLOOKUP(A2,Building!$A$2:$A$33,Building!$C$2:$C$33)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ProduceType"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ProduceID"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ProduceAmount"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="ConsumeID"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="ConsumeAmount"/>
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="ProduceType"/>
+    <tableColumn id="4" name="ProduceID"/>
+    <tableColumn id="5" name="ProduceAmount"/>
+    <tableColumn id="7" name="ConsumeID"/>
+    <tableColumn id="8" name="ConsumeAmount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表1_4" displayName="表1_4" ref="A1:E13" totalsRowShown="0">
-  <autoFilter ref="A1:E13" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_4" displayName="表1_4" ref="A1:E13" totalsRowShown="0">
+  <autoFilter ref="A1:E13"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="BuildingID"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Level"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="ConsumeID"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="ProduceAmount"/>
+    <tableColumn id="1" name="BuildingID"/>
+    <tableColumn id="3" name="Name"/>
+    <tableColumn id="2" name="Level"/>
+    <tableColumn id="12" name="ConsumeID"/>
+    <tableColumn id="13" name="ProduceAmount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表4" displayName="表4" ref="A1:F23" totalsRowShown="0">
-  <autoFilter ref="A1:F23" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:F23" totalsRowShown="0">
+  <autoFilter ref="A1:F23"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Level"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ItemID"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="ItemCount"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="CurrencyID"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="CurrencyCount"/>
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Level"/>
+    <tableColumn id="3" name="ItemID"/>
+    <tableColumn id="4" name="ItemCount"/>
+    <tableColumn id="5" name="CurrencyID"/>
+    <tableColumn id="6" name="CurrencyCount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="表5" displayName="表5" ref="A1:B6" totalsRowShown="0">
-  <autoFilter ref="A1:B6" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Score"/>
+    <tableColumn id="1" name="Level"/>
+    <tableColumn id="2" name="Score"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1495,35 +2032,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="1" max="2" width="13.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="10.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="15.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="15.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="15.3333333333333" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" customWidth="1"/>
-    <col min="10" max="10" width="6.5546875" customWidth="1"/>
-    <col min="13" max="13" width="9.77734375" customWidth="1"/>
-    <col min="16" max="16" width="65.6640625" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.77777777777778" customWidth="1"/>
+    <col min="10" max="10" width="6.55555555555556" customWidth="1"/>
+    <col min="13" max="13" width="9.77777777777778" customWidth="1"/>
+    <col min="16" max="16" width="65.6666666666667" customWidth="1"/>
+    <col min="17" max="17" width="11.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1576,7 +2113,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" ht="15" spans="1:17">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1593,10 +2130,10 @@
         <v>19</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -1629,7 +2166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" ht="15.6" spans="1:17">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1646,10 +2183,10 @@
         <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -1682,27 +2219,27 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" spans="1:17">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1729,33 +2266,33 @@
         <v>-2</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q4">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" spans="1:17">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1782,33 +2319,33 @@
         <v>3</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q5">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" spans="1:17">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1835,33 +2372,33 @@
         <v>0</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6">
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" spans="1:17">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -1888,33 +2425,33 @@
         <v>7</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q7">
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1941,33 +2478,33 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q8">
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1994,33 +2531,33 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q9">
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -2047,33 +2584,33 @@
         <v>3</v>
       </c>
       <c r="P10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q10">
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>173</v>
+        <v>57</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -2100,33 +2637,33 @@
         <v>2</v>
       </c>
       <c r="P11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q11">
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" ht="15" spans="1:17">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H12">
         <v>6</v>
@@ -2153,33 +2690,33 @@
         <v>-9</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q12">
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" ht="15" spans="1:17">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H13">
         <v>6</v>
@@ -2206,33 +2743,33 @@
         <v>-6</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q13">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" ht="15" spans="1:17">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H14">
         <v>8</v>
@@ -2259,33 +2796,33 @@
         <v>-12</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q14">
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" ht="15.6" spans="1:17">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H15">
         <v>6</v>
@@ -2312,33 +2849,33 @@
         <v>0</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" ht="15" spans="1:17">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2365,33 +2902,33 @@
         <v>0</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q16">
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" ht="15" spans="1:17">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2418,33 +2955,33 @@
         <v>0</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" ht="15" spans="1:17">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2471,33 +3008,33 @@
         <v>0</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" ht="15" spans="1:17">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2524,33 +3061,33 @@
         <v>0</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" ht="15" spans="1:17">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2577,33 +3114,33 @@
         <v>6</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q20">
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" ht="15" spans="1:17">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G21" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2630,33 +3167,33 @@
         <v>6</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q21">
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" ht="15" spans="1:17">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G22" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2683,33 +3220,33 @@
         <v>6</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q22">
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" ht="15" spans="1:17">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2736,33 +3273,33 @@
         <v>6</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q23">
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" ht="15" spans="1:17">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2789,33 +3326,33 @@
         <v>6</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q24">
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" ht="15" spans="1:17">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G25" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H25">
         <v>4</v>
@@ -2842,33 +3379,33 @@
         <v>6</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q25">
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" ht="15" spans="1:17">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F26" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2895,33 +3432,33 @@
         <v>10</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q26">
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" ht="15" spans="1:17">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" t="s">
         <v>108</v>
       </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27" t="s">
-        <v>105</v>
-      </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2948,33 +3485,33 @@
         <v>10</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q27">
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" ht="15" spans="1:17">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F28" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3001,33 +3538,33 @@
         <v>10</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" ht="15.6" spans="1:17">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F29" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H29">
         <v>6</v>
@@ -3054,33 +3591,33 @@
         <v>10</v>
       </c>
       <c r="P29" s="10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q29">
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" ht="15" spans="1:17">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F30" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3107,33 +3644,33 @@
         <v>10</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q30">
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" ht="15" spans="1:17">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F31" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H31">
         <v>5</v>
@@ -3160,33 +3697,33 @@
         <v>10</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q31">
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" ht="15" spans="1:17">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D32">
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F32" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H32">
         <v>5</v>
@@ -3213,33 +3750,33 @@
         <v>-15</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q32">
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>172</v>
+        <v>130</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="H33">
         <v>8</v>
@@ -3266,66 +3803,67 @@
         <v>20</v>
       </c>
       <c r="P33" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q33">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="3.88888888888889" customWidth="1"/>
+    <col min="2" max="2" width="10.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="14.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="16.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="11.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="18.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -3340,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F2" s="5">
         <v>-1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -3364,16 +3902,16 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F3" s="5">
         <v>-1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3388,16 +3926,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F4" s="5">
         <v>-1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -3412,16 +3950,16 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F5" s="5">
         <v>-1</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3436,16 +3974,16 @@
         <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F6" s="5">
         <v>-1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -3460,16 +3998,16 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F7" s="5">
         <v>-1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -3484,16 +4022,16 @@
         <v>0</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F8" s="4">
         <v>-2</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -3508,16 +4046,16 @@
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F9" s="5">
         <v>-2</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -3532,16 +4070,16 @@
         <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F10" s="4">
         <v>-2</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -3556,16 +4094,16 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F11" s="5">
         <v>-2</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -3580,16 +4118,16 @@
         <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F12" s="4">
         <v>-1</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -3604,16 +4142,16 @@
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F13" s="5">
         <v>-1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -3628,16 +4166,16 @@
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F14" s="4">
         <v>11</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -3652,16 +4190,16 @@
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F15" s="5">
         <v>-1</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -3676,16 +4214,16 @@
         <v>0</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F16" s="4">
         <v>-1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -3700,16 +4238,16 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F17" s="5">
         <v>-1</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -3724,16 +4262,16 @@
         <v>0</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F18" s="4">
         <v>-1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -3748,16 +4286,16 @@
         <v>0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F19" s="5">
         <v>-1</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3772,16 +4310,16 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F20" s="5">
         <v>-1</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3796,16 +4334,16 @@
         <v>0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F21" s="5">
         <v>-1</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3820,16 +4358,16 @@
         <v>0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F22" s="5">
         <v>-1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3844,16 +4382,16 @@
         <v>0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F23" s="5">
         <v>-1</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3868,16 +4406,16 @@
         <v>0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F24" s="5">
         <v>-1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3892,16 +4430,16 @@
         <v>0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F25" s="5">
         <v>-1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3916,16 +4454,16 @@
         <v>0</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F26" s="4">
         <v>-1</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3940,16 +4478,16 @@
         <v>0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F27" s="5">
         <v>-1</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3964,16 +4502,16 @@
         <v>0</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F28" s="4">
         <v>-1</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3988,16 +4526,16 @@
         <v>0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F29" s="5">
         <v>-1</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4012,16 +4550,16 @@
         <v>0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F30" s="5">
         <v>-1</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4036,16 +4574,16 @@
         <v>0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F31" s="5">
         <v>-1</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4060,16 +4598,16 @@
         <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F32" s="5">
         <v>-1</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4084,42 +4622,43 @@
         <v>0</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F33" s="5">
         <v>-1</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.1111111111111" customWidth="1"/>
+    <col min="2" max="3" width="10.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="13.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="16.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4130,262 +4669,263 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="4" max="4" width="10.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="11.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="15.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>2</v>
       </c>
@@ -4393,19 +4933,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4413,19 +4953,19 @@
         <v>3</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>6</v>
       </c>
@@ -4433,19 +4973,19 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>6</v>
       </c>
@@ -4453,19 +4993,19 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>7</v>
       </c>
@@ -4473,19 +5013,19 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>7</v>
       </c>
@@ -4493,19 +5033,19 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>8</v>
       </c>
@@ -4513,19 +5053,19 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4533,19 +5073,19 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4553,19 +5093,19 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4573,19 +5113,19 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4593,19 +5133,19 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>10</v>
       </c>
@@ -4613,19 +5153,19 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>11</v>
       </c>
@@ -4633,19 +5173,19 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>11</v>
       </c>
@@ -4653,19 +5193,19 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>12</v>
       </c>
@@ -4673,19 +5213,19 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>12</v>
       </c>
@@ -4693,19 +5233,19 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>13</v>
       </c>
@@ -4713,19 +5253,19 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>13</v>
       </c>
@@ -4733,19 +5273,19 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>1</v>
       </c>
@@ -4753,19 +5293,19 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D20" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>1</v>
       </c>
@@ -4773,19 +5313,19 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D21" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>1</v>
       </c>
@@ -4793,19 +5333,19 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="D22" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>1</v>
       </c>
@@ -4813,21 +5353,21 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -4835,24 +5375,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4860,7 +5401,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4868,7 +5409,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4876,7 +5417,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4884,7 +5425,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4893,8 +5434,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300"/>
+    <workbookView windowWidth="30048" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -359,7 +359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="177">
   <si>
     <t>BuildingID</t>
   </si>
@@ -475,6 +475,9 @@
     <t>道路</t>
   </si>
   <si>
+    <t>供行人和车辆通行</t>
+  </si>
+  <si>
     <t>宋代道路十分便利，以石路为主，供行人和车辆通行</t>
   </si>
   <si>
@@ -496,340 +499,340 @@
     <t>府宅</t>
   </si>
   <si>
+    <t>身份较高人物住居之地</t>
+  </si>
+  <si>
+    <t>100,</t>
+  </si>
+  <si>
+    <t>宋代农村百姓的比较朴实,多为低矮的屋和瓦房,构成一组住宅</t>
+  </si>
+  <si>
+    <t>building_203</t>
+  </si>
+  <si>
+    <t>望火楼</t>
+  </si>
+  <si>
+    <t>基础房屋</t>
+  </si>
+  <si>
+    <t>125,</t>
+  </si>
+  <si>
+    <t>building_204</t>
+  </si>
+  <si>
+    <t>宅院</t>
+  </si>
+  <si>
+    <t>大型房屋</t>
+  </si>
+  <si>
+    <t>240,</t>
+  </si>
+  <si>
+    <t>building_205</t>
+  </si>
+  <si>
+    <t>瓦房</t>
+  </si>
+  <si>
+    <t>30,</t>
+  </si>
+  <si>
+    <t>building_302</t>
+  </si>
+  <si>
+    <t>采石场</t>
+  </si>
+  <si>
+    <t>200,</t>
+  </si>
+  <si>
+    <t>生产石材</t>
+  </si>
+  <si>
+    <t>building_303</t>
+  </si>
+  <si>
+    <t>林场</t>
+  </si>
+  <si>
+    <t>可以生产木头</t>
+  </si>
+  <si>
+    <t>50,</t>
+  </si>
+  <si>
+    <t>生产木材</t>
+  </si>
+  <si>
+    <t>building_304</t>
+  </si>
+  <si>
+    <t>砖厂</t>
+  </si>
+  <si>
+    <t>300,</t>
+  </si>
+  <si>
+    <t>生产砖块</t>
+  </si>
+  <si>
+    <t>building_305</t>
+  </si>
+  <si>
+    <t>商铺</t>
+  </si>
+  <si>
+    <t>购买物品</t>
+  </si>
+  <si>
+    <t>生活用品，奇珍异宝，应有尽有</t>
+  </si>
+  <si>
+    <t>building_404</t>
+  </si>
+  <si>
+    <t>篱笆</t>
+  </si>
+  <si>
+    <t>10,</t>
+  </si>
+  <si>
+    <t>篱笆可以保护房屋家室</t>
+  </si>
+  <si>
+    <t>building_405</t>
+  </si>
+  <si>
+    <t>相国井</t>
+  </si>
+  <si>
+    <t>0,1,</t>
+  </si>
+  <si>
+    <t>600,500,</t>
+  </si>
+  <si>
+    <t>苏轼疏浚六井，使得西湖甘水，殆遍一城</t>
+  </si>
+  <si>
+    <t>building_406</t>
+  </si>
+  <si>
+    <t>方井</t>
+  </si>
+  <si>
+    <t>1000,400,</t>
+  </si>
+  <si>
+    <t>building_407</t>
+  </si>
+  <si>
+    <t>金牛井</t>
+  </si>
+  <si>
+    <t>500,900,</t>
+  </si>
+  <si>
+    <t>building_408</t>
+  </si>
+  <si>
+    <t>琼树</t>
+  </si>
+  <si>
+    <t>树木可用来装点城市，清洁空气</t>
+  </si>
+  <si>
+    <t>building_409</t>
+  </si>
+  <si>
+    <t>树枝</t>
+  </si>
+  <si>
+    <t>building_410</t>
+  </si>
+  <si>
+    <t>枯枝</t>
+  </si>
+  <si>
+    <t>building_411</t>
+  </si>
+  <si>
+    <t>松柏</t>
+  </si>
+  <si>
+    <t>building_412</t>
+  </si>
+  <si>
+    <t>珠树</t>
+  </si>
+  <si>
+    <t>building_413</t>
+  </si>
+  <si>
+    <t>凤林</t>
+  </si>
+  <si>
+    <t>building_414</t>
+  </si>
+  <si>
+    <t>亭榭</t>
+  </si>
+  <si>
+    <t>亭子</t>
+  </si>
+  <si>
+    <t>1,</t>
+  </si>
+  <si>
+    <t>宋代亭榭是山川灵气动荡吐纳的交点和精神聚积的处所</t>
+  </si>
+  <si>
+    <t>building_415</t>
+  </si>
+  <si>
+    <t>牌坊</t>
+  </si>
+  <si>
+    <t>牌坊昭示家族先人的高尚美德和丰功伟绩，兼有祭祖的功能</t>
+  </si>
+  <si>
+    <t>building_416</t>
+  </si>
+  <si>
+    <t>安乐坊</t>
+  </si>
+  <si>
+    <t>医院</t>
+  </si>
+  <si>
+    <t>收容病人，进行医疗救助</t>
+  </si>
+  <si>
+    <t>building_417</t>
+  </si>
+  <si>
+    <t>书院</t>
+  </si>
+  <si>
+    <t>宋代书院是中国古代的相对独立于官学之外的教育机构</t>
+  </si>
+  <si>
+    <t>building_418</t>
+  </si>
+  <si>
+    <t>小摊</t>
+  </si>
+  <si>
+    <t>把不用的物品换成钱</t>
+  </si>
+  <si>
+    <t>宋代“地摊经济”空前繁盛，可作为城市文化的标志性特点</t>
+  </si>
+  <si>
+    <t>building_419</t>
+  </si>
+  <si>
+    <t>酒楼</t>
+  </si>
+  <si>
+    <t>提供餐食和美酒</t>
+  </si>
+  <si>
+    <t>building_420</t>
+  </si>
+  <si>
+    <t>铁匠铺</t>
+  </si>
+  <si>
+    <t>生产各类铁器,满足老百姓的需求</t>
+  </si>
+  <si>
+    <t>building_421</t>
+  </si>
+  <si>
+    <t>三潭印月</t>
+  </si>
+  <si>
+    <t>11,1,</t>
+  </si>
+  <si>
+    <t>4000,2000,</t>
+  </si>
+  <si>
+    <t>三潭印月是西湖中最大的岛屿，风景秀丽、景色清幽</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ProduceType</t>
+  </si>
+  <si>
+    <t>ProduceID</t>
+  </si>
+  <si>
+    <t>ProduceAmount</t>
+  </si>
+  <si>
+    <t>ConsumeID</t>
+  </si>
+  <si>
+    <t>ConsumeAmount</t>
+  </si>
+  <si>
+    <t>3,6,8,</t>
+  </si>
+  <si>
+    <t>11,23,42,</t>
+  </si>
+  <si>
+    <t>9,18,24,</t>
+  </si>
+  <si>
+    <t>18,32,50,</t>
+  </si>
+  <si>
+    <t>12,24,40,</t>
+  </si>
+  <si>
+    <t>5,11,14,</t>
+  </si>
+  <si>
+    <t>4,9,12,</t>
+  </si>
+  <si>
+    <t>5,10,13,</t>
+  </si>
+  <si>
     <t>中型房屋1</t>
   </si>
   <si>
-    <t>100,</t>
-  </si>
-  <si>
-    <t>宋代农村百姓的比较朴实,多为低矮的屋和瓦房,构成一组住宅</t>
-  </si>
-  <si>
-    <t>building_203</t>
-  </si>
-  <si>
-    <t>望火楼</t>
-  </si>
-  <si>
-    <t>基础房屋</t>
-  </si>
-  <si>
-    <t>30,</t>
-  </si>
-  <si>
-    <t>building_204</t>
-  </si>
-  <si>
-    <t>宅院</t>
-  </si>
-  <si>
-    <t>大型房屋</t>
-  </si>
-  <si>
-    <t>240,</t>
-  </si>
-  <si>
-    <t>building_205</t>
-  </si>
-  <si>
-    <t>瓦房</t>
+    <t>4,</t>
+  </si>
+  <si>
+    <t>8,</t>
+  </si>
+  <si>
+    <t>11,</t>
+  </si>
+  <si>
+    <t>小型房屋</t>
+  </si>
+  <si>
+    <t>2,</t>
+  </si>
+  <si>
+    <t>7,</t>
+  </si>
+  <si>
+    <t>15,</t>
   </si>
   <si>
     <t>中型房屋2</t>
-  </si>
-  <si>
-    <t>125,</t>
-  </si>
-  <si>
-    <t>building_302</t>
-  </si>
-  <si>
-    <t>采石场</t>
-  </si>
-  <si>
-    <t>200,</t>
-  </si>
-  <si>
-    <t>生产石材</t>
-  </si>
-  <si>
-    <t>building_303</t>
-  </si>
-  <si>
-    <t>林场</t>
-  </si>
-  <si>
-    <t>可以生产木头</t>
-  </si>
-  <si>
-    <t>50,</t>
-  </si>
-  <si>
-    <t>生产木材</t>
-  </si>
-  <si>
-    <t>building_304</t>
-  </si>
-  <si>
-    <t>砖厂</t>
-  </si>
-  <si>
-    <t>300,</t>
-  </si>
-  <si>
-    <t>生产砖块</t>
-  </si>
-  <si>
-    <t>building_305</t>
-  </si>
-  <si>
-    <t>商铺</t>
-  </si>
-  <si>
-    <t>购买物品</t>
-  </si>
-  <si>
-    <t>生活用品，奇珍异宝，应有尽有</t>
-  </si>
-  <si>
-    <t>building_404</t>
-  </si>
-  <si>
-    <t>篱笆</t>
-  </si>
-  <si>
-    <t>10,</t>
-  </si>
-  <si>
-    <t>篱笆可以保护房屋家室</t>
-  </si>
-  <si>
-    <t>building_405</t>
-  </si>
-  <si>
-    <t>相国井</t>
-  </si>
-  <si>
-    <t>0,1,</t>
-  </si>
-  <si>
-    <t>600,500,</t>
-  </si>
-  <si>
-    <t>苏轼疏浚六井，使得西湖甘水，殆遍一城</t>
-  </si>
-  <si>
-    <t>building_406</t>
-  </si>
-  <si>
-    <t>方井</t>
-  </si>
-  <si>
-    <t>1000,400,</t>
-  </si>
-  <si>
-    <t>building_407</t>
-  </si>
-  <si>
-    <t>金牛井</t>
-  </si>
-  <si>
-    <t>500,900,</t>
-  </si>
-  <si>
-    <t>building_408</t>
-  </si>
-  <si>
-    <t>琼树</t>
-  </si>
-  <si>
-    <t>树木可用来装点城市，清洁空气</t>
-  </si>
-  <si>
-    <t>building_409</t>
-  </si>
-  <si>
-    <t>树枝</t>
-  </si>
-  <si>
-    <t>building_410</t>
-  </si>
-  <si>
-    <t>枯枝</t>
-  </si>
-  <si>
-    <t>building_411</t>
-  </si>
-  <si>
-    <t>松柏</t>
-  </si>
-  <si>
-    <t>building_412</t>
-  </si>
-  <si>
-    <t>珠树</t>
-  </si>
-  <si>
-    <t>building_413</t>
-  </si>
-  <si>
-    <t>凤林</t>
-  </si>
-  <si>
-    <t>building_414</t>
-  </si>
-  <si>
-    <t>亭榭</t>
-  </si>
-  <si>
-    <t>亭子</t>
-  </si>
-  <si>
-    <t>1,</t>
-  </si>
-  <si>
-    <t>宋代亭榭是山川灵气动荡吐纳的交点和精神聚积的处所</t>
-  </si>
-  <si>
-    <t>building_415</t>
-  </si>
-  <si>
-    <t>牌坊</t>
-  </si>
-  <si>
-    <t>牌坊昭示家族先人的高尚美德和丰功伟绩，兼有祭祖的功能</t>
-  </si>
-  <si>
-    <t>building_416</t>
-  </si>
-  <si>
-    <t>安乐坊</t>
-  </si>
-  <si>
-    <t>医院</t>
-  </si>
-  <si>
-    <t>收容病人，进行医疗救助</t>
-  </si>
-  <si>
-    <t>building_417</t>
-  </si>
-  <si>
-    <t>书院</t>
-  </si>
-  <si>
-    <t>宋代书院是中国古代的相对独立于官学之外的教育机构</t>
-  </si>
-  <si>
-    <t>building_418</t>
-  </si>
-  <si>
-    <t>小摊</t>
-  </si>
-  <si>
-    <t>把不用的物品换成钱</t>
-  </si>
-  <si>
-    <t>宋代“地摊经济”空前繁盛，可作为城市文化的标志性特点</t>
-  </si>
-  <si>
-    <t>building_419</t>
-  </si>
-  <si>
-    <t>酒楼</t>
-  </si>
-  <si>
-    <t>提供餐食和美酒</t>
-  </si>
-  <si>
-    <t>building_420</t>
-  </si>
-  <si>
-    <t>铁匠铺</t>
-  </si>
-  <si>
-    <t>生产各类铁器,满足老百姓的需求</t>
-  </si>
-  <si>
-    <t>building_421</t>
-  </si>
-  <si>
-    <t>三潭印月</t>
-  </si>
-  <si>
-    <t>11,1,</t>
-  </si>
-  <si>
-    <t>4000,2000,</t>
-  </si>
-  <si>
-    <t>三潭印月是西湖中最大的岛屿，风景秀丽、景色清幽</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>ProduceType</t>
-  </si>
-  <si>
-    <t>ProduceID</t>
-  </si>
-  <si>
-    <t>ProduceAmount</t>
-  </si>
-  <si>
-    <t>ConsumeID</t>
-  </si>
-  <si>
-    <t>ConsumeAmount</t>
-  </si>
-  <si>
-    <t>3,7,9,</t>
-  </si>
-  <si>
-    <t>11,23,42,</t>
-  </si>
-  <si>
-    <t>9,18,24,</t>
-  </si>
-  <si>
-    <t>18,32,50,</t>
-  </si>
-  <si>
-    <t>12,24,40,</t>
-  </si>
-  <si>
-    <t>5,11,14,</t>
-  </si>
-  <si>
-    <t>4,9,12,</t>
-  </si>
-  <si>
-    <t>3,6,8,</t>
-  </si>
-  <si>
-    <t>5,10,13,</t>
-  </si>
-  <si>
-    <t>4,</t>
-  </si>
-  <si>
-    <t>8,</t>
-  </si>
-  <si>
-    <t>11,</t>
-  </si>
-  <si>
-    <t>小型房屋</t>
-  </si>
-  <si>
-    <t>2,</t>
-  </si>
-  <si>
-    <t>7,</t>
-  </si>
-  <si>
-    <t>15,</t>
   </si>
   <si>
     <t>13,</t>
@@ -899,7 +902,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -911,13 +914,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1429,10 +1425,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1441,33 +1437,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1477,97 +1476,94 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1593,16 +1589,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -2040,8 +2036,8 @@
   <sheetPr/>
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2049,7 +2045,7 @@
     <col min="1" max="2" width="13.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="10.8888888888889" customWidth="1"/>
     <col min="4" max="4" width="15.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="21.8888888888889" customWidth="1"/>
     <col min="6" max="6" width="15.6666666666667" customWidth="1"/>
     <col min="7" max="7" width="15.3333333333333" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
@@ -2325,7 +2321,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:17">
+    <row r="6" ht="15.6" spans="1:17">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2339,7 +2335,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
@@ -2371,34 +2367,34 @@
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6" s="9" t="s">
-        <v>38</v>
+      <c r="P6" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="Q6">
         <v>-1</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:17">
+    <row r="7" ht="15.6" spans="1:17">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -2424,8 +2420,8 @@
       <c r="O7">
         <v>7</v>
       </c>
-      <c r="P7" s="9" t="s">
-        <v>42</v>
+      <c r="P7" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="Q7">
         <v>-1</v>
@@ -2436,22 +2432,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -2478,7 +2474,7 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8">
         <v>-1</v>
@@ -2489,22 +2485,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -2531,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q9">
         <v>-1</v>
@@ -2542,22 +2538,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -2584,7 +2580,7 @@
         <v>3</v>
       </c>
       <c r="P10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q10">
         <v>-1</v>
@@ -2595,16 +2591,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -2637,7 +2633,7 @@
         <v>2</v>
       </c>
       <c r="P11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q11">
         <v>-1</v>
@@ -3405,7 +3401,7 @@
         <v>108</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -3458,7 +3454,7 @@
         <v>108</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -3511,7 +3507,7 @@
         <v>108</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3564,7 +3560,7 @@
         <v>108</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29">
         <v>6</v>
@@ -3617,7 +3613,7 @@
         <v>108</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3670,7 +3666,7 @@
         <v>108</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31">
         <v>5</v>
@@ -3723,7 +3719,7 @@
         <v>108</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32">
         <v>5</v>
@@ -3825,8 +3821,8 @@
   <sheetPr/>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -4166,13 +4162,13 @@
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F14" s="4">
         <v>11</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4598,7 +4594,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F32" s="5">
         <v>-1</v>
@@ -4680,7 +4676,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4697,7 +4693,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -4714,7 +4710,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -4782,7 +4778,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -4799,7 +4795,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -4816,7 +4812,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -4833,7 +4829,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -4850,7 +4846,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -4867,7 +4863,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -4876,7 +4872,7 @@
         <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4913,13 +4909,13 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -4933,10 +4929,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -4953,16 +4949,16 @@
         <v>3</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5002,7 +4998,7 @@
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5042,7 +5038,7 @@
         <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5082,7 +5078,7 @@
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5122,7 +5118,7 @@
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5136,7 +5132,7 @@
         <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
@@ -5156,13 +5152,13 @@
         <v>108</v>
       </c>
       <c r="D13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5202,7 +5198,7 @@
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5216,7 +5212,7 @@
         <v>108</v>
       </c>
       <c r="D16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
@@ -5236,13 +5232,13 @@
         <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E17" t="s">
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5256,13 +5252,13 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E18" t="s">
         <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5276,13 +5272,13 @@
         <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E19" t="s">
         <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5293,16 +5289,16 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E20" t="s">
         <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5313,16 +5309,16 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E21" t="s">
         <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5336,13 +5332,13 @@
         <v>132</v>
       </c>
       <c r="D22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E22" t="s">
         <v>25</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5356,13 +5352,13 @@
         <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
         <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -5390,7 +5386,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13740" activeTab="1"/>
+    <workbookView windowWidth="30048" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -359,7 +359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="179">
   <si>
     <t>BuildingID</t>
   </si>
@@ -502,333 +502,342 @@
     <t>身份较高人物住居之地</t>
   </si>
   <si>
+    <t>400,</t>
+  </si>
+  <si>
+    <t>宋代农村百姓的房屋比较朴实,多为低矮的屋和瓦房</t>
+  </si>
+  <si>
+    <t>building_203</t>
+  </si>
+  <si>
+    <t>望火楼</t>
+  </si>
+  <si>
+    <t>中级房屋</t>
+  </si>
+  <si>
+    <t>125,</t>
+  </si>
+  <si>
+    <t>宋代农村百姓的比较朴实,多为低矮的屋和瓦房,构成一组住宅</t>
+  </si>
+  <si>
+    <t>building_204</t>
+  </si>
+  <si>
+    <t>宅院</t>
+  </si>
+  <si>
+    <t>350,</t>
+  </si>
+  <si>
+    <t>building_205</t>
+  </si>
+  <si>
+    <t>瓦房</t>
+  </si>
+  <si>
+    <t>基础房屋</t>
+  </si>
+  <si>
+    <t>30,</t>
+  </si>
+  <si>
+    <t>building_302</t>
+  </si>
+  <si>
+    <t>采石场</t>
+  </si>
+  <si>
+    <t>200,</t>
+  </si>
+  <si>
+    <t>生产石材</t>
+  </si>
+  <si>
+    <t>building_303</t>
+  </si>
+  <si>
+    <t>林场</t>
+  </si>
+  <si>
+    <t>可以生产木头</t>
+  </si>
+  <si>
+    <t>50,</t>
+  </si>
+  <si>
+    <t>生产木材</t>
+  </si>
+  <si>
+    <t>building_304</t>
+  </si>
+  <si>
+    <t>砖厂</t>
+  </si>
+  <si>
+    <t>300,</t>
+  </si>
+  <si>
+    <t>生产砖块</t>
+  </si>
+  <si>
+    <t>building_305</t>
+  </si>
+  <si>
+    <t>商铺</t>
+  </si>
+  <si>
+    <t>购买物品</t>
+  </si>
+  <si>
+    <t>生活用品，奇珍异宝，应有尽有</t>
+  </si>
+  <si>
+    <t>building_404</t>
+  </si>
+  <si>
+    <t>篱笆</t>
+  </si>
+  <si>
+    <t>10,</t>
+  </si>
+  <si>
+    <t>篱笆可以保护房屋家室</t>
+  </si>
+  <si>
+    <t>building_405</t>
+  </si>
+  <si>
+    <t>相国井</t>
+  </si>
+  <si>
+    <t>0,1,</t>
+  </si>
+  <si>
+    <t>600,500,</t>
+  </si>
+  <si>
+    <t>苏轼疏浚六井，使得西湖甘水，殆遍一城</t>
+  </si>
+  <si>
+    <t>building_406</t>
+  </si>
+  <si>
+    <t>方井</t>
+  </si>
+  <si>
+    <t>1000,400,</t>
+  </si>
+  <si>
+    <t>building_407</t>
+  </si>
+  <si>
+    <t>金牛井</t>
+  </si>
+  <si>
+    <t>500,900,</t>
+  </si>
+  <si>
+    <t>building_408</t>
+  </si>
+  <si>
+    <t>琼树</t>
+  </si>
+  <si>
+    <t>树木可用来装点城市，清洁空气</t>
+  </si>
+  <si>
+    <t>building_409</t>
+  </si>
+  <si>
+    <t>树枝</t>
+  </si>
+  <si>
+    <t>building_410</t>
+  </si>
+  <si>
+    <t>枯枝</t>
+  </si>
+  <si>
+    <t>building_411</t>
+  </si>
+  <si>
+    <t>松柏</t>
+  </si>
+  <si>
+    <t>building_412</t>
+  </si>
+  <si>
+    <t>珠树</t>
+  </si>
+  <si>
+    <t>building_413</t>
+  </si>
+  <si>
+    <t>凤林</t>
+  </si>
+  <si>
+    <t>building_414</t>
+  </si>
+  <si>
+    <t>亭榭</t>
+  </si>
+  <si>
+    <t>亭子</t>
+  </si>
+  <si>
+    <t>1,</t>
+  </si>
+  <si>
     <t>100,</t>
   </si>
   <si>
-    <t>宋代农村百姓的比较朴实,多为低矮的屋和瓦房,构成一组住宅</t>
-  </si>
-  <si>
-    <t>building_203</t>
-  </si>
-  <si>
-    <t>望火楼</t>
-  </si>
-  <si>
-    <t>基础房屋</t>
-  </si>
-  <si>
-    <t>125,</t>
-  </si>
-  <si>
-    <t>building_204</t>
-  </si>
-  <si>
-    <t>宅院</t>
+    <t>宋代亭榭是山川灵气动荡吐纳的交点和精神聚积的处所</t>
+  </si>
+  <si>
+    <t>building_415</t>
+  </si>
+  <si>
+    <t>牌坊</t>
+  </si>
+  <si>
+    <t>牌坊昭示家族先人的高尚美德和丰功伟绩，兼有祭祖的功能</t>
+  </si>
+  <si>
+    <t>building_416</t>
+  </si>
+  <si>
+    <t>安乐坊</t>
+  </si>
+  <si>
+    <t>医院</t>
+  </si>
+  <si>
+    <t>收容病人，进行医疗救助</t>
+  </si>
+  <si>
+    <t>building_417</t>
+  </si>
+  <si>
+    <t>书院</t>
+  </si>
+  <si>
+    <t>宋代书院是中国古代的相对独立于官学之外的教育机构</t>
+  </si>
+  <si>
+    <t>building_418</t>
+  </si>
+  <si>
+    <t>小摊</t>
+  </si>
+  <si>
+    <t>把不用的物品换成钱</t>
+  </si>
+  <si>
+    <t>宋代“地摊经济”空前繁盛，可作为城市文化的标志性特点</t>
+  </si>
+  <si>
+    <t>building_419</t>
+  </si>
+  <si>
+    <t>酒楼</t>
+  </si>
+  <si>
+    <t>提供餐食和美酒</t>
+  </si>
+  <si>
+    <t>building_420</t>
+  </si>
+  <si>
+    <t>铁匠铺</t>
+  </si>
+  <si>
+    <t>生产各类铁器,满足老百姓的需求</t>
+  </si>
+  <si>
+    <t>building_421</t>
+  </si>
+  <si>
+    <t>三潭印月</t>
+  </si>
+  <si>
+    <t>11,1,</t>
+  </si>
+  <si>
+    <t>4000,2000,</t>
+  </si>
+  <si>
+    <t>三潭印月是西湖中最大的岛屿，风景秀丽、景色清幽</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ProduceType</t>
+  </si>
+  <si>
+    <t>ProduceID</t>
+  </si>
+  <si>
+    <t>ProduceAmount</t>
+  </si>
+  <si>
+    <t>ConsumeID</t>
+  </si>
+  <si>
+    <t>ConsumeAmount</t>
+  </si>
+  <si>
+    <t>3,6,8,</t>
+  </si>
+  <si>
+    <t>11,23,42,</t>
+  </si>
+  <si>
+    <t>12,24,40,</t>
+  </si>
+  <si>
+    <t>18,32,50,</t>
+  </si>
+  <si>
+    <t>9,18,24,</t>
+  </si>
+  <si>
+    <t>5,11,14,</t>
+  </si>
+  <si>
+    <t>4,9,12,</t>
+  </si>
+  <si>
+    <t>5,10,13,</t>
+  </si>
+  <si>
+    <t>中型房屋1</t>
+  </si>
+  <si>
+    <t>4,</t>
+  </si>
+  <si>
+    <t>8,</t>
+  </si>
+  <si>
+    <t>11,</t>
+  </si>
+  <si>
+    <t>小型房屋</t>
+  </si>
+  <si>
+    <t>2,</t>
+  </si>
+  <si>
+    <t>7,</t>
   </si>
   <si>
     <t>大型房屋</t>
   </si>
   <si>
-    <t>240,</t>
-  </si>
-  <si>
-    <t>building_205</t>
-  </si>
-  <si>
-    <t>瓦房</t>
-  </si>
-  <si>
-    <t>30,</t>
-  </si>
-  <si>
-    <t>building_302</t>
-  </si>
-  <si>
-    <t>采石场</t>
-  </si>
-  <si>
-    <t>200,</t>
-  </si>
-  <si>
-    <t>生产石材</t>
-  </si>
-  <si>
-    <t>building_303</t>
-  </si>
-  <si>
-    <t>林场</t>
-  </si>
-  <si>
-    <t>可以生产木头</t>
-  </si>
-  <si>
-    <t>50,</t>
-  </si>
-  <si>
-    <t>生产木材</t>
-  </si>
-  <si>
-    <t>building_304</t>
-  </si>
-  <si>
-    <t>砖厂</t>
-  </si>
-  <si>
-    <t>300,</t>
-  </si>
-  <si>
-    <t>生产砖块</t>
-  </si>
-  <si>
-    <t>building_305</t>
-  </si>
-  <si>
-    <t>商铺</t>
-  </si>
-  <si>
-    <t>购买物品</t>
-  </si>
-  <si>
-    <t>生活用品，奇珍异宝，应有尽有</t>
-  </si>
-  <si>
-    <t>building_404</t>
-  </si>
-  <si>
-    <t>篱笆</t>
-  </si>
-  <si>
-    <t>10,</t>
-  </si>
-  <si>
-    <t>篱笆可以保护房屋家室</t>
-  </si>
-  <si>
-    <t>building_405</t>
-  </si>
-  <si>
-    <t>相国井</t>
-  </si>
-  <si>
-    <t>0,1,</t>
-  </si>
-  <si>
-    <t>600,500,</t>
-  </si>
-  <si>
-    <t>苏轼疏浚六井，使得西湖甘水，殆遍一城</t>
-  </si>
-  <si>
-    <t>building_406</t>
-  </si>
-  <si>
-    <t>方井</t>
-  </si>
-  <si>
-    <t>1000,400,</t>
-  </si>
-  <si>
-    <t>building_407</t>
-  </si>
-  <si>
-    <t>金牛井</t>
-  </si>
-  <si>
-    <t>500,900,</t>
-  </si>
-  <si>
-    <t>building_408</t>
-  </si>
-  <si>
-    <t>琼树</t>
-  </si>
-  <si>
-    <t>树木可用来装点城市，清洁空气</t>
-  </si>
-  <si>
-    <t>building_409</t>
-  </si>
-  <si>
-    <t>树枝</t>
-  </si>
-  <si>
-    <t>building_410</t>
-  </si>
-  <si>
-    <t>枯枝</t>
-  </si>
-  <si>
-    <t>building_411</t>
-  </si>
-  <si>
-    <t>松柏</t>
-  </si>
-  <si>
-    <t>building_412</t>
-  </si>
-  <si>
-    <t>珠树</t>
-  </si>
-  <si>
-    <t>building_413</t>
-  </si>
-  <si>
-    <t>凤林</t>
-  </si>
-  <si>
-    <t>building_414</t>
-  </si>
-  <si>
-    <t>亭榭</t>
-  </si>
-  <si>
-    <t>亭子</t>
-  </si>
-  <si>
-    <t>1,</t>
-  </si>
-  <si>
-    <t>宋代亭榭是山川灵气动荡吐纳的交点和精神聚积的处所</t>
-  </si>
-  <si>
-    <t>building_415</t>
-  </si>
-  <si>
-    <t>牌坊</t>
-  </si>
-  <si>
-    <t>牌坊昭示家族先人的高尚美德和丰功伟绩，兼有祭祖的功能</t>
-  </si>
-  <si>
-    <t>building_416</t>
-  </si>
-  <si>
-    <t>安乐坊</t>
-  </si>
-  <si>
-    <t>医院</t>
-  </si>
-  <si>
-    <t>收容病人，进行医疗救助</t>
-  </si>
-  <si>
-    <t>building_417</t>
-  </si>
-  <si>
-    <t>书院</t>
-  </si>
-  <si>
-    <t>宋代书院是中国古代的相对独立于官学之外的教育机构</t>
-  </si>
-  <si>
-    <t>building_418</t>
-  </si>
-  <si>
-    <t>小摊</t>
-  </si>
-  <si>
-    <t>把不用的物品换成钱</t>
-  </si>
-  <si>
-    <t>宋代“地摊经济”空前繁盛，可作为城市文化的标志性特点</t>
-  </si>
-  <si>
-    <t>building_419</t>
-  </si>
-  <si>
-    <t>酒楼</t>
-  </si>
-  <si>
-    <t>提供餐食和美酒</t>
-  </si>
-  <si>
-    <t>building_420</t>
-  </si>
-  <si>
-    <t>铁匠铺</t>
-  </si>
-  <si>
-    <t>生产各类铁器,满足老百姓的需求</t>
-  </si>
-  <si>
-    <t>building_421</t>
-  </si>
-  <si>
-    <t>三潭印月</t>
-  </si>
-  <si>
-    <t>11,1,</t>
-  </si>
-  <si>
-    <t>4000,2000,</t>
-  </si>
-  <si>
-    <t>三潭印月是西湖中最大的岛屿，风景秀丽、景色清幽</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>ProduceType</t>
-  </si>
-  <si>
-    <t>ProduceID</t>
-  </si>
-  <si>
-    <t>ProduceAmount</t>
-  </si>
-  <si>
-    <t>ConsumeID</t>
-  </si>
-  <si>
-    <t>ConsumeAmount</t>
-  </si>
-  <si>
-    <t>3,6,8,</t>
-  </si>
-  <si>
-    <t>11,23,42,</t>
-  </si>
-  <si>
-    <t>9,18,24,</t>
-  </si>
-  <si>
-    <t>18,32,50,</t>
-  </si>
-  <si>
-    <t>12,24,40,</t>
-  </si>
-  <si>
-    <t>5,11,14,</t>
-  </si>
-  <si>
-    <t>4,9,12,</t>
-  </si>
-  <si>
-    <t>5,10,13,</t>
-  </si>
-  <si>
-    <t>中型房屋1</t>
-  </si>
-  <si>
-    <t>4,</t>
-  </si>
-  <si>
-    <t>8,</t>
-  </si>
-  <si>
-    <t>11,</t>
-  </si>
-  <si>
-    <t>小型房屋</t>
-  </si>
-  <si>
-    <t>2,</t>
-  </si>
-  <si>
-    <t>7,</t>
-  </si>
-  <si>
     <t>15,</t>
   </si>
   <si>
@@ -854,9 +863,6 @@
   </si>
   <si>
     <t>150,</t>
-  </si>
-  <si>
-    <t>400,</t>
   </si>
   <si>
     <t>2000,</t>
@@ -2036,8 +2042,8 @@
   <sheetPr/>
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2521,13 +2527,13 @@
         <v>3</v>
       </c>
       <c r="N9">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q9">
         <v>-1</v>
@@ -2538,16 +2544,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -2574,7 +2580,7 @@
         <v>3</v>
       </c>
       <c r="N10">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O10">
         <v>3</v>
@@ -2600,13 +2606,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -2627,7 +2633,7 @@
         <v>3</v>
       </c>
       <c r="N11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="O11">
         <v>2</v>
@@ -2644,22 +2650,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H12">
         <v>6</v>
@@ -2686,7 +2692,7 @@
         <v>-9</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q12">
         <v>-1</v>
@@ -2697,22 +2703,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H13">
         <v>6</v>
@@ -2739,7 +2745,7 @@
         <v>-6</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q13">
         <v>-1</v>
@@ -2750,22 +2756,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
         <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H14">
         <v>8</v>
@@ -2792,7 +2798,7 @@
         <v>-12</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q14">
         <v>-1</v>
@@ -2803,22 +2809,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H15">
         <v>6</v>
@@ -2845,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -2856,22 +2862,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
         <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2898,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q16">
         <v>-1</v>
@@ -2909,22 +2915,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2951,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -2962,22 +2968,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -3004,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -3015,22 +3021,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -3057,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -3068,22 +3074,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
       </c>
       <c r="G20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -3110,7 +3116,7 @@
         <v>6</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q20">
         <v>-1</v>
@@ -3121,22 +3127,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
       </c>
       <c r="G21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -3163,7 +3169,7 @@
         <v>6</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q21">
         <v>-1</v>
@@ -3174,22 +3180,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
       </c>
       <c r="G22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -3216,7 +3222,7 @@
         <v>6</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q22">
         <v>-1</v>
@@ -3227,22 +3233,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F23" t="s">
         <v>25</v>
       </c>
       <c r="G23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -3269,7 +3275,7 @@
         <v>6</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q23">
         <v>-1</v>
@@ -3280,22 +3286,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F24" t="s">
         <v>25</v>
       </c>
       <c r="G24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -3322,7 +3328,7 @@
         <v>6</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q24">
         <v>-1</v>
@@ -3333,22 +3339,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F25" t="s">
         <v>25</v>
       </c>
       <c r="G25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H25">
         <v>4</v>
@@ -3375,7 +3381,7 @@
         <v>6</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q25">
         <v>-1</v>
@@ -3386,22 +3392,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -3428,7 +3434,7 @@
         <v>10</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q26">
         <v>-1</v>
@@ -3439,22 +3445,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" t="s">
         <v>110</v>
-      </c>
-      <c r="C27" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>111</v>
-      </c>
-      <c r="F27" t="s">
-        <v>108</v>
-      </c>
-      <c r="G27" t="s">
-        <v>47</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -3481,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q27">
         <v>-1</v>
@@ -3492,22 +3498,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3534,7 +3540,7 @@
         <v>10</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -3545,22 +3551,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="H29">
         <v>6</v>
@@ -3587,7 +3593,7 @@
         <v>10</v>
       </c>
       <c r="P29" s="10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q29">
         <v>-1</v>
@@ -3598,22 +3604,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3640,7 +3646,7 @@
         <v>10</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q30">
         <v>-1</v>
@@ -3651,22 +3657,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="H31">
         <v>5</v>
@@ -3693,7 +3699,7 @@
         <v>10</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q31">
         <v>-1</v>
@@ -3704,22 +3710,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D32">
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="H32">
         <v>5</v>
@@ -3746,7 +3752,7 @@
         <v>-15</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q32">
         <v>-1</v>
@@ -3757,22 +3763,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H33">
         <v>8</v>
@@ -3799,7 +3805,7 @@
         <v>20</v>
       </c>
       <c r="P33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -3821,8 +3827,8 @@
   <sheetPr/>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -3838,25 +3844,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3922,7 +3928,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F4" s="5">
         <v>-1</v>
@@ -4018,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F8" s="4">
         <v>-2</v>
@@ -4042,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F9" s="5">
         <v>-2</v>
@@ -4066,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F10" s="4">
         <v>-2</v>
@@ -4090,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F11" s="5">
         <v>-2</v>
@@ -4114,7 +4120,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F12" s="4">
         <v>-1</v>
@@ -4138,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F13" s="5">
         <v>-1</v>
@@ -4162,13 +4168,13 @@
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F14" s="4">
         <v>11</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4594,7 +4600,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F32" s="5">
         <v>-1</v>
@@ -4665,10 +4671,10 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4676,16 +4682,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4693,16 +4699,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4710,16 +4716,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4727,16 +4733,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4744,16 +4750,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4761,16 +4767,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4778,16 +4784,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4795,16 +4801,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4812,16 +4818,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4829,13 +4835,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
@@ -4846,16 +4852,16 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4863,16 +4869,16 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4903,19 +4909,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -4929,16 +4935,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4949,16 +4955,16 @@
         <v>3</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4972,13 +4978,13 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4989,16 +4995,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5012,13 +5018,13 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5029,16 +5035,16 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5052,13 +5058,13 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5069,16 +5075,16 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5092,13 +5098,13 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5109,16 +5115,16 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5129,16 +5135,16 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5149,16 +5155,16 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5172,13 +5178,13 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5189,16 +5195,16 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5209,16 +5215,16 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5229,16 +5235,16 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5252,13 +5258,13 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E18" t="s">
         <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5269,16 +5275,16 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
         <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5289,16 +5295,16 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
         <v>168</v>
-      </c>
-      <c r="D20" t="s">
-        <v>169</v>
-      </c>
-      <c r="E20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5309,16 +5315,16 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E21" t="s">
         <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5329,16 +5335,16 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E22" t="s">
         <v>25</v>
       </c>
       <c r="F22" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5349,7 +5355,7 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
         <v>42</v>
@@ -5358,7 +5364,7 @@
         <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -5376,7 +5382,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -5386,7 +5392,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821EF5EC-A38F-4089-AB35-5BEC5B8618C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13740"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -13,18 +19,31 @@
     <sheet name="BuildingUpgrade" sheetId="4" r:id="rId4"/>
     <sheet name="CityEvaluate" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hasee</author>
     <author>XINDONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -37,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -81,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -94,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -110,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -123,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -136,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -149,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1">
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="1">
+    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -193,12 +212,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hasee</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -211,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -224,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -240,7 +259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -253,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -266,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -279,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -297,12 +316,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hasee</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -315,7 +334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -328,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -341,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -359,7 +378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="177">
   <si>
     <t>BuildingID</t>
   </si>
@@ -802,9 +821,6 @@
     <t>18,32,50,</t>
   </si>
   <si>
-    <t>9,18,24,</t>
-  </si>
-  <si>
     <t>5,11,14,</t>
   </si>
   <si>
@@ -814,9 +830,6 @@
     <t>5,10,13,</t>
   </si>
   <si>
-    <t>中型房屋1</t>
-  </si>
-  <si>
     <t>4,</t>
   </si>
   <si>
@@ -826,24 +839,15 @@
     <t>11,</t>
   </si>
   <si>
-    <t>小型房屋</t>
-  </si>
-  <si>
     <t>2,</t>
   </si>
   <si>
     <t>7,</t>
   </si>
   <si>
-    <t>大型房屋</t>
-  </si>
-  <si>
     <t>15,</t>
   </si>
   <si>
-    <t>中型房屋2</t>
-  </si>
-  <si>
     <t>13,</t>
   </si>
   <si>
@@ -896,19 +900,25 @@
   </si>
   <si>
     <t>Score</t>
+  </si>
+  <si>
+    <t>5,10,13,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>400,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,14,20,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -928,7 +938,7 @@
       <sz val="12"/>
       <color rgb="FF1D1D1F"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -937,157 +947,27 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1102,198 +982,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799768059327982"/>
-        <bgColor theme="4" tint="0.799768059327982"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79973754081850645"/>
+        <bgColor theme="4" tint="0.79973754081850645"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1303,14 +997,14 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399761955626087"/>
+        <color theme="4" tint="0.39973143711661124"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399761955626087"/>
+        <color theme="4" tint="0.39973143711661124"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399761955626087"/>
+        <color theme="4" tint="0.39973143711661124"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1318,262 +1012,20 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399761955626087"/>
+        <color theme="4" tint="0.39973143711661124"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399761955626087"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.39973143711661124"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1595,9 +1047,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1610,144 +1059,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:Q33" totalsRowShown="0">
-  <autoFilter ref="A1:Q33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:Q33" totalsRowShown="0">
+  <autoFilter ref="A1:Q33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="BuildingID"/>
-    <tableColumn id="7" name="ResourcePath"/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="BuildingType"/>
-    <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="CurrencyType"/>
-    <tableColumn id="6" name="CurrencyCount"/>
-    <tableColumn id="8" name="RowCount"/>
-    <tableColumn id="9" name="ColCount"/>
-    <tableColumn id="15" name="Cd"/>
-    <tableColumn id="10" name="Unlock"/>
-    <tableColumn id="11" name="People"/>
-    <tableColumn id="12" name="Level"/>
-    <tableColumn id="13" name="BaseScore"/>
-    <tableColumn id="14" name="EnvScore"/>
-    <tableColumn id="16" name="Story"/>
-    <tableColumn id="17" name="MaxCount"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="BuildingID"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ResourcePath"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="BuildingType"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CurrencyType"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CurrencyCount"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="RowCount"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ColCount"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Cd"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Unlock"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="People"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Level"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="BaseScore"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="EnvScore"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Story"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="MaxCount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:G33" totalsRowShown="0">
-  <autoFilter ref="A1:G33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:G33" totalsRowShown="0">
+  <autoFilter ref="A1:G33" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="ProduceType"/>
-    <tableColumn id="4" name="ProduceID"/>
-    <tableColumn id="5" name="ProduceAmount"/>
-    <tableColumn id="7" name="ConsumeID"/>
-    <tableColumn id="8" name="ConsumeAmount"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(A2,Building!$A$2:$A$33,Building!$C$2:$C$33)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ProduceType"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ProduceID"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ProduceAmount"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="ConsumeID"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="ConsumeAmount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_4" displayName="表1_4" ref="A1:E13" totalsRowShown="0">
-  <autoFilter ref="A1:E13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表1_4" displayName="表1_4" ref="A1:E13" totalsRowShown="0">
+  <autoFilter ref="A1:E13" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="BuildingID"/>
-    <tableColumn id="3" name="Name"/>
-    <tableColumn id="2" name="Level"/>
-    <tableColumn id="12" name="ConsumeID"/>
-    <tableColumn id="13" name="ProduceAmount"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="BuildingID"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Level"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="ConsumeID"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="ProduceAmount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:F23" totalsRowShown="0">
-  <autoFilter ref="A1:F23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表4" displayName="表4" ref="A1:F23" totalsRowShown="0">
+  <autoFilter ref="A1:F23" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Level"/>
-    <tableColumn id="3" name="ItemID"/>
-    <tableColumn id="4" name="ItemCount"/>
-    <tableColumn id="5" name="CurrencyID"/>
-    <tableColumn id="6" name="CurrencyCount"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Level"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ItemID"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="ItemCount"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="CurrencyID"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="CurrencyCount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A1:B6" totalsRowShown="0">
-  <autoFilter ref="A1:B6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="表5" displayName="表5" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Level"/>
-    <tableColumn id="2" name="Score"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Score"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2034,35 +1450,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="10.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="15.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="21.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="15.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="15.3333333333333" customWidth="1"/>
+    <col min="1" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="9.77777777777778" customWidth="1"/>
-    <col min="10" max="10" width="6.55555555555556" customWidth="1"/>
-    <col min="13" max="13" width="9.77777777777778" customWidth="1"/>
-    <col min="16" max="16" width="65.6666666666667" customWidth="1"/>
-    <col min="17" max="17" width="11.1111111111111" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" customWidth="1"/>
+    <col min="10" max="10" width="6.5546875" customWidth="1"/>
+    <col min="13" max="13" width="9.77734375" customWidth="1"/>
+    <col min="16" max="16" width="65.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2115,14 +1531,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:17">
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2">
@@ -2131,10 +1547,10 @@
       <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2">
@@ -2161,27 +1577,27 @@
       <c r="O2">
         <v>20</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>22</v>
       </c>
       <c r="Q2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:17">
+    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" t="s">
         <v>24</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" t="s">
         <v>24</v>
       </c>
       <c r="F3" t="s">
@@ -2214,14 +1630,14 @@
       <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="9" t="s">
         <v>24</v>
       </c>
       <c r="Q3">
         <v>-1</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:17">
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2267,14 +1683,14 @@
       <c r="O4">
         <v>-2</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="8" t="s">
         <v>30</v>
       </c>
       <c r="Q4">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:17">
+    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2320,14 +1736,14 @@
       <c r="O5">
         <v>3</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="8" t="s">
         <v>35</v>
       </c>
       <c r="Q5">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="1:17">
+    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2373,14 +1789,14 @@
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="9" t="s">
         <v>39</v>
       </c>
       <c r="Q6">
         <v>-1</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="1:17">
+    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2426,14 +1842,14 @@
       <c r="O7">
         <v>7</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="9" t="s">
         <v>43</v>
       </c>
       <c r="Q7">
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2486,7 +1902,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2539,7 +1955,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2592,14 +2008,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" t="s">
         <v>58</v>
       </c>
       <c r="D11">
@@ -2645,7 +2061,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:17">
+    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2691,14 +2107,14 @@
       <c r="O12">
         <v>-9</v>
       </c>
-      <c r="P12" s="9" t="s">
+      <c r="P12" s="8" t="s">
         <v>64</v>
       </c>
       <c r="Q12">
         <v>-1</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="1:17">
+    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2744,14 +2160,14 @@
       <c r="O13">
         <v>-6</v>
       </c>
-      <c r="P13" s="9" t="s">
+      <c r="P13" s="8" t="s">
         <v>69</v>
       </c>
       <c r="Q13">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="1:17">
+    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2797,14 +2213,14 @@
       <c r="O14">
         <v>-12</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="P14" s="8" t="s">
         <v>73</v>
       </c>
       <c r="Q14">
         <v>-1</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="1:17">
+    <row r="15" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2850,14 +2266,14 @@
       <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="P15" s="9" t="s">
         <v>77</v>
       </c>
       <c r="Q15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="1:17">
+    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2903,14 +2319,14 @@
       <c r="O16">
         <v>0</v>
       </c>
-      <c r="P16" s="9" t="s">
+      <c r="P16" s="8" t="s">
         <v>81</v>
       </c>
       <c r="Q16">
         <v>-1</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="1:17">
+    <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2929,7 +2345,7 @@
       <c r="F17" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="7" t="s">
         <v>85</v>
       </c>
       <c r="H17">
@@ -2956,14 +2372,14 @@
       <c r="O17">
         <v>0</v>
       </c>
-      <c r="P17" s="9" t="s">
+      <c r="P17" s="8" t="s">
         <v>86</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="1:17">
+    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3009,14 +2425,14 @@
       <c r="O18">
         <v>0</v>
       </c>
-      <c r="P18" s="9" t="s">
+      <c r="P18" s="8" t="s">
         <v>86</v>
       </c>
       <c r="Q18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="1:17">
+    <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3062,14 +2478,14 @@
       <c r="O19">
         <v>0</v>
       </c>
-      <c r="P19" s="9" t="s">
+      <c r="P19" s="8" t="s">
         <v>86</v>
       </c>
       <c r="Q19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="1:17">
+    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3115,14 +2531,14 @@
       <c r="O20">
         <v>6</v>
       </c>
-      <c r="P20" s="9" t="s">
+      <c r="P20" s="8" t="s">
         <v>95</v>
       </c>
       <c r="Q20">
         <v>-1</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="1:17">
+    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3168,14 +2584,14 @@
       <c r="O21">
         <v>6</v>
       </c>
-      <c r="P21" s="9" t="s">
+      <c r="P21" s="8" t="s">
         <v>95</v>
       </c>
       <c r="Q21">
         <v>-1</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="1:17">
+    <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3221,14 +2637,14 @@
       <c r="O22">
         <v>6</v>
       </c>
-      <c r="P22" s="9" t="s">
+      <c r="P22" s="8" t="s">
         <v>95</v>
       </c>
       <c r="Q22">
         <v>-1</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="1:17">
+    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3274,14 +2690,14 @@
       <c r="O23">
         <v>6</v>
       </c>
-      <c r="P23" s="9" t="s">
+      <c r="P23" s="8" t="s">
         <v>95</v>
       </c>
       <c r="Q23">
         <v>-1</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="1:17">
+    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3327,14 +2743,14 @@
       <c r="O24">
         <v>6</v>
       </c>
-      <c r="P24" s="9" t="s">
+      <c r="P24" s="8" t="s">
         <v>95</v>
       </c>
       <c r="Q24">
         <v>-1</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="1:17">
+    <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3380,14 +2796,14 @@
       <c r="O25">
         <v>6</v>
       </c>
-      <c r="P25" s="9" t="s">
+      <c r="P25" s="8" t="s">
         <v>95</v>
       </c>
       <c r="Q25">
         <v>-1</v>
       </c>
     </row>
-    <row r="26" ht="15" spans="1:17">
+    <row r="26" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3433,14 +2849,14 @@
       <c r="O26">
         <v>10</v>
       </c>
-      <c r="P26" s="9" t="s">
+      <c r="P26" s="8" t="s">
         <v>111</v>
       </c>
       <c r="Q26">
         <v>-1</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="1:17">
+    <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3486,14 +2902,14 @@
       <c r="O27">
         <v>10</v>
       </c>
-      <c r="P27" s="9" t="s">
+      <c r="P27" s="8" t="s">
         <v>114</v>
       </c>
       <c r="Q27">
         <v>-1</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="1:17">
+    <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3539,14 +2955,14 @@
       <c r="O28">
         <v>10</v>
       </c>
-      <c r="P28" s="9" t="s">
+      <c r="P28" s="8" t="s">
         <v>118</v>
       </c>
       <c r="Q28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" ht="15.6" spans="1:17">
+    <row r="29" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3592,14 +3008,14 @@
       <c r="O29">
         <v>10</v>
       </c>
-      <c r="P29" s="10" t="s">
+      <c r="P29" s="9" t="s">
         <v>121</v>
       </c>
       <c r="Q29">
         <v>-1</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="1:17">
+    <row r="30" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3645,14 +3061,14 @@
       <c r="O30">
         <v>10</v>
       </c>
-      <c r="P30" s="9" t="s">
+      <c r="P30" s="8" t="s">
         <v>125</v>
       </c>
       <c r="Q30">
         <v>-1</v>
       </c>
     </row>
-    <row r="31" ht="15" spans="1:17">
+    <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3698,14 +3114,14 @@
       <c r="O31">
         <v>10</v>
       </c>
-      <c r="P31" s="9" t="s">
+      <c r="P31" s="8" t="s">
         <v>128</v>
       </c>
       <c r="Q31">
         <v>-1</v>
       </c>
     </row>
-    <row r="32" ht="15" spans="1:17">
+    <row r="32" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3751,21 +3167,21 @@
       <c r="O32">
         <v>-15</v>
       </c>
-      <c r="P32" s="9" t="s">
+      <c r="P32" s="8" t="s">
         <v>131</v>
       </c>
       <c r="Q32">
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>132</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" t="s">
         <v>133</v>
       </c>
       <c r="D33">
@@ -3774,10 +3190,10 @@
       <c r="E33" t="s">
         <v>133</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" t="s">
         <v>134</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" t="s">
         <v>135</v>
       </c>
       <c r="H33">
@@ -3812,37 +3228,36 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88888888888889" customWidth="1"/>
-    <col min="2" max="2" width="10.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="14.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="16.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="11.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="18.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>137</v>
       </c>
@@ -3865,7 +3280,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -3889,7 +3304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -3913,7 +3328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3927,8 +3342,8 @@
       <c r="D4" s="4">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>143</v>
+      <c r="E4" s="11" t="s">
+        <v>174</v>
       </c>
       <c r="F4" s="5">
         <v>-1</v>
@@ -3937,7 +3352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -3961,7 +3376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3985,7 +3400,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -4009,7 +3424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -4033,7 +3448,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -4057,7 +3472,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -4081,7 +3496,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -4095,8 +3510,8 @@
       <c r="D11" s="5">
         <v>0</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>147</v>
+      <c r="E11" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="F11" s="5">
         <v>-2</v>
@@ -4105,7 +3520,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -4120,7 +3535,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F12" s="4">
         <v>-1</v>
@@ -4129,7 +3544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -4144,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F13" s="5">
         <v>-1</v>
@@ -4153,7 +3568,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -4177,7 +3592,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -4201,7 +3616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -4225,7 +3640,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -4249,7 +3664,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -4273,7 +3688,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -4297,7 +3712,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4321,7 +3736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4345,7 +3760,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4369,7 +3784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4393,7 +3808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4417,7 +3832,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4441,7 +3856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4465,7 +3880,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4489,7 +3904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4513,7 +3928,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4537,7 +3952,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4561,7 +3976,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4585,7 +4000,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4600,7 +4015,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F32" s="5">
         <v>-1</v>
@@ -4609,7 +4024,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4634,33 +4049,32 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1111111111111" customWidth="1"/>
-    <col min="2" max="3" width="10.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="13.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="16.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4677,12 +4091,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4691,15 +4105,15 @@
         <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -4708,15 +4122,15 @@
         <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -4725,15 +4139,15 @@
         <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4742,15 +4156,15 @@
         <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -4759,15 +4173,15 @@
         <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -4776,15 +4190,15 @@
         <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -4793,15 +4207,15 @@
         <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -4813,12 +4227,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -4827,15 +4241,15 @@
         <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -4847,12 +4261,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -4861,15 +4275,15 @@
         <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -4878,36 +4292,35 @@
         <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="11.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="15.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>137</v>
       </c>
@@ -4915,30 +4328,30 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>165</v>
+      <c r="C2" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -4947,27 +4360,27 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>165</v>
+      <c r="C3" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
@@ -4987,7 +4400,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -5004,10 +4417,10 @@
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
@@ -5027,7 +4440,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -5044,10 +4457,10 @@
         <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -5067,7 +4480,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5084,10 +4497,10 @@
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5103,11 +4516,11 @@
       <c r="E10" t="s">
         <v>25</v>
       </c>
-      <c r="F10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5124,10 +4537,10 @@
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5138,7 +4551,7 @@
         <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
@@ -5147,7 +4560,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -5164,10 +4577,10 @@
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -5187,7 +4600,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -5204,10 +4617,10 @@
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -5218,7 +4631,7 @@
         <v>109</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
@@ -5227,7 +4640,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -5244,10 +4657,10 @@
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
@@ -5258,16 +4671,16 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E18" t="s">
         <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
@@ -5284,10 +4697,10 @@
         <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -5295,19 +4708,19 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E20" t="s">
         <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -5315,19 +4728,19 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D21" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E21" t="s">
         <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -5338,16 +4751,16 @@
         <v>134</v>
       </c>
       <c r="D22" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E22" t="s">
         <v>25</v>
       </c>
       <c r="F22" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -5364,12 +4777,12 @@
         <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -5377,25 +4790,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5403,7 +4815,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5411,7 +4823,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5419,7 +4831,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5427,7 +4839,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5436,8 +4848,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821EF5EC-A38F-4089-AB35-5BEC5B8618C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC79C4B4-D260-4F7F-9160-16A4A5FE3E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="948" yWindow="3828" windowWidth="23040" windowHeight="12120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -1458,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3242,7 +3242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -4793,8 +4793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4812,7 +4812,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC79C4B4-D260-4F7F-9160-16A4A5FE3E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD27879-9243-4A5C-9B0C-AB6956D59DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="948" yWindow="3828" windowWidth="23040" windowHeight="12120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -378,7 +378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="180">
   <si>
     <t>BuildingID</t>
   </si>
@@ -539,9 +539,6 @@
     <t>125,</t>
   </si>
   <si>
-    <t>宋代农村百姓的比较朴实,多为低矮的屋和瓦房,构成一组住宅</t>
-  </si>
-  <si>
     <t>building_204</t>
   </si>
   <si>
@@ -764,9 +761,6 @@
     <t>酒楼</t>
   </si>
   <si>
-    <t>提供餐食和美酒</t>
-  </si>
-  <si>
     <t>building_420</t>
   </si>
   <si>
@@ -903,22 +897,42 @@
   </si>
   <si>
     <t>5,10,13,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>400,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>8,14,20,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>500,100,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供餐食、美酒，也可以完成每日任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋代农村百姓的房屋比较朴实,多为低矮的屋和瓦房</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>望火楼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -933,18 +947,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF1D1D1F"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF1D1D1F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1025,7 +1027,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1050,29 +1052,42 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF1D1D1F"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1104,7 +1119,7 @@
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Level"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="BaseScore"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="EnvScore"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Story"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Story" dataDxfId="0"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="MaxCount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1458,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1531,7 +1546,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1577,14 +1592,14 @@
       <c r="O2">
         <v>20</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" t="s">
         <v>22</v>
       </c>
       <c r="Q2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1630,14 +1645,14 @@
       <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" t="s">
         <v>24</v>
       </c>
       <c r="Q3">
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1683,14 +1698,14 @@
       <c r="O4">
         <v>-2</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" t="s">
         <v>30</v>
       </c>
       <c r="Q4">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1736,14 +1751,14 @@
       <c r="O5">
         <v>3</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" t="s">
         <v>35</v>
       </c>
       <c r="Q5">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1789,14 +1804,14 @@
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" t="s">
         <v>39</v>
       </c>
       <c r="Q6">
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1842,7 +1857,7 @@
       <c r="O7">
         <v>7</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" t="s">
         <v>43</v>
       </c>
       <c r="Q7">
@@ -1884,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M8">
         <v>3</v>
@@ -1895,8 +1910,8 @@
       <c r="O8">
         <v>2</v>
       </c>
-      <c r="P8" t="s">
-        <v>48</v>
+      <c r="P8" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="Q8">
         <v>-1</v>
@@ -1909,8 +1924,8 @@
       <c r="B9" t="s">
         <v>49</v>
       </c>
-      <c r="C9" t="s">
-        <v>50</v>
+      <c r="C9" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1948,8 +1963,8 @@
       <c r="O9">
         <v>0</v>
       </c>
-      <c r="P9" t="s">
-        <v>53</v>
+      <c r="P9" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="Q9">
         <v>-1</v>
@@ -1960,10 +1975,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
         <v>54</v>
-      </c>
-      <c r="C10" t="s">
-        <v>55</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1975,7 +1990,7 @@
         <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -1990,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M10">
         <v>3</v>
@@ -2013,22 +2028,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
         <v>57</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
         <v>58</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
         <v>59</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>60</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -2043,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M11">
         <v>3</v>
@@ -2061,27 +2076,27 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
         <v>61</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
         <v>62</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>63</v>
       </c>
       <c r="H12">
         <v>6</v>
@@ -2107,34 +2122,34 @@
       <c r="O12">
         <v>-9</v>
       </c>
-      <c r="P12" s="8" t="s">
-        <v>64</v>
+      <c r="P12" t="s">
+        <v>63</v>
       </c>
       <c r="Q12">
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
         <v>65</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
         <v>66</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
         <v>67</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s">
-        <v>68</v>
       </c>
       <c r="H13">
         <v>6</v>
@@ -2160,34 +2175,34 @@
       <c r="O13">
         <v>-6</v>
       </c>
-      <c r="P13" s="8" t="s">
-        <v>69</v>
+      <c r="P13" t="s">
+        <v>68</v>
       </c>
       <c r="Q13">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
         <v>70</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
         <v>71</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>72</v>
       </c>
       <c r="H14">
         <v>8</v>
@@ -2213,34 +2228,34 @@
       <c r="O14">
         <v>-12</v>
       </c>
-      <c r="P14" s="8" t="s">
-        <v>73</v>
+      <c r="P14" t="s">
+        <v>72</v>
       </c>
       <c r="Q14">
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
         <v>74</v>
-      </c>
-      <c r="C15" t="s">
-        <v>75</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H15">
         <v>6</v>
@@ -2266,141 +2281,141 @@
       <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15" s="9" t="s">
-        <v>77</v>
+      <c r="P15" t="s">
+        <v>76</v>
       </c>
       <c r="Q15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
         <v>78</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
         <v>79</v>
       </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
         <v>80</v>
       </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>-1</v>
-      </c>
-      <c r="K16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>81</v>
-      </c>
       <c r="Q16">
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s">
         <v>82</v>
-      </c>
-      <c r="C17" t="s">
-        <v>83</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" t="s">
         <v>83</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>-1</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>50</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
         <v>85</v>
       </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="J17">
-        <v>-1</v>
-      </c>
-      <c r="K17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <v>30</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="Q17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
         <v>87</v>
-      </c>
-      <c r="C18" t="s">
-        <v>88</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s">
         <v>88</v>
       </c>
-      <c r="F18" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" t="s">
-        <v>89</v>
-      </c>
       <c r="H18">
         <v>2</v>
       </c>
@@ -2420,40 +2435,40 @@
         <v>1</v>
       </c>
       <c r="N18">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-      <c r="P18" s="8" t="s">
-        <v>86</v>
+      <c r="P18" t="s">
+        <v>85</v>
       </c>
       <c r="Q18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" t="s">
         <v>90</v>
-      </c>
-      <c r="C19" t="s">
-        <v>91</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" t="s">
         <v>91</v>
       </c>
-      <c r="F19" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" t="s">
-        <v>92</v>
-      </c>
       <c r="H19">
         <v>2</v>
       </c>
@@ -2473,39 +2488,39 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-      <c r="P19" s="8" t="s">
-        <v>86</v>
+      <c r="P19" t="s">
+        <v>85</v>
       </c>
       <c r="Q19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" t="s">
         <v>93</v>
       </c>
-      <c r="C20" t="s">
-        <v>94</v>
-      </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2531,34 +2546,34 @@
       <c r="O20">
         <v>6</v>
       </c>
-      <c r="P20" s="8" t="s">
-        <v>95</v>
+      <c r="P20" t="s">
+        <v>94</v>
       </c>
       <c r="Q20">
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" t="s">
         <v>96</v>
       </c>
-      <c r="C21" t="s">
-        <v>97</v>
-      </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
       </c>
       <c r="G21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2584,34 +2599,34 @@
       <c r="O21">
         <v>6</v>
       </c>
-      <c r="P21" s="8" t="s">
-        <v>95</v>
+      <c r="P21" t="s">
+        <v>94</v>
       </c>
       <c r="Q21">
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" t="s">
         <v>98</v>
       </c>
-      <c r="C22" t="s">
-        <v>99</v>
-      </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
       </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2637,34 +2652,34 @@
       <c r="O22">
         <v>6</v>
       </c>
-      <c r="P22" s="8" t="s">
-        <v>95</v>
+      <c r="P22" t="s">
+        <v>94</v>
       </c>
       <c r="Q22">
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" t="s">
         <v>100</v>
       </c>
-      <c r="C23" t="s">
-        <v>101</v>
-      </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F23" t="s">
         <v>25</v>
       </c>
       <c r="G23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2690,34 +2705,34 @@
       <c r="O23">
         <v>6</v>
       </c>
-      <c r="P23" s="8" t="s">
-        <v>95</v>
+      <c r="P23" t="s">
+        <v>94</v>
       </c>
       <c r="Q23">
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
         <v>102</v>
       </c>
-      <c r="C24" t="s">
-        <v>103</v>
-      </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F24" t="s">
         <v>25</v>
       </c>
       <c r="G24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2743,34 +2758,34 @@
       <c r="O24">
         <v>6</v>
       </c>
-      <c r="P24" s="8" t="s">
-        <v>95</v>
+      <c r="P24" t="s">
+        <v>94</v>
       </c>
       <c r="Q24">
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
         <v>104</v>
       </c>
-      <c r="C25" t="s">
-        <v>105</v>
-      </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F25" t="s">
         <v>25</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H25">
         <v>4</v>
@@ -2796,34 +2811,34 @@
       <c r="O25">
         <v>6</v>
       </c>
-      <c r="P25" s="8" t="s">
-        <v>95</v>
+      <c r="P25" t="s">
+        <v>94</v>
       </c>
       <c r="Q25">
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" t="s">
         <v>106</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
         <v>107</v>
       </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>108</v>
-      </c>
-      <c r="F26" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26" t="s">
-        <v>110</v>
+      <c r="F26" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2849,34 +2864,34 @@
       <c r="O26">
         <v>10</v>
       </c>
-      <c r="P26" s="8" t="s">
+      <c r="P26" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
         <v>111</v>
       </c>
-      <c r="Q26">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>112</v>
       </c>
-      <c r="C27" t="s">
-        <v>113</v>
-      </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F27" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" t="s">
         <v>109</v>
-      </c>
-      <c r="G27" t="s">
-        <v>110</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2902,34 +2917,34 @@
       <c r="O27">
         <v>10</v>
       </c>
-      <c r="P27" s="8" t="s">
-        <v>114</v>
+      <c r="P27" t="s">
+        <v>113</v>
       </c>
       <c r="Q27">
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" t="s">
         <v>115</v>
-      </c>
-      <c r="C28" t="s">
-        <v>116</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F28" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" t="s">
         <v>109</v>
-      </c>
-      <c r="G28" t="s">
-        <v>110</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -2955,34 +2970,34 @@
       <c r="O28">
         <v>10</v>
       </c>
-      <c r="P28" s="8" t="s">
-        <v>118</v>
+      <c r="P28" t="s">
+        <v>117</v>
       </c>
       <c r="Q28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" t="s">
         <v>119</v>
-      </c>
-      <c r="C29" t="s">
-        <v>120</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F29" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" t="s">
         <v>109</v>
-      </c>
-      <c r="G29" t="s">
-        <v>110</v>
       </c>
       <c r="H29">
         <v>6</v>
@@ -3008,34 +3023,34 @@
       <c r="O29">
         <v>10</v>
       </c>
-      <c r="P29" s="9" t="s">
-        <v>121</v>
+      <c r="P29" t="s">
+        <v>120</v>
       </c>
       <c r="Q29">
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" t="s">
         <v>122</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
         <v>123</v>
       </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>124</v>
-      </c>
       <c r="F30" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" t="s">
         <v>109</v>
-      </c>
-      <c r="G30" t="s">
-        <v>110</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3061,34 +3076,34 @@
       <c r="O30">
         <v>10</v>
       </c>
-      <c r="P30" s="8" t="s">
-        <v>125</v>
+      <c r="P30" t="s">
+        <v>124</v>
       </c>
       <c r="Q30">
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" t="s">
         <v>126</v>
-      </c>
-      <c r="C31" t="s">
-        <v>127</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F31" t="s">
+        <v>108</v>
+      </c>
+      <c r="G31" t="s">
         <v>109</v>
-      </c>
-      <c r="G31" t="s">
-        <v>110</v>
       </c>
       <c r="H31">
         <v>5</v>
@@ -3114,34 +3129,34 @@
       <c r="O31">
         <v>10</v>
       </c>
-      <c r="P31" s="8" t="s">
-        <v>128</v>
+      <c r="P31" t="s">
+        <v>177</v>
       </c>
       <c r="Q31">
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D32">
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F32" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32" t="s">
         <v>109</v>
-      </c>
-      <c r="G32" t="s">
-        <v>110</v>
       </c>
       <c r="H32">
         <v>5</v>
@@ -3167,8 +3182,8 @@
       <c r="O32">
         <v>-15</v>
       </c>
-      <c r="P32" s="8" t="s">
-        <v>131</v>
+      <c r="P32" t="s">
+        <v>129</v>
       </c>
       <c r="Q32">
         <v>-1</v>
@@ -3179,22 +3194,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
       <c r="E33" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" t="s">
+        <v>132</v>
+      </c>
+      <c r="G33" t="s">
         <v>133</v>
-      </c>
-      <c r="F33" t="s">
-        <v>134</v>
-      </c>
-      <c r="G33" t="s">
-        <v>135</v>
       </c>
       <c r="H33">
         <v>8</v>
@@ -3221,14 +3236,14 @@
         <v>20</v>
       </c>
       <c r="P33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q33">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -3259,25 +3274,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3342,8 +3357,8 @@
       <c r="D4" s="4">
         <v>10</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>174</v>
+      <c r="E4" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="F4" s="5">
         <v>-1</v>
@@ -3439,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F8" s="4">
         <v>-2</v>
@@ -3463,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F9" s="5">
         <v>-2</v>
@@ -3487,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F10" s="4">
         <v>-2</v>
@@ -3510,8 +3525,8 @@
       <c r="D11" s="5">
         <v>0</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>176</v>
+      <c r="E11" s="11" t="s">
+        <v>174</v>
       </c>
       <c r="F11" s="5">
         <v>-2</v>
@@ -3535,7 +3550,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F12" s="4">
         <v>-1</v>
@@ -3559,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F13" s="5">
         <v>-1</v>
@@ -3583,13 +3598,13 @@
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F14" s="4">
         <v>11</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -4015,7 +4030,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F32" s="5">
         <v>-1</v>
@@ -4049,7 +4064,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
@@ -4085,10 +4100,10 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4102,10 +4117,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4119,10 +4134,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4136,10 +4151,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4153,10 +4168,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4170,10 +4185,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4187,10 +4202,10 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4198,16 +4213,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4215,16 +4230,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4232,16 +4247,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4249,13 +4264,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
@@ -4266,16 +4281,16 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4283,20 +4298,20 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
@@ -4322,19 +4337,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
       <c r="C1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" t="s">
         <v>157</v>
-      </c>
-      <c r="D1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" t="s">
-        <v>159</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -4347,17 +4362,17 @@
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>160</v>
+      <c r="C2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4367,17 +4382,17 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>160</v>
+      <c r="C3" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4391,13 +4406,13 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4408,16 +4423,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4431,13 +4446,13 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4448,16 +4463,16 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4471,13 +4486,13 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4488,16 +4503,16 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4511,13 +4526,13 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>175</v>
+      <c r="F10" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4528,16 +4543,16 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4548,16 +4563,16 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4568,7 +4583,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
         <v>47</v>
@@ -4577,7 +4592,7 @@
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4591,13 +4606,13 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4608,16 +4623,16 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4628,16 +4643,16 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4648,7 +4663,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
         <v>47</v>
@@ -4657,7 +4672,7 @@
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4671,13 +4686,13 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E18" t="s">
         <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4688,7 +4703,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
         <v>47</v>
@@ -4697,7 +4712,7 @@
         <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4708,16 +4723,16 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E20" t="s">
         <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4728,16 +4743,16 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
         <v>167</v>
-      </c>
-      <c r="D21" t="s">
-        <v>168</v>
-      </c>
-      <c r="E21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4748,16 +4763,16 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E22" t="s">
         <v>25</v>
       </c>
       <c r="F22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -4768,7 +4783,7 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
         <v>42</v>
@@ -4777,11 +4792,11 @@
         <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -4794,7 +4809,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4804,7 +4819,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4820,7 +4835,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>200</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4828,7 +4843,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4848,7 +4863,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD27879-9243-4A5C-9B0C-AB6956D59DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0A82C2-4BF5-4488-85D9-0F1867E5C6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -50,6 +50,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>唯一id，从0开始</t>
@@ -63,6 +64,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>资源路径</t>
@@ -76,6 +78,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>建筑名称</t>
@@ -89,6 +92,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>建筑类型：
@@ -107,6 +111,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>详细信息</t>
@@ -120,6 +125,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>材料类型（数组）:
@@ -136,6 +142,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>材料点数（数组）</t>
@@ -149,6 +156,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>列数(x方向)</t>
@@ -162,6 +170,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>行数(z方向)</t>
@@ -175,6 +184,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>cd时间</t>
@@ -188,6 +198,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>默认解锁</t>
@@ -201,6 +212,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>最大等级</t>
@@ -224,6 +236,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>唯一id，从0开始</t>
@@ -237,6 +250,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>建筑名称</t>
@@ -250,6 +264,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>产出类型：
@@ -266,6 +281,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>产出物品id</t>
@@ -279,6 +295,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>产出物品量</t>
@@ -292,6 +309,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>消耗物品id</t>
@@ -305,6 +323,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>消耗物品量</t>
@@ -328,6 +347,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>唯一id，从0开始</t>
@@ -341,6 +361,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>建筑名称</t>
@@ -354,6 +375,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>产出物品id</t>
@@ -367,6 +389,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>产出物品量</t>
@@ -378,7 +401,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="181">
   <si>
     <t>BuildingID</t>
   </si>
@@ -925,6 +948,10 @@
   </si>
   <si>
     <t>望火楼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏轼疏浚六井，使得西湖甘水，殆遍一城</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -945,6 +972,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -952,11 +980,13 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1474,7 +1504,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2440,8 +2470,8 @@
       <c r="O18">
         <v>0</v>
       </c>
-      <c r="P18" t="s">
-        <v>85</v>
+      <c r="P18" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -4324,8 +4354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4808,7 +4838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0A82C2-4BF5-4488-85D9-0F1867E5C6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9491F7-8DB8-4B5C-8D06-BB85E9A69E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2196" yWindow="2772" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -1503,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2924,10 +2924,10 @@
         <v>109</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I27">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J27">
         <v>-1</v>
@@ -2977,10 +2977,10 @@
         <v>109</v>
       </c>
       <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
         <v>3</v>
-      </c>
-      <c r="I28">
-        <v>4</v>
       </c>
       <c r="J28">
         <v>-1</v>
@@ -3030,10 +3030,10 @@
         <v>109</v>
       </c>
       <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29">
         <v>6</v>
-      </c>
-      <c r="I29">
-        <v>10</v>
       </c>
       <c r="J29">
         <v>-1</v>
@@ -3136,10 +3136,10 @@
         <v>109</v>
       </c>
       <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="I31">
         <v>5</v>
-      </c>
-      <c r="I31">
-        <v>6</v>
       </c>
       <c r="J31">
         <v>-1</v>
@@ -3189,10 +3189,10 @@
         <v>109</v>
       </c>
       <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="I32">
         <v>5</v>
-      </c>
-      <c r="I32">
-        <v>7</v>
       </c>
       <c r="J32">
         <v>8</v>
@@ -4354,7 +4354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9491F7-8DB8-4B5C-8D06-BB85E9A69E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B4DA5F-AA82-4DE0-BBDE-58287EC6EB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2196" yWindow="2772" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12276" yWindow="2988" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="184">
   <si>
     <t>BuildingID</t>
   </si>
@@ -469,9 +469,6 @@
     <t>5000,3000,</t>
   </si>
   <si>
-    <t>在风景秀美之地，宝塔具有不可替代的引领作用</t>
-  </si>
-  <si>
     <t>building_201</t>
   </si>
   <si>
@@ -553,12 +550,6 @@
     <t>building_203</t>
   </si>
   <si>
-    <t>望火楼</t>
-  </si>
-  <si>
-    <t>中级房屋</t>
-  </si>
-  <si>
     <t>125,</t>
   </si>
   <si>
@@ -721,12 +712,6 @@
     <t>building_414</t>
   </si>
   <si>
-    <t>亭榭</t>
-  </si>
-  <si>
-    <t>亭子</t>
-  </si>
-  <si>
     <t>1,</t>
   </si>
   <si>
@@ -832,9 +817,6 @@
     <t>11,23,42,</t>
   </si>
   <si>
-    <t>12,24,40,</t>
-  </si>
-  <si>
     <t>18,32,50,</t>
   </si>
   <si>
@@ -856,9 +838,6 @@
     <t>11,</t>
   </si>
   <si>
-    <t>2,</t>
-  </si>
-  <si>
     <t>7,</t>
   </si>
   <si>
@@ -890,30 +869,6 @@
   </si>
   <si>
     <t>6000,</t>
-  </si>
-  <si>
-    <t>0,10,</t>
-  </si>
-  <si>
-    <t>200,300,</t>
-  </si>
-  <si>
-    <t>0,11,</t>
-  </si>
-  <si>
-    <t>500,200,</t>
-  </si>
-  <si>
-    <t>4000,</t>
-  </si>
-  <si>
-    <t>600,400,</t>
-  </si>
-  <si>
-    <t>10000,</t>
-  </si>
-  <si>
-    <t>20000,</t>
   </si>
   <si>
     <t>Score</t>
@@ -952,6 +907,78 @@
   </si>
   <si>
     <t>苏轼疏浚六井，使得西湖甘水，殆遍一城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>府宅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宅院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,300,1,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,10,99,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,11,99,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,2,99,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>700,500,1,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500,600,1,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在风景秀美的西湖，六和塔具有不可替代的引领作用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>观测火情，以备不时之需</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>望火楼是中国最早的消防站，驻扎百余名士兵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>亭榭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,1000,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,1,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,800,</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -999,7 +1026,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1016,6 +1043,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79973754081850645"/>
         <bgColor theme="4" tint="0.79973754081850645"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1057,7 +1090,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1092,6 +1125,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1175,8 +1214,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表1_4" displayName="表1_4" ref="A1:E13" totalsRowShown="0">
-  <autoFilter ref="A1:E13" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表1_4" displayName="表1_4" ref="A1:E10" totalsRowShown="0">
+  <autoFilter ref="A1:E10" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="BuildingID"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Name"/>
@@ -1189,8 +1228,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表4" displayName="表4" ref="A1:F23" totalsRowShown="0">
-  <autoFilter ref="A1:F23" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表4" displayName="表4" ref="A1:F22" totalsRowShown="0">
+  <autoFilter ref="A1:F22" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Level"/>
@@ -1204,8 +1243,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="表5" displayName="表5" ref="A1:B6" totalsRowShown="0">
-  <autoFilter ref="A1:B6" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="表5" displayName="表5" ref="A1:B5" totalsRowShown="0">
+  <autoFilter ref="A1:B5" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Level"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Score"/>
@@ -1503,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1512,7 +1551,7 @@
     <col min="1" max="2" width="13.109375" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" customWidth="1"/>
     <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
@@ -1617,13 +1656,13 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O2">
         <v>20</v>
       </c>
-      <c r="P2" t="s">
-        <v>22</v>
+      <c r="P2" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1634,22 +1673,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -1667,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1676,10 +1715,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1687,22 +1726,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
         <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1729,7 +1768,7 @@
         <v>-2</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q4">
         <v>-1</v>
@@ -1740,22 +1779,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
         <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1782,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="P5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q5">
         <v>-1</v>
@@ -1793,49 +1832,49 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
         <v>37</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
         <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>-1</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
-        <v>39</v>
       </c>
       <c r="Q6">
         <v>-1</v>
@@ -1846,22 +1885,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
         <v>41</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -1888,7 +1927,7 @@
         <v>7</v>
       </c>
       <c r="P7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q7">
         <v>-1</v>
@@ -1899,22 +1938,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
         <v>45</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
         <v>46</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>47</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1941,33 +1980,33 @@
         <v>2</v>
       </c>
       <c r="P8" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="Q8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
         <v>49</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>52</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1985,7 +2024,7 @@
         <v>3</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <v>18</v>
@@ -1994,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q9">
         <v>-1</v>
@@ -2005,22 +2044,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>167</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -2047,7 +2086,7 @@
         <v>3</v>
       </c>
       <c r="P10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q10">
         <v>-1</v>
@@ -2058,22 +2097,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
         <v>56</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>59</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -2100,7 +2139,7 @@
         <v>2</v>
       </c>
       <c r="P11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q11">
         <v>-1</v>
@@ -2111,22 +2150,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H12">
         <v>6</v>
@@ -2153,7 +2192,7 @@
         <v>-9</v>
       </c>
       <c r="P12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q12">
         <v>-1</v>
@@ -2164,22 +2203,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
         <v>64</v>
-      </c>
-      <c r="C13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s">
-        <v>67</v>
       </c>
       <c r="H13">
         <v>6</v>
@@ -2206,7 +2245,7 @@
         <v>-6</v>
       </c>
       <c r="P13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q13">
         <v>-1</v>
@@ -2217,22 +2256,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H14">
         <v>8</v>
@@ -2259,7 +2298,7 @@
         <v>-12</v>
       </c>
       <c r="P14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Q14">
         <v>-1</v>
@@ -2270,22 +2309,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H15">
         <v>6</v>
@@ -2312,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -2323,49 +2362,49 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
         <v>77</v>
-      </c>
-      <c r="C16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>-1</v>
-      </c>
-      <c r="K16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="s">
-        <v>80</v>
       </c>
       <c r="Q16">
         <v>-1</v>
@@ -2376,22 +2415,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2418,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -2429,22 +2468,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2471,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -2482,22 +2521,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2524,33 +2563,33 @@
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Q19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="12">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" t="s">
-        <v>93</v>
+      <c r="B20" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2571,13 +2610,13 @@
         <v>1</v>
       </c>
       <c r="N20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Q20">
         <v>-1</v>
@@ -2588,22 +2627,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2624,13 +2663,13 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Q21">
         <v>-1</v>
@@ -2641,128 +2680,128 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>-1</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>21</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23">
+        <v>5</v>
+      </c>
+      <c r="P23" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>22</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>-1</v>
-      </c>
-      <c r="K22" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>5</v>
-      </c>
-      <c r="O22">
-        <v>6</v>
-      </c>
-      <c r="P22" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C24" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
-      <c r="J23">
-        <v>-1</v>
-      </c>
-      <c r="K23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23">
-        <v>5</v>
-      </c>
-      <c r="O23">
-        <v>6</v>
-      </c>
-      <c r="P23" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" t="s">
-        <v>102</v>
-      </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2783,39 +2822,39 @@
         <v>1</v>
       </c>
       <c r="N24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Q24">
         <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="12">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" t="s">
-        <v>104</v>
+      <c r="B25" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H25">
         <v>4</v>
@@ -2839,36 +2878,36 @@
         <v>5</v>
       </c>
       <c r="O25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Q25">
         <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" t="s">
-        <v>106</v>
+      <c r="A26" s="12">
+        <v>24</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>180</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
-      <c r="E26" t="s">
-        <v>107</v>
+      <c r="E26" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2892,10 +2931,10 @@
         <v>20</v>
       </c>
       <c r="O26">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="P26" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="Q26">
         <v>-1</v>
@@ -2906,22 +2945,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F27" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G27" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H27">
         <v>7</v>
@@ -2942,13 +2981,13 @@
         <v>1</v>
       </c>
       <c r="N27">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O27">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P27" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="Q27">
         <v>-1</v>
@@ -2959,22 +2998,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28" t="s">
-        <v>108</v>
-      </c>
-      <c r="G28" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="H28">
         <v>5</v>
@@ -2998,10 +3037,10 @@
         <v>30</v>
       </c>
       <c r="O28">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P28" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -3012,22 +3051,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
-      </c>
-      <c r="F29" t="s">
-        <v>108</v>
-      </c>
-      <c r="G29" t="s">
-        <v>109</v>
+        <v>114</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="H29">
         <v>10</v>
@@ -3048,16 +3087,16 @@
         <v>1</v>
       </c>
       <c r="N29">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O29">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P29" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="Q29">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -3065,22 +3104,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F30" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G30" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3104,10 +3143,10 @@
         <v>15</v>
       </c>
       <c r="O30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P30" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="Q30">
         <v>-1</v>
@@ -3118,22 +3157,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F31" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H31">
         <v>6</v>
@@ -3157,10 +3196,10 @@
         <v>28</v>
       </c>
       <c r="O31">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P31" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="Q31">
         <v>-1</v>
@@ -3171,22 +3210,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F32" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H32">
         <v>6</v>
@@ -3213,7 +3252,7 @@
         <v>-15</v>
       </c>
       <c r="P32" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q32">
         <v>-1</v>
@@ -3224,22 +3263,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F33" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G33" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H33">
         <v>8</v>
@@ -3263,10 +3302,10 @@
         <v>100</v>
       </c>
       <c r="O33">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="P33" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -3288,7 +3327,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3304,25 +3343,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3340,13 +3379,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="5">
         <v>-1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3364,13 +3403,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="5">
         <v>-1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3388,13 +3427,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="F4" s="5">
         <v>-1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3412,13 +3451,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="5">
         <v>-1</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3436,13 +3475,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="5">
         <v>-1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3460,13 +3499,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="5">
         <v>-1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3484,13 +3523,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F8" s="4">
         <v>-2</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3507,14 +3546,14 @@
       <c r="D9" s="5">
         <v>0</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>143</v>
+      <c r="E9" s="11" t="s">
+        <v>177</v>
       </c>
       <c r="F9" s="5">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3532,13 +3571,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F10" s="4">
         <v>-2</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3556,13 +3595,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="F11" s="5">
         <v>-2</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3580,13 +3619,13 @@
         <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F12" s="4">
         <v>-1</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3604,13 +3643,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F13" s="5">
         <v>-1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3628,13 +3667,13 @@
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F14" s="4">
         <v>11</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3652,13 +3691,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="5">
         <v>-1</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3676,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="4">
         <v>-1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3700,13 +3739,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" s="5">
         <v>-1</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3724,13 +3763,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" s="4">
         <v>-1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3748,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" s="5">
         <v>-1</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3772,13 +3811,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20" s="5">
         <v>-1</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3796,13 +3835,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F21" s="5">
         <v>-1</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3820,13 +3859,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22" s="5">
         <v>-1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3844,13 +3883,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F23" s="5">
         <v>-1</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3868,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F24" s="5">
         <v>-1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3892,13 +3931,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F25" s="5">
         <v>-1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3916,13 +3955,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F26" s="4">
         <v>-1</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3940,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F27" s="5">
         <v>-1</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3964,13 +4003,13 @@
         <v>0</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F28" s="4">
         <v>-1</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3988,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F29" s="5">
         <v>-1</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -4012,13 +4051,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F30" s="5">
         <v>-1</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -4036,13 +4075,13 @@
         <v>0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F31" s="5">
         <v>-1</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -4060,13 +4099,13 @@
         <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F32" s="5">
         <v>-1</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -4084,13 +4123,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F33" s="5">
         <v>-1</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -4105,10 +4144,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A5" sqref="A5:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4130,10 +4169,10 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4141,16 +4180,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4158,16 +4197,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4175,72 +4214,72 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
@@ -4249,15 +4288,15 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>54</v>
@@ -4266,15 +4305,15 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
@@ -4283,61 +4322,10 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4352,34 +4340,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -4393,16 +4382,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4413,16 +4402,16 @@
         <v>3</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4433,16 +4422,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4453,16 +4442,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4473,16 +4462,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4493,16 +4482,16 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4513,16 +4502,16 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4533,16 +4522,16 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4553,16 +4542,16 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4573,16 +4562,16 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4593,16 +4582,16 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4613,16 +4602,16 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4633,16 +4622,16 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4653,16 +4642,16 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4673,16 +4662,16 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4693,16 +4682,16 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4713,16 +4702,16 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4733,16 +4722,16 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4752,17 +4741,17 @@
       <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20" t="s">
-        <v>164</v>
+      <c r="C20" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4772,17 +4761,17 @@
       <c r="B21">
         <v>3</v>
       </c>
-      <c r="C21" t="s">
-        <v>165</v>
-      </c>
-      <c r="D21" t="s">
-        <v>166</v>
+      <c r="C21" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" t="s">
-        <v>167</v>
+        <v>24</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4792,37 +4781,17 @@
       <c r="B22">
         <v>4</v>
       </c>
-      <c r="C22" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" t="s">
-        <v>168</v>
+      <c r="C22" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4836,10 +4805,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4849,7 +4818,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4857,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4865,7 +4834,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>240</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4873,7 +4842,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>500</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4881,15 +4850,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1500</v>
+        <v>999</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B4DA5F-AA82-4DE0-BBDE-58287EC6EB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB22F77-A449-427A-9C6E-336F68630BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12276" yWindow="2988" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6168" yWindow="3204" windowWidth="23040" windowHeight="12120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="203">
   <si>
     <t>BuildingID</t>
   </si>
@@ -607,9 +607,6 @@
     <t>砖厂</t>
   </si>
   <si>
-    <t>300,</t>
-  </si>
-  <si>
     <t>生产砖块</t>
   </si>
   <si>
@@ -814,12 +811,6 @@
     <t>3,6,8,</t>
   </si>
   <si>
-    <t>11,23,42,</t>
-  </si>
-  <si>
-    <t>18,32,50,</t>
-  </si>
-  <si>
     <t>5,11,14,</t>
   </si>
   <si>
@@ -872,14 +863,6 @@
   </si>
   <si>
     <t>Score</t>
-  </si>
-  <si>
-    <t>5,10,13,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>400,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>8,14,20,</t>
@@ -979,6 +962,102 @@
   </si>
   <si>
     <t>1000,800,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>700,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>600,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1400,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>800,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>400,200,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,2,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>800,600,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,8,9,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,11,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,50,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,22,43,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,24,40,</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1090,7 +1169,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1131,6 +1210,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1228,8 +1310,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表4" displayName="表4" ref="A1:F22" totalsRowShown="0">
-  <autoFilter ref="A1:F22" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表4" displayName="表4" ref="A1:F24" totalsRowShown="0">
+  <autoFilter ref="A1:F24" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Level"/>
@@ -1542,8 +1624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1662,7 +1744,7 @@
         <v>20</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1941,7 +2023,7 @@
         <v>43</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1980,7 +2062,7 @@
         <v>2</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="Q8">
         <v>-1</v>
@@ -1994,13 +2076,13 @@
         <v>48</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
@@ -2033,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="Q9">
         <v>-1</v>
@@ -2047,7 +2129,7 @@
         <v>50</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2267,11 +2349,11 @@
       <c r="E14" t="s">
         <v>67</v>
       </c>
-      <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s">
-        <v>68</v>
+      <c r="F14" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="H14">
         <v>8</v>
@@ -2298,7 +2380,7 @@
         <v>-12</v>
       </c>
       <c r="P14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q14">
         <v>-1</v>
@@ -2309,16 +2391,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
         <v>70</v>
-      </c>
-      <c r="C15" t="s">
-        <v>71</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
         <v>24</v>
@@ -2351,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -2362,49 +2444,49 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
         <v>74</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
         <v>75</v>
       </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
         <v>76</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>-1</v>
-      </c>
-      <c r="K16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="s">
-        <v>77</v>
       </c>
       <c r="Q16">
         <v>-1</v>
@@ -2415,22 +2497,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
         <v>78</v>
-      </c>
-      <c r="C17" t="s">
-        <v>79</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" t="s">
         <v>79</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2457,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -2468,22 +2550,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
         <v>83</v>
-      </c>
-      <c r="C18" t="s">
-        <v>84</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s">
         <v>84</v>
-      </c>
-      <c r="F18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" t="s">
-        <v>85</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2510,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -2521,22 +2603,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
         <v>86</v>
-      </c>
-      <c r="C19" t="s">
-        <v>87</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s">
         <v>87</v>
-      </c>
-      <c r="F19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" t="s">
-        <v>88</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2563,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -2574,16 +2656,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>90</v>
-      </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s">
         <v>24</v>
@@ -2616,7 +2698,7 @@
         <v>3</v>
       </c>
       <c r="P20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q20">
         <v>-1</v>
@@ -2627,16 +2709,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" t="s">
         <v>92</v>
       </c>
-      <c r="C21" t="s">
-        <v>93</v>
-      </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F21" t="s">
         <v>24</v>
@@ -2669,7 +2751,7 @@
         <v>2</v>
       </c>
       <c r="P21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q21">
         <v>-1</v>
@@ -2680,16 +2762,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" t="s">
         <v>94</v>
       </c>
-      <c r="C22" t="s">
-        <v>95</v>
-      </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F22" t="s">
         <v>24</v>
@@ -2722,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q22">
         <v>-1</v>
@@ -2733,16 +2815,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>97</v>
-      </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F23" t="s">
         <v>24</v>
@@ -2775,7 +2857,7 @@
         <v>5</v>
       </c>
       <c r="P23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q23">
         <v>-1</v>
@@ -2786,16 +2868,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>99</v>
-      </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F24" t="s">
         <v>24</v>
@@ -2828,7 +2910,7 @@
         <v>4</v>
       </c>
       <c r="P24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q24">
         <v>-1</v>
@@ -2839,16 +2921,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>101</v>
-      </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F25" t="s">
         <v>24</v>
@@ -2881,7 +2963,7 @@
         <v>5</v>
       </c>
       <c r="P25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q25">
         <v>-1</v>
@@ -2892,22 +2974,22 @@
         <v>24</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2934,7 +3016,7 @@
         <v>16</v>
       </c>
       <c r="P26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q26">
         <v>-1</v>
@@ -2945,22 +3027,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s">
         <v>106</v>
       </c>
-      <c r="C27" t="s">
-        <v>107</v>
-      </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F27" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" t="s">
         <v>103</v>
-      </c>
-      <c r="G27" t="s">
-        <v>104</v>
       </c>
       <c r="H27">
         <v>7</v>
@@ -2987,7 +3069,7 @@
         <v>7</v>
       </c>
       <c r="P27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q27">
         <v>-1</v>
@@ -2998,22 +3080,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" t="s">
         <v>109</v>
-      </c>
-      <c r="C28" t="s">
-        <v>110</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H28">
         <v>5</v>
@@ -3040,7 +3122,7 @@
         <v>6</v>
       </c>
       <c r="P28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -3051,22 +3133,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" t="s">
         <v>113</v>
-      </c>
-      <c r="C29" t="s">
-        <v>114</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H29">
         <v>10</v>
@@ -3093,7 +3175,7 @@
         <v>14</v>
       </c>
       <c r="P29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -3104,22 +3186,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" t="s">
         <v>116</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
         <v>117</v>
       </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>118</v>
-      </c>
       <c r="F30" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" t="s">
         <v>103</v>
-      </c>
-      <c r="G30" t="s">
-        <v>104</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3146,7 +3228,7 @@
         <v>5</v>
       </c>
       <c r="P30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q30">
         <v>-1</v>
@@ -3157,22 +3239,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" t="s">
         <v>120</v>
-      </c>
-      <c r="C31" t="s">
-        <v>121</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F31" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" t="s">
         <v>103</v>
-      </c>
-      <c r="G31" t="s">
-        <v>104</v>
       </c>
       <c r="H31">
         <v>6</v>
@@ -3199,7 +3281,7 @@
         <v>4</v>
       </c>
       <c r="P31" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="Q31">
         <v>-1</v>
@@ -3210,22 +3292,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" t="s">
         <v>122</v>
       </c>
-      <c r="C32" t="s">
-        <v>123</v>
-      </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F32" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" t="s">
         <v>103</v>
-      </c>
-      <c r="G32" t="s">
-        <v>104</v>
       </c>
       <c r="H32">
         <v>6</v>
@@ -3252,7 +3334,7 @@
         <v>-15</v>
       </c>
       <c r="P32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q32">
         <v>-1</v>
@@ -3263,22 +3345,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" t="s">
         <v>125</v>
-      </c>
-      <c r="C33" t="s">
-        <v>126</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
       <c r="E33" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" t="s">
         <v>126</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>127</v>
-      </c>
-      <c r="G33" t="s">
-        <v>128</v>
       </c>
       <c r="H33">
         <v>8</v>
@@ -3305,7 +3387,7 @@
         <v>25</v>
       </c>
       <c r="P33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -3326,8 +3408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3343,25 +3425,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3427,7 +3509,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="F4" s="5">
         <v>-1</v>
@@ -3522,8 +3604,8 @@
       <c r="D8" s="4">
         <v>0</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>137</v>
+      <c r="E8" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="F8" s="4">
         <v>-2</v>
@@ -3547,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F9" s="5">
         <v>-1</v>
@@ -3570,8 +3652,8 @@
       <c r="D10" s="4">
         <v>0</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>138</v>
+      <c r="E10" s="9" t="s">
+        <v>201</v>
       </c>
       <c r="F10" s="4">
         <v>-2</v>
@@ -3595,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F11" s="5">
         <v>-2</v>
@@ -3619,7 +3701,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F12" s="4">
         <v>-1</v>
@@ -3643,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F13" s="5">
         <v>-1</v>
@@ -3667,13 +3749,13 @@
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F14" s="4">
         <v>11</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -4099,7 +4181,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F32" s="5">
         <v>-1</v>
@@ -4169,10 +4251,10 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4186,10 +4268,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4203,10 +4285,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4220,10 +4302,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4237,10 +4319,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4254,10 +4336,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4271,10 +4353,10 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4288,7 +4370,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
@@ -4305,10 +4387,10 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4322,10 +4404,10 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4340,10 +4422,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4356,19 +4438,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -4382,10 +4464,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
@@ -4401,17 +4483,17 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>151</v>
+      <c r="C3" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>184</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
-        <v>152</v>
+      <c r="F3" s="10" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4430,8 +4512,8 @@
       <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
-        <v>59</v>
+      <c r="F4" s="10" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4442,7 +4524,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
         <v>59</v>
@@ -4450,8 +4532,8 @@
       <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
-        <v>152</v>
+      <c r="F5" s="10" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4470,8 +4552,8 @@
       <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
-        <v>59</v>
+      <c r="F6" s="10" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4482,7 +4564,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
         <v>59</v>
@@ -4490,8 +4572,8 @@
       <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s">
-        <v>152</v>
+      <c r="F7" s="10" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4510,8 +4592,8 @@
       <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" t="s">
-        <v>59</v>
+      <c r="F8" s="10" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4522,7 +4604,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
         <v>59</v>
@@ -4530,8 +4612,8 @@
       <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" t="s">
-        <v>152</v>
+      <c r="F9" s="10" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4544,14 +4626,14 @@
       <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>59</v>
+      <c r="D10" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4562,16 +4644,16 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" t="s">
-        <v>59</v>
+        <v>102</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>186</v>
       </c>
       <c r="E11" t="s">
         <v>24</v>
       </c>
-      <c r="F11" t="s">
-        <v>152</v>
+      <c r="F11" s="10" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4582,10 +4664,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E12" t="s">
         <v>24</v>
@@ -4602,7 +4684,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
@@ -4611,7 +4693,7 @@
         <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4642,7 +4724,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
         <v>59</v>
@@ -4650,8 +4732,8 @@
       <c r="E15" t="s">
         <v>24</v>
       </c>
-      <c r="F15" t="s">
-        <v>152</v>
+      <c r="F15" s="10" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4662,10 +4744,10 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E16" t="s">
         <v>24</v>
@@ -4681,8 +4763,8 @@
       <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17" t="s">
-        <v>103</v>
+      <c r="C17" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="D17" t="s">
         <v>46</v>
@@ -4690,8 +4772,8 @@
       <c r="E17" t="s">
         <v>24</v>
       </c>
-      <c r="F17" t="s">
-        <v>152</v>
+      <c r="F17" s="10" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4705,13 +4787,13 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E18" t="s">
         <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4722,7 +4804,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
         <v>46</v>
@@ -4731,47 +4813,47 @@
         <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" t="s">
-        <v>154</v>
+        <v>195</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="E21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>170</v>
+        <v>197</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4779,19 +4861,59 @@
         <v>1</v>
       </c>
       <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
         <v>4</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>169</v>
+      <c r="C24" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4808,7 +4930,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4818,7 +4940,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4826,7 +4948,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4834,7 +4956,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>310</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4842,7 +4964,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>570</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4850,7 +4972,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>999</v>
+        <v>1300</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB22F77-A449-427A-9C6E-336F68630BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA88A15-186A-4856-9EFA-FFA02BAB3463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6168" yWindow="3204" windowWidth="23040" windowHeight="12120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5820" yWindow="2856" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -1624,8 +1624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2359,7 +2359,7 @@
         <v>8</v>
       </c>
       <c r="I14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J14">
         <v>8</v>
@@ -3408,7 +3408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Configs/RawTable/BuildingTable.xlsx
+++ b/Assets/Configs/RawTable/BuildingTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA88A15-186A-4856-9EFA-FFA02BAB3463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8914B4-CB50-440A-AEDF-45F44B7F9A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="2856" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5088" yWindow="2724" windowWidth="23040" windowHeight="12120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="213">
   <si>
     <t>BuildingID</t>
   </si>
@@ -808,256 +808,302 @@
     <t>ConsumeAmount</t>
   </si>
   <si>
-    <t>3,6,8,</t>
-  </si>
-  <si>
     <t>5,11,14,</t>
   </si>
   <si>
+    <t>5,10,13,</t>
+  </si>
+  <si>
+    <t>7,</t>
+  </si>
+  <si>
+    <t>15,</t>
+  </si>
+  <si>
+    <t>ItemID</t>
+  </si>
+  <si>
+    <t>ItemCount</t>
+  </si>
+  <si>
+    <t>CurrencyID</t>
+  </si>
+  <si>
+    <t>-1,</t>
+  </si>
+  <si>
+    <t>600,</t>
+  </si>
+  <si>
+    <t>150,</t>
+  </si>
+  <si>
+    <t>2000,</t>
+  </si>
+  <si>
+    <t>6000,</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>0,1,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>500,100,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供餐食、美酒，也可以完成每日任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋代农村百姓的房屋比较朴实,多为低矮的屋和瓦房</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>望火楼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏轼疏浚六井，使得西湖甘水，殆遍一城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>府宅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宅院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,300,1,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,10,99,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,11,99,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,2,99,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>700,500,1,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500,600,1,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在风景秀美的西湖，六和塔具有不可替代的引领作用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>观测火情，以备不时之需</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>望火楼是中国最早的消防站，驻扎百余名士兵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>亭榭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,1000,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,1,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,800,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>700,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>400,200,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,2,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>800,600,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,11,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,50,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,8,10,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,16,19,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,26,37,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,25,34,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1300,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>460,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>840,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1450,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>180,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>120,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>250,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>150,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>320,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>240,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,8,11,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>4,9,12,</t>
-  </si>
-  <si>
-    <t>5,10,13,</t>
-  </si>
-  <si>
-    <t>4,</t>
-  </si>
-  <si>
-    <t>8,</t>
-  </si>
-  <si>
-    <t>11,</t>
-  </si>
-  <si>
-    <t>7,</t>
-  </si>
-  <si>
-    <t>15,</t>
-  </si>
-  <si>
-    <t>13,</t>
-  </si>
-  <si>
-    <t>ItemID</t>
-  </si>
-  <si>
-    <t>ItemCount</t>
-  </si>
-  <si>
-    <t>CurrencyID</t>
-  </si>
-  <si>
-    <t>-1,</t>
-  </si>
-  <si>
-    <t>600,</t>
-  </si>
-  <si>
-    <t>150,</t>
-  </si>
-  <si>
-    <t>2000,</t>
-  </si>
-  <si>
-    <t>6000,</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>8,14,20,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,100,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供餐食、美酒，也可以完成每日任务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>宋代农村百姓的房屋比较朴实,多为低矮的屋和瓦房</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>望火楼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏轼疏浚六井，使得西湖甘水，殆遍一城</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>府宅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>宅院</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>200,300,1,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,10,99,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,11,99,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,2,99,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>700,500,1,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1500,600,1,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在风景秀美的西湖，六和塔具有不可替代的引领作用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>观测火情，以备不时之需</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>望火楼是中国最早的消防站，驻扎百余名士兵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>亭榭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000,1000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,1,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,800,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>700,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>200,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>600,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1500,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1400,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>800,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2500,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>400,200,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,2,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>800,600,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,8,9,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,11,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,50,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,22,43,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,24,40,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,12,18,</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1624,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1744,7 +1790,7 @@
         <v>20</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -2023,7 +2069,7 @@
         <v>43</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2062,7 +2108,7 @@
         <v>2</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="Q8">
         <v>-1</v>
@@ -2076,13 +2122,13 @@
         <v>48</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
@@ -2115,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="Q9">
         <v>-1</v>
@@ -2129,7 +2175,7 @@
         <v>50</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2350,10 +2396,10 @@
         <v>67</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="H14">
         <v>8</v>
@@ -2592,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -2977,19 +3023,19 @@
         <v>101</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -3092,10 +3138,10 @@
         <v>110</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H28">
         <v>5</v>
@@ -3145,10 +3191,10 @@
         <v>113</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H29">
         <v>10</v>
@@ -3281,7 +3327,7 @@
         <v>4</v>
       </c>
       <c r="P31" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="Q31">
         <v>-1</v>
@@ -3408,8 +3454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3509,7 +3555,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F4" s="5">
         <v>-1</v>
@@ -3605,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F8" s="4">
         <v>-2</v>
@@ -3629,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F9" s="5">
         <v>-1</v>
@@ -3653,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F10" s="4">
         <v>-2</v>
@@ -3677,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="F11" s="5">
         <v>-2</v>
@@ -3701,7 +3747,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F12" s="4">
         <v>-1</v>
@@ -3724,8 +3770,8 @@
       <c r="D13" s="5">
         <v>0</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>137</v>
+      <c r="E13" s="11" t="s">
+        <v>210</v>
       </c>
       <c r="F13" s="5">
         <v>-1</v>
@@ -3748,14 +3794,14 @@
       <c r="D14" s="4">
         <v>1</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>135</v>
+      <c r="E14" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="F14" s="4">
         <v>11</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>135</v>
+      <c r="G14" s="9" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -4181,7 +4227,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F32" s="5">
         <v>-1</v>
@@ -4229,7 +4275,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4270,8 +4316,8 @@
       <c r="D2" t="s">
         <v>75</v>
       </c>
-      <c r="E2" t="s">
-        <v>139</v>
+      <c r="E2" s="10" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4287,8 +4333,8 @@
       <c r="D3" t="s">
         <v>75</v>
       </c>
-      <c r="E3" t="s">
-        <v>140</v>
+      <c r="E3" s="10" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4304,8 +4350,8 @@
       <c r="D4" t="s">
         <v>75</v>
       </c>
-      <c r="E4" t="s">
-        <v>141</v>
+      <c r="E4" s="10" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4322,7 +4368,7 @@
         <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4356,7 +4402,7 @@
         <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4372,8 +4418,8 @@
       <c r="D8" t="s">
         <v>75</v>
       </c>
-      <c r="E8" t="s">
-        <v>28</v>
+      <c r="E8" s="10" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4389,8 +4435,8 @@
       <c r="D9" t="s">
         <v>75</v>
       </c>
-      <c r="E9" t="s">
-        <v>140</v>
+      <c r="E9" s="10" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4406,8 +4452,8 @@
       <c r="D10" t="s">
         <v>75</v>
       </c>
-      <c r="E10" t="s">
-        <v>144</v>
+      <c r="E10" s="10" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -4425,7 +4471,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4444,13 +4490,13 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -4464,16 +4510,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
-        <v>59</v>
+      <c r="F2" s="10" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4484,16 +4530,16 @@
         <v>3</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4506,14 +4552,14 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>59</v>
+      <c r="D4" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4526,14 +4572,14 @@
       <c r="C5" t="s">
         <v>102</v>
       </c>
-      <c r="D5" t="s">
-        <v>59</v>
+      <c r="D5" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4553,7 +4599,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4573,7 +4619,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4586,14 +4632,14 @@
       <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
-        <v>59</v>
+      <c r="D8" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="E8" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4606,14 +4652,14 @@
       <c r="C9" t="s">
         <v>102</v>
       </c>
-      <c r="D9" t="s">
-        <v>59</v>
+      <c r="D9" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="E9" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4627,13 +4673,13 @@
         <v>24</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4647,13 +4693,13 @@
         <v>102</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E11" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4667,7 +4713,7 @@
         <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E12" t="s">
         <v>24</v>
@@ -4693,7 +4739,7 @@
         <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4733,7 +4779,7 @@
         <v>24</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4747,7 +4793,7 @@
         <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E16" t="s">
         <v>24</v>
@@ -4764,7 +4810,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D17" t="s">
         <v>46</v>
@@ -4773,7 +4819,7 @@
         <v>24</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4787,13 +4833,13 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E18" t="s">
         <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4813,7 +4859,7 @@
         <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4824,16 +4870,16 @@
         <v>2</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4844,16 +4890,16 @@
         <v>3</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4864,16 +4910,16 @@
         <v>2</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E22" t="s">
         <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -4884,16 +4930,16 @@
         <v>3</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E23" t="s">
         <v>24</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -4904,16 +4950,16 @@
         <v>4</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E24" t="s">
         <v>24</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4940,7 +4986,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
